--- a/Allocation/Maseru/Thetsane.xlsx
+++ b/Allocation/Maseru/Thetsane.xlsx
@@ -14,14 +14,14 @@
     <sheet name="Sheet6" sheetId="7" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet5!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet5!$A$1:$J$1</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1823" uniqueCount="1151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="1038">
   <si>
     <t>MASANKOELA LECHESA</t>
   </si>
@@ -3128,352 +3128,13 @@
     <t>f8gbkq</t>
   </si>
   <si>
-    <t>Tiisetso Mokokoane</t>
-  </si>
-  <si>
-    <t>04331111159</t>
-  </si>
-  <si>
-    <t>Tsolo Phakiso</t>
-  </si>
-  <si>
-    <t>04331111162</t>
-  </si>
-  <si>
-    <t>Mathealira Setsomi</t>
-  </si>
-  <si>
-    <t>04331111163</t>
-  </si>
-  <si>
-    <t>Nkopane Holoane</t>
-  </si>
-  <si>
-    <t>04331111164</t>
-  </si>
-  <si>
-    <t>Lineo Sekonyana</t>
-  </si>
-  <si>
-    <t>04331111165</t>
-  </si>
-  <si>
-    <t>Mpho Mosolo</t>
-  </si>
-  <si>
-    <t>04331111166</t>
-  </si>
-  <si>
-    <t>Matsepo Letsae</t>
-  </si>
-  <si>
-    <t>04331111167</t>
-  </si>
-  <si>
-    <t>Tseliso Ramosolo</t>
-  </si>
-  <si>
-    <t>04331111168</t>
-  </si>
-  <si>
-    <t>Tlotliso Mokhitli</t>
-  </si>
-  <si>
-    <t>04331111170</t>
-  </si>
-  <si>
-    <t>Mavuma Madonge</t>
-  </si>
-  <si>
-    <t>04331111169</t>
-  </si>
-  <si>
-    <t>Puleng Maliehe</t>
-  </si>
-  <si>
-    <t>04331111177</t>
-  </si>
-  <si>
-    <t>Pulane Phafane</t>
-  </si>
-  <si>
-    <t>04331111171</t>
-  </si>
-  <si>
-    <t>Mamoeketsi Mafatle</t>
-  </si>
-  <si>
-    <t>04331111175</t>
-  </si>
-  <si>
-    <t>Tefo Tjoba</t>
-  </si>
-  <si>
-    <t>04331111174</t>
-  </si>
-  <si>
-    <t>Limakatso Ntjelo</t>
-  </si>
-  <si>
-    <t>04331111181</t>
-  </si>
-  <si>
-    <t>Makhoale Mootisa</t>
-  </si>
-  <si>
-    <t>04331111182</t>
-  </si>
-  <si>
-    <t>Vuyiswa Heqoa</t>
-  </si>
-  <si>
-    <t>04331111183</t>
-  </si>
-  <si>
-    <t>Sibongile Heqoa</t>
-  </si>
-  <si>
-    <t>04331111185</t>
-  </si>
-  <si>
-    <t>Teboho Mojaki</t>
-  </si>
-  <si>
-    <t>04331111186</t>
-  </si>
-  <si>
-    <t>Koena Theko</t>
-  </si>
-  <si>
-    <t>04331111187</t>
-  </si>
-  <si>
-    <t>Nthabeleng Lelimo</t>
-  </si>
-  <si>
-    <t>04331111188</t>
-  </si>
-  <si>
-    <t>Neo Skhosana</t>
-  </si>
-  <si>
-    <t>04331111189</t>
-  </si>
-  <si>
-    <t>Monyaluoe Ramoshe</t>
-  </si>
-  <si>
-    <t>04331111190</t>
-  </si>
-  <si>
-    <t>Mahali Tlali</t>
-  </si>
-  <si>
-    <t>04331111199</t>
-  </si>
-  <si>
-    <t>Mothepu Ntho</t>
-  </si>
-  <si>
-    <t>04331111200</t>
-  </si>
-  <si>
-    <t>Lieketseng Selo</t>
-  </si>
-  <si>
-    <t>04331111201</t>
-  </si>
-  <si>
-    <t>Tsotetsi Moea</t>
-  </si>
-  <si>
-    <t>04331111202</t>
-  </si>
-  <si>
-    <t>Neuoe Makhobalo</t>
-  </si>
-  <si>
-    <t>04331111203</t>
-  </si>
-  <si>
-    <t>Takatso Mothebe</t>
-  </si>
-  <si>
-    <t>04331111204</t>
-  </si>
-  <si>
-    <t>Tokelo Matsoso</t>
-  </si>
-  <si>
-    <t>04331111205</t>
-  </si>
-  <si>
-    <t>Reitumetse Mabeli</t>
-  </si>
-  <si>
-    <t>04331111206</t>
-  </si>
-  <si>
-    <t>Heisi Mahase</t>
-  </si>
-  <si>
-    <t>Taelo Phafoli</t>
-  </si>
-  <si>
-    <t>Rethabile Mathaba</t>
-  </si>
-  <si>
-    <t>Mamotshelisi Ntlatlapa</t>
-  </si>
-  <si>
-    <t>Mamokoena Nhlapo</t>
-  </si>
-  <si>
-    <t>Mamoabi Nyenye</t>
-  </si>
-  <si>
-    <t>Matlali Masoabi</t>
-  </si>
-  <si>
-    <t>Moleboheng Mohlalisi</t>
-  </si>
-  <si>
-    <t>Lerato Makhasane</t>
-  </si>
-  <si>
-    <t>Atang Mphana</t>
-  </si>
-  <si>
-    <t>g6zc6i</t>
-  </si>
-  <si>
-    <t>g6zg9x</t>
-  </si>
-  <si>
-    <t>g6zpas</t>
-  </si>
-  <si>
-    <t>g724bi</t>
-  </si>
-  <si>
-    <t>g72hd5</t>
-  </si>
-  <si>
-    <t>g73xji</t>
-  </si>
-  <si>
-    <t>g75vvg</t>
-  </si>
-  <si>
-    <t>g76m6v</t>
-  </si>
-  <si>
-    <t>g779r7</t>
-  </si>
-  <si>
-    <t>g77cy7</t>
-  </si>
-  <si>
-    <t>g79z2y</t>
-  </si>
-  <si>
-    <t>g7aaon</t>
-  </si>
-  <si>
-    <t>g7ducs</t>
-  </si>
-  <si>
-    <t>g7gwhq</t>
-  </si>
-  <si>
-    <t>g7igqx</t>
-  </si>
-  <si>
-    <t>g7ip9h</t>
-  </si>
-  <si>
-    <t>g7jekx</t>
-  </si>
-  <si>
-    <t>g7kzgt</t>
-  </si>
-  <si>
-    <t>g7mai3</t>
-  </si>
-  <si>
-    <t>g7nktb</t>
-  </si>
-  <si>
-    <t>g7npas</t>
-  </si>
-  <si>
-    <t>g7nx27</t>
-  </si>
-  <si>
-    <t>g7ogas</t>
-  </si>
-  <si>
-    <t>g7ojo2</t>
-  </si>
-  <si>
-    <t>g7soxf</t>
-  </si>
-  <si>
-    <t>g7spze</t>
-  </si>
-  <si>
-    <t>g7t2kp</t>
-  </si>
-  <si>
-    <t>g7tnq2</t>
-  </si>
-  <si>
-    <t>g7vxxc</t>
-  </si>
-  <si>
-    <t>g7w8c2</t>
-  </si>
-  <si>
-    <t>g7wjqb</t>
-  </si>
-  <si>
-    <t>g7xbnv</t>
-  </si>
-  <si>
-    <t>g7xmep</t>
-  </si>
-  <si>
-    <t>g7xo8p</t>
-  </si>
-  <si>
-    <t>g7y7zw</t>
-  </si>
-  <si>
-    <t>g7zagm</t>
-  </si>
-  <si>
-    <t>g82wig</t>
-  </si>
-  <si>
-    <t>g82z3g</t>
-  </si>
-  <si>
-    <t>g8383i</t>
-  </si>
-  <si>
-    <t>g83nbe</t>
-  </si>
-  <si>
-    <t>g83uer</t>
-  </si>
-  <si>
-    <t>g85mtz</t>
-  </si>
-  <si>
-    <t>g86das</t>
-  </si>
-  <si>
-    <t>g88zqd</t>
+    <t>htthbm</t>
+  </si>
+  <si>
+    <t>Toka Lebelo</t>
+  </si>
+  <si>
+    <t>04331111194</t>
   </si>
 </sst>
 </file>
@@ -3790,7 +3451,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9511,10 +9172,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J256"/>
+  <dimension ref="A1:J213"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A233" workbookViewId="0">
-      <selection activeCell="A213" sqref="A213:XFD213"/>
+    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
+      <selection activeCell="A212" sqref="A212:A213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9581,23 +9242,23 @@
         <v>639</v>
       </c>
       <c r="F2" s="74" t="str">
-        <f t="shared" ref="F2" si="0">LEFT(E2,2)</f>
+        <f>LEFT(E2,2)</f>
         <v>04</v>
       </c>
       <c r="G2" s="74" t="str">
-        <f t="shared" ref="G2" si="1">MID(E2,3,2)</f>
+        <f>MID(E2,3,2)</f>
         <v>33</v>
       </c>
       <c r="H2" s="74" t="str">
-        <f t="shared" ref="H2" si="2">CONCATENATE("A",MID(E2,5,2))</f>
+        <f>CONCATENATE("A",MID(E2,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I2" s="74" t="str">
-        <f t="shared" ref="I2" si="3">MID(E2,7,1)</f>
+        <f>MID(E2,7,1)</f>
         <v>1</v>
       </c>
       <c r="J2" s="74" t="str">
-        <f t="shared" ref="J2" si="4">MID(E2,8,1)</f>
+        <f>MID(E2,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -9618,23 +9279,23 @@
         <v>640</v>
       </c>
       <c r="F3" s="74" t="str">
-        <f t="shared" ref="F3:F66" si="5">LEFT(E3,2)</f>
+        <f>LEFT(E3,2)</f>
         <v>04</v>
       </c>
       <c r="G3" s="74" t="str">
-        <f t="shared" ref="G3:G66" si="6">MID(E3,3,2)</f>
+        <f>MID(E3,3,2)</f>
         <v>33</v>
       </c>
       <c r="H3" s="74" t="str">
-        <f t="shared" ref="H3:H66" si="7">CONCATENATE("A",MID(E3,5,2))</f>
+        <f>CONCATENATE("A",MID(E3,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I3" s="74" t="str">
-        <f t="shared" ref="I3:I66" si="8">MID(E3,7,1)</f>
+        <f>MID(E3,7,1)</f>
         <v>1</v>
       </c>
       <c r="J3" s="74" t="str">
-        <f t="shared" ref="J3:J66" si="9">MID(E3,8,1)</f>
+        <f>MID(E3,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -9643,35 +9304,35 @@
         <v>817</v>
       </c>
       <c r="B4" s="76" t="s">
-        <v>826</v>
-      </c>
-      <c r="C4" s="42" t="s">
-        <v>711</v>
+        <v>828</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>713</v>
       </c>
       <c r="D4" s="42">
         <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="F4" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f>LEFT(E4,2)</f>
         <v>04</v>
       </c>
       <c r="G4" s="74" t="str">
-        <f t="shared" si="6"/>
+        <f>MID(E4,3,2)</f>
         <v>33</v>
       </c>
       <c r="H4" s="74" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE("A",MID(E4,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I4" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f>MID(E4,7,1)</f>
         <v>1</v>
       </c>
       <c r="J4" s="74" t="str">
-        <f t="shared" si="9"/>
+        <f>MID(E4,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -9680,35 +9341,35 @@
         <v>817</v>
       </c>
       <c r="B5" s="76" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="D5" s="42">
         <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="F5" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f>LEFT(E5,2)</f>
         <v>04</v>
       </c>
       <c r="G5" s="74" t="str">
-        <f t="shared" si="6"/>
+        <f>MID(E5,3,2)</f>
         <v>33</v>
       </c>
       <c r="H5" s="74" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE("A",MID(E5,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I5" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f>MID(E5,7,1)</f>
         <v>1</v>
       </c>
       <c r="J5" s="74" t="str">
-        <f t="shared" si="9"/>
+        <f>MID(E5,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -9717,35 +9378,35 @@
         <v>817</v>
       </c>
       <c r="B6" s="76" t="s">
-        <v>828</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>713</v>
+        <v>830</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>715</v>
       </c>
       <c r="D6" s="42">
         <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="F6" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f>LEFT(E6,2)</f>
         <v>04</v>
       </c>
       <c r="G6" s="74" t="str">
-        <f t="shared" si="6"/>
+        <f>MID(E6,3,2)</f>
         <v>33</v>
       </c>
       <c r="H6" s="74" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE("A",MID(E6,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I6" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f>MID(E6,7,1)</f>
         <v>1</v>
       </c>
       <c r="J6" s="74" t="str">
-        <f t="shared" si="9"/>
+        <f>MID(E6,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -9753,36 +9414,36 @@
       <c r="A7" s="39" t="s">
         <v>817</v>
       </c>
-      <c r="B7" s="76" t="s">
-        <v>829</v>
-      </c>
-      <c r="C7" s="42" t="s">
-        <v>714</v>
+      <c r="B7" s="75" t="s">
+        <v>831</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>716</v>
       </c>
       <c r="D7" s="42">
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="F7" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f>LEFT(E7,2)</f>
         <v>04</v>
       </c>
       <c r="G7" s="74" t="str">
-        <f t="shared" si="6"/>
+        <f>MID(E7,3,2)</f>
         <v>33</v>
       </c>
       <c r="H7" s="74" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE("A",MID(E7,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I7" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f>MID(E7,7,1)</f>
         <v>1</v>
       </c>
       <c r="J7" s="74" t="str">
-        <f t="shared" si="9"/>
+        <f>MID(E7,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -9791,35 +9452,35 @@
         <v>817</v>
       </c>
       <c r="B8" s="76" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="D8" s="42">
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>645</v>
+        <v>641</v>
       </c>
       <c r="F8" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f>LEFT(E8,2)</f>
         <v>04</v>
       </c>
       <c r="G8" s="74" t="str">
-        <f t="shared" si="6"/>
+        <f>MID(E8,3,2)</f>
         <v>33</v>
       </c>
       <c r="H8" s="74" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE("A",MID(E8,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I8" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f>MID(E8,7,1)</f>
         <v>1</v>
       </c>
       <c r="J8" s="74" t="str">
-        <f t="shared" si="9"/>
+        <f>MID(E8,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -9827,36 +9488,36 @@
       <c r="A9" s="39" t="s">
         <v>817</v>
       </c>
-      <c r="B9" s="75" t="s">
-        <v>831</v>
-      </c>
-      <c r="C9" s="43" t="s">
-        <v>716</v>
+      <c r="B9" s="76" t="s">
+        <v>827</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>712</v>
       </c>
       <c r="D9" s="42">
         <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>646</v>
+        <v>642</v>
       </c>
       <c r="F9" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f>LEFT(E9,2)</f>
         <v>04</v>
       </c>
       <c r="G9" s="74" t="str">
-        <f t="shared" si="6"/>
+        <f>MID(E9,3,2)</f>
         <v>33</v>
       </c>
       <c r="H9" s="74" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE("A",MID(E9,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I9" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f>MID(E9,7,1)</f>
         <v>1</v>
       </c>
       <c r="J9" s="74" t="str">
-        <f t="shared" si="9"/>
+        <f>MID(E9,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -9865,35 +9526,35 @@
         <v>817</v>
       </c>
       <c r="B10" s="76" t="s">
-        <v>832</v>
+        <v>840</v>
       </c>
       <c r="C10" s="42" t="s">
-        <v>717</v>
+        <v>725</v>
       </c>
       <c r="D10" s="42">
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>647</v>
+        <v>655</v>
       </c>
       <c r="F10" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f>LEFT(E10,2)</f>
         <v>04</v>
       </c>
       <c r="G10" s="74" t="str">
-        <f t="shared" si="6"/>
+        <f>MID(E10,3,2)</f>
         <v>33</v>
       </c>
       <c r="H10" s="74" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE("A",MID(E10,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I10" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f>MID(E10,7,1)</f>
         <v>1</v>
       </c>
       <c r="J10" s="74" t="str">
-        <f t="shared" si="9"/>
+        <f>MID(E10,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -9902,35 +9563,35 @@
         <v>817</v>
       </c>
       <c r="B11" s="76" t="s">
-        <v>833</v>
+        <v>841</v>
       </c>
       <c r="C11" s="42" t="s">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="D11" s="42">
         <v>1</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>648</v>
+        <v>656</v>
       </c>
       <c r="F11" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f>LEFT(E11,2)</f>
         <v>04</v>
       </c>
       <c r="G11" s="74" t="str">
-        <f t="shared" si="6"/>
+        <f>MID(E11,3,2)</f>
         <v>33</v>
       </c>
       <c r="H11" s="74" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE("A",MID(E11,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I11" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f>MID(E11,7,1)</f>
         <v>1</v>
       </c>
       <c r="J11" s="74" t="str">
-        <f t="shared" si="9"/>
+        <f>MID(E11,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -9939,35 +9600,35 @@
         <v>817</v>
       </c>
       <c r="B12" s="76" t="s">
-        <v>834</v>
-      </c>
-      <c r="C12" s="42" t="s">
-        <v>719</v>
+        <v>846</v>
+      </c>
+      <c r="C12" s="47" t="s">
+        <v>731</v>
       </c>
       <c r="D12" s="42">
         <v>1</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>649</v>
+        <v>661</v>
       </c>
       <c r="F12" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f>LEFT(E12,2)</f>
         <v>04</v>
       </c>
       <c r="G12" s="74" t="str">
-        <f t="shared" si="6"/>
+        <f>MID(E12,3,2)</f>
         <v>33</v>
       </c>
       <c r="H12" s="74" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE("A",MID(E12,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I12" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f>MID(E12,7,1)</f>
         <v>1</v>
       </c>
       <c r="J12" s="74" t="str">
-        <f t="shared" si="9"/>
+        <f>MID(E12,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -9976,35 +9637,35 @@
         <v>817</v>
       </c>
       <c r="B13" s="76" t="s">
-        <v>835</v>
+        <v>847</v>
       </c>
       <c r="C13" s="42" t="s">
-        <v>720</v>
+        <v>732</v>
       </c>
       <c r="D13" s="42">
         <v>1</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>650</v>
+        <v>662</v>
       </c>
       <c r="F13" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f>LEFT(E13,2)</f>
         <v>04</v>
       </c>
       <c r="G13" s="74" t="str">
-        <f t="shared" si="6"/>
+        <f>MID(E13,3,2)</f>
         <v>33</v>
       </c>
       <c r="H13" s="74" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE("A",MID(E13,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I13" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f>MID(E13,7,1)</f>
         <v>1</v>
       </c>
       <c r="J13" s="74" t="str">
-        <f t="shared" si="9"/>
+        <f>MID(E13,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -10013,35 +9674,35 @@
         <v>817</v>
       </c>
       <c r="B14" s="76" t="s">
-        <v>836</v>
-      </c>
-      <c r="C14" s="68" t="s">
-        <v>721</v>
+        <v>843</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>728</v>
       </c>
       <c r="D14" s="42">
         <v>1</v>
       </c>
-      <c r="E14" s="69" t="s">
-        <v>651</v>
+      <c r="E14" s="3" t="s">
+        <v>658</v>
       </c>
       <c r="F14" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f>LEFT(E14,2)</f>
         <v>04</v>
       </c>
       <c r="G14" s="74" t="str">
-        <f t="shared" si="6"/>
+        <f>MID(E14,3,2)</f>
         <v>33</v>
       </c>
       <c r="H14" s="74" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE("A",MID(E14,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I14" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f>MID(E14,7,1)</f>
         <v>1</v>
       </c>
       <c r="J14" s="74" t="str">
-        <f t="shared" si="9"/>
+        <f>MID(E14,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -10050,35 +9711,35 @@
         <v>817</v>
       </c>
       <c r="B15" s="76" t="s">
-        <v>837</v>
+        <v>842</v>
       </c>
       <c r="C15" s="42" t="s">
-        <v>722</v>
+        <v>727</v>
       </c>
       <c r="D15" s="42">
         <v>1</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="F15" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f>LEFT(E15,2)</f>
         <v>04</v>
       </c>
       <c r="G15" s="74" t="str">
-        <f t="shared" si="6"/>
+        <f>MID(E15,3,2)</f>
         <v>33</v>
       </c>
       <c r="H15" s="74" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE("A",MID(E15,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I15" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f>MID(E15,7,1)</f>
         <v>1</v>
       </c>
       <c r="J15" s="74" t="str">
-        <f t="shared" si="9"/>
+        <f>MID(E15,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -10087,35 +9748,35 @@
         <v>817</v>
       </c>
       <c r="B16" s="76" t="s">
-        <v>838</v>
+        <v>845</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
       <c r="D16" s="42">
         <v>1</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="F16" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f>LEFT(E16,2)</f>
         <v>04</v>
       </c>
       <c r="G16" s="74" t="str">
-        <f t="shared" si="6"/>
+        <f>MID(E16,3,2)</f>
         <v>33</v>
       </c>
       <c r="H16" s="74" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE("A",MID(E16,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I16" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f>MID(E16,7,1)</f>
         <v>1</v>
       </c>
       <c r="J16" s="74" t="str">
-        <f t="shared" si="9"/>
+        <f>MID(E16,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -10124,35 +9785,35 @@
         <v>817</v>
       </c>
       <c r="B17" s="76" t="s">
-        <v>839</v>
+        <v>848</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>724</v>
+        <v>733</v>
       </c>
       <c r="D17" s="42">
         <v>1</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>654</v>
+        <v>663</v>
       </c>
       <c r="F17" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f>LEFT(E17,2)</f>
         <v>04</v>
       </c>
       <c r="G17" s="74" t="str">
-        <f t="shared" si="6"/>
+        <f>MID(E17,3,2)</f>
         <v>33</v>
       </c>
       <c r="H17" s="74" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE("A",MID(E17,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I17" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f>MID(E17,7,1)</f>
         <v>1</v>
       </c>
       <c r="J17" s="74" t="str">
-        <f t="shared" si="9"/>
+        <f>MID(E17,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -10160,36 +9821,36 @@
       <c r="A18" s="39" t="s">
         <v>817</v>
       </c>
-      <c r="B18" s="76" t="s">
-        <v>840</v>
+      <c r="B18" s="75" t="s">
+        <v>850</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>725</v>
+        <v>735</v>
       </c>
       <c r="D18" s="42">
         <v>1</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>655</v>
+        <v>665</v>
       </c>
       <c r="F18" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f>LEFT(E18,2)</f>
         <v>04</v>
       </c>
       <c r="G18" s="74" t="str">
-        <f t="shared" si="6"/>
+        <f>MID(E18,3,2)</f>
         <v>33</v>
       </c>
       <c r="H18" s="74" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE("A",MID(E18,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I18" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f>MID(E18,7,1)</f>
         <v>1</v>
       </c>
       <c r="J18" s="74" t="str">
-        <f t="shared" si="9"/>
+        <f>MID(E18,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -10198,35 +9859,35 @@
         <v>817</v>
       </c>
       <c r="B19" s="76" t="s">
-        <v>841</v>
+        <v>851</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>726</v>
+        <v>736</v>
       </c>
       <c r="D19" s="42">
         <v>1</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>656</v>
+        <v>666</v>
       </c>
       <c r="F19" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f>LEFT(E19,2)</f>
         <v>04</v>
       </c>
       <c r="G19" s="74" t="str">
-        <f t="shared" si="6"/>
+        <f>MID(E19,3,2)</f>
         <v>33</v>
       </c>
       <c r="H19" s="74" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE("A",MID(E19,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I19" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f>MID(E19,7,1)</f>
         <v>1</v>
       </c>
       <c r="J19" s="74" t="str">
-        <f t="shared" si="9"/>
+        <f>MID(E19,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -10235,35 +9896,35 @@
         <v>817</v>
       </c>
       <c r="B20" s="76" t="s">
-        <v>842</v>
+        <v>852</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>727</v>
+        <v>737</v>
       </c>
       <c r="D20" s="42">
         <v>1</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>657</v>
+        <v>667</v>
       </c>
       <c r="F20" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f>LEFT(E20,2)</f>
         <v>04</v>
       </c>
       <c r="G20" s="74" t="str">
-        <f t="shared" si="6"/>
+        <f>MID(E20,3,2)</f>
         <v>33</v>
       </c>
       <c r="H20" s="74" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE("A",MID(E20,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I20" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f>MID(E20,7,1)</f>
         <v>1</v>
       </c>
       <c r="J20" s="74" t="str">
-        <f t="shared" si="9"/>
+        <f>MID(E20,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -10272,35 +9933,35 @@
         <v>817</v>
       </c>
       <c r="B21" s="76" t="s">
-        <v>843</v>
-      </c>
-      <c r="C21" s="42" t="s">
-        <v>728</v>
+        <v>853</v>
+      </c>
+      <c r="C21" s="47" t="s">
+        <v>738</v>
       </c>
       <c r="D21" s="42">
         <v>1</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>658</v>
+        <v>668</v>
       </c>
       <c r="F21" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f>LEFT(E21,2)</f>
         <v>04</v>
       </c>
       <c r="G21" s="74" t="str">
-        <f t="shared" si="6"/>
+        <f>MID(E21,3,2)</f>
         <v>33</v>
       </c>
       <c r="H21" s="74" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE("A",MID(E21,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I21" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f>MID(E21,7,1)</f>
         <v>1</v>
       </c>
       <c r="J21" s="74" t="str">
-        <f t="shared" si="9"/>
+        <f>MID(E21,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -10309,35 +9970,35 @@
         <v>817</v>
       </c>
       <c r="B22" s="76" t="s">
-        <v>844</v>
+        <v>860</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>729</v>
+        <v>745</v>
       </c>
       <c r="D22" s="42">
         <v>1</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>659</v>
+        <v>674</v>
       </c>
       <c r="F22" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f>LEFT(E22,2)</f>
         <v>04</v>
       </c>
       <c r="G22" s="74" t="str">
-        <f t="shared" si="6"/>
+        <f>MID(E22,3,2)</f>
         <v>33</v>
       </c>
       <c r="H22" s="74" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE("A",MID(E22,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I22" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f>MID(E22,7,1)</f>
         <v>1</v>
       </c>
       <c r="J22" s="74" t="str">
-        <f t="shared" si="9"/>
+        <f>MID(E22,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -10346,35 +10007,35 @@
         <v>817</v>
       </c>
       <c r="B23" s="76" t="s">
-        <v>845</v>
+        <v>861</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>730</v>
+        <v>746</v>
       </c>
       <c r="D23" s="42">
         <v>1</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>660</v>
+        <v>675</v>
       </c>
       <c r="F23" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f>LEFT(E23,2)</f>
         <v>04</v>
       </c>
       <c r="G23" s="74" t="str">
-        <f t="shared" si="6"/>
+        <f>MID(E23,3,2)</f>
         <v>33</v>
       </c>
       <c r="H23" s="74" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE("A",MID(E23,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I23" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f>MID(E23,7,1)</f>
         <v>1</v>
       </c>
       <c r="J23" s="74" t="str">
-        <f t="shared" si="9"/>
+        <f>MID(E23,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -10383,35 +10044,35 @@
         <v>817</v>
       </c>
       <c r="B24" s="76" t="s">
-        <v>846</v>
+        <v>854</v>
       </c>
       <c r="C24" s="47" t="s">
-        <v>731</v>
+        <v>739</v>
       </c>
       <c r="D24" s="42">
         <v>1</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="F24" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f>LEFT(E24,2)</f>
         <v>04</v>
       </c>
       <c r="G24" s="74" t="str">
-        <f t="shared" si="6"/>
+        <f>MID(E24,3,2)</f>
         <v>33</v>
       </c>
       <c r="H24" s="74" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE("A",MID(E24,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I24" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f>MID(E24,7,1)</f>
         <v>1</v>
       </c>
       <c r="J24" s="74" t="str">
-        <f t="shared" si="9"/>
+        <f>MID(E24,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -10420,35 +10081,35 @@
         <v>817</v>
       </c>
       <c r="B25" s="76" t="s">
-        <v>847</v>
+        <v>862</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>732</v>
+        <v>747</v>
       </c>
       <c r="D25" s="42">
         <v>1</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>662</v>
+        <v>676</v>
       </c>
       <c r="F25" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f>LEFT(E25,2)</f>
         <v>04</v>
       </c>
       <c r="G25" s="74" t="str">
-        <f t="shared" si="6"/>
+        <f>MID(E25,3,2)</f>
         <v>33</v>
       </c>
       <c r="H25" s="74" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE("A",MID(E25,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I25" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f>MID(E25,7,1)</f>
         <v>1</v>
       </c>
       <c r="J25" s="74" t="str">
-        <f t="shared" si="9"/>
+        <f>MID(E25,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -10457,35 +10118,35 @@
         <v>817</v>
       </c>
       <c r="B26" s="76" t="s">
-        <v>848</v>
+        <v>863</v>
       </c>
       <c r="C26" s="42" t="s">
-        <v>733</v>
+        <v>748</v>
       </c>
       <c r="D26" s="42">
         <v>1</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>663</v>
+        <v>677</v>
       </c>
       <c r="F26" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f>LEFT(E26,2)</f>
         <v>04</v>
       </c>
       <c r="G26" s="74" t="str">
-        <f t="shared" si="6"/>
+        <f>MID(E26,3,2)</f>
         <v>33</v>
       </c>
       <c r="H26" s="74" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE("A",MID(E26,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I26" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f>MID(E26,7,1)</f>
         <v>1</v>
       </c>
       <c r="J26" s="74" t="str">
-        <f t="shared" si="9"/>
+        <f>MID(E26,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -10493,36 +10154,36 @@
       <c r="A27" s="39" t="s">
         <v>817</v>
       </c>
-      <c r="B27" s="75" t="s">
-        <v>849</v>
+      <c r="B27" s="76" t="s">
+        <v>855</v>
       </c>
       <c r="C27" s="42" t="s">
-        <v>734</v>
+        <v>740</v>
       </c>
       <c r="D27" s="42">
         <v>1</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="F27" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f>LEFT(E27,2)</f>
         <v>04</v>
       </c>
       <c r="G27" s="74" t="str">
-        <f t="shared" si="6"/>
+        <f>MID(E27,3,2)</f>
         <v>33</v>
       </c>
       <c r="H27" s="74" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE("A",MID(E27,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I27" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f>MID(E27,7,1)</f>
         <v>1</v>
       </c>
       <c r="J27" s="74" t="str">
-        <f t="shared" si="9"/>
+        <f>MID(E27,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -10530,36 +10191,36 @@
       <c r="A28" s="39" t="s">
         <v>817</v>
       </c>
-      <c r="B28" s="75" t="s">
-        <v>850</v>
+      <c r="B28" s="76" t="s">
+        <v>856</v>
       </c>
       <c r="C28" s="42" t="s">
-        <v>735</v>
+        <v>741</v>
       </c>
       <c r="D28" s="42">
         <v>1</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="F28" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f>LEFT(E28,2)</f>
         <v>04</v>
       </c>
       <c r="G28" s="74" t="str">
-        <f t="shared" si="6"/>
+        <f>MID(E28,3,2)</f>
         <v>33</v>
       </c>
       <c r="H28" s="74" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE("A",MID(E28,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I28" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f>MID(E28,7,1)</f>
         <v>1</v>
       </c>
       <c r="J28" s="74" t="str">
-        <f t="shared" si="9"/>
+        <f>MID(E28,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -10568,35 +10229,35 @@
         <v>817</v>
       </c>
       <c r="B29" s="76" t="s">
-        <v>851</v>
+        <v>857</v>
       </c>
       <c r="C29" s="42" t="s">
-        <v>736</v>
+        <v>742</v>
       </c>
       <c r="D29" s="42">
         <v>1</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>666</v>
+        <v>389</v>
       </c>
       <c r="F29" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f>LEFT(E29,2)</f>
         <v>04</v>
       </c>
       <c r="G29" s="74" t="str">
-        <f t="shared" si="6"/>
+        <f>MID(E29,3,2)</f>
         <v>33</v>
       </c>
       <c r="H29" s="74" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE("A",MID(E29,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I29" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f>MID(E29,7,1)</f>
         <v>1</v>
       </c>
       <c r="J29" s="74" t="str">
-        <f t="shared" si="9"/>
+        <f>MID(E29,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -10605,35 +10266,35 @@
         <v>817</v>
       </c>
       <c r="B30" s="76" t="s">
-        <v>852</v>
+        <v>912</v>
       </c>
       <c r="C30" s="42" t="s">
-        <v>737</v>
+        <v>797</v>
       </c>
       <c r="D30" s="42">
         <v>1</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>667</v>
+      <c r="E30" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="F30" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f>LEFT(E30,2)</f>
         <v>04</v>
       </c>
       <c r="G30" s="74" t="str">
-        <f t="shared" si="6"/>
+        <f>MID(E30,3,2)</f>
         <v>33</v>
       </c>
       <c r="H30" s="74" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE("A",MID(E30,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I30" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f>MID(E30,7,1)</f>
         <v>1</v>
       </c>
       <c r="J30" s="74" t="str">
-        <f t="shared" si="9"/>
+        <f>MID(E30,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -10642,35 +10303,35 @@
         <v>817</v>
       </c>
       <c r="B31" s="76" t="s">
-        <v>853</v>
-      </c>
-      <c r="C31" s="47" t="s">
-        <v>738</v>
+        <v>858</v>
+      </c>
+      <c r="C31" s="42" t="s">
+        <v>743</v>
       </c>
       <c r="D31" s="42">
         <v>1</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="F31" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f>LEFT(E31,2)</f>
         <v>04</v>
       </c>
       <c r="G31" s="74" t="str">
-        <f t="shared" si="6"/>
+        <f>MID(E31,3,2)</f>
         <v>33</v>
       </c>
       <c r="H31" s="74" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE("A",MID(E31,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I31" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f>MID(E31,7,1)</f>
         <v>1</v>
       </c>
       <c r="J31" s="74" t="str">
-        <f t="shared" si="9"/>
+        <f>MID(E31,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -10679,35 +10340,35 @@
         <v>817</v>
       </c>
       <c r="B32" s="76" t="s">
-        <v>854</v>
-      </c>
-      <c r="C32" s="47" t="s">
-        <v>739</v>
+        <v>844</v>
+      </c>
+      <c r="C32" s="42" t="s">
+        <v>729</v>
       </c>
       <c r="D32" s="42">
         <v>1</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="F32" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f>LEFT(E32,2)</f>
         <v>04</v>
       </c>
       <c r="G32" s="74" t="str">
-        <f t="shared" si="6"/>
+        <f>MID(E32,3,2)</f>
         <v>33</v>
       </c>
       <c r="H32" s="74" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE("A",MID(E32,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I32" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f>MID(E32,7,1)</f>
         <v>1</v>
       </c>
       <c r="J32" s="74" t="str">
-        <f t="shared" si="9"/>
+        <f>MID(E32,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -10715,36 +10376,36 @@
       <c r="A33" s="39" t="s">
         <v>817</v>
       </c>
-      <c r="B33" s="76" t="s">
-        <v>855</v>
+      <c r="B33" s="75" t="s">
+        <v>849</v>
       </c>
       <c r="C33" s="42" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="D33" s="42">
         <v>1</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="F33" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f>LEFT(E33,2)</f>
         <v>04</v>
       </c>
       <c r="G33" s="74" t="str">
-        <f t="shared" si="6"/>
+        <f>MID(E33,3,2)</f>
         <v>33</v>
       </c>
       <c r="H33" s="74" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE("A",MID(E33,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I33" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f>MID(E33,7,1)</f>
         <v>1</v>
       </c>
       <c r="J33" s="74" t="str">
-        <f t="shared" si="9"/>
+        <f>MID(E33,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -10753,35 +10414,35 @@
         <v>817</v>
       </c>
       <c r="B34" s="76" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="C34" s="42" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="D34" s="42">
         <v>1</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="F34" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f>LEFT(E34,2)</f>
         <v>04</v>
       </c>
       <c r="G34" s="74" t="str">
-        <f t="shared" si="6"/>
+        <f>MID(E34,3,2)</f>
         <v>33</v>
       </c>
       <c r="H34" s="74" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE("A",MID(E34,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I34" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f>MID(E34,7,1)</f>
         <v>1</v>
       </c>
       <c r="J34" s="74" t="str">
-        <f t="shared" si="9"/>
+        <f>MID(E34,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -10790,35 +10451,35 @@
         <v>817</v>
       </c>
       <c r="B35" s="76" t="s">
-        <v>857</v>
+        <v>866</v>
       </c>
       <c r="C35" s="42" t="s">
-        <v>742</v>
+        <v>751</v>
       </c>
       <c r="D35" s="42">
         <v>1</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>389</v>
+        <v>680</v>
       </c>
       <c r="F35" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f>LEFT(E35,2)</f>
         <v>04</v>
       </c>
       <c r="G35" s="74" t="str">
-        <f t="shared" si="6"/>
+        <f>MID(E35,3,2)</f>
         <v>33</v>
       </c>
       <c r="H35" s="74" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE("A",MID(E35,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I35" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f>MID(E35,7,1)</f>
         <v>1</v>
       </c>
       <c r="J35" s="74" t="str">
-        <f t="shared" si="9"/>
+        <f>MID(E35,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -10827,35 +10488,35 @@
         <v>817</v>
       </c>
       <c r="B36" s="76" t="s">
-        <v>858</v>
+        <v>865</v>
       </c>
       <c r="C36" s="42" t="s">
-        <v>743</v>
+        <v>750</v>
       </c>
       <c r="D36" s="42">
         <v>1</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>672</v>
+        <v>679</v>
       </c>
       <c r="F36" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f>LEFT(E36,2)</f>
         <v>04</v>
       </c>
       <c r="G36" s="74" t="str">
-        <f t="shared" si="6"/>
+        <f>MID(E36,3,2)</f>
         <v>33</v>
       </c>
       <c r="H36" s="74" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE("A",MID(E36,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I36" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f>MID(E36,7,1)</f>
         <v>1</v>
       </c>
       <c r="J36" s="74" t="str">
-        <f t="shared" si="9"/>
+        <f>MID(E36,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -10864,35 +10525,35 @@
         <v>817</v>
       </c>
       <c r="B37" s="76" t="s">
-        <v>859</v>
+        <v>868</v>
       </c>
       <c r="C37" s="42" t="s">
-        <v>744</v>
+        <v>753</v>
       </c>
       <c r="D37" s="42">
         <v>1</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="F37" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f>LEFT(E37,2)</f>
         <v>04</v>
       </c>
       <c r="G37" s="74" t="str">
-        <f t="shared" si="6"/>
+        <f>MID(E37,3,2)</f>
         <v>33</v>
       </c>
       <c r="H37" s="74" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE("A",MID(E37,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I37" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f>MID(E37,7,1)</f>
         <v>1</v>
       </c>
       <c r="J37" s="74" t="str">
-        <f t="shared" si="9"/>
+        <f>MID(E37,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -10901,35 +10562,35 @@
         <v>817</v>
       </c>
       <c r="B38" s="76" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="C38" s="42" t="s">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="D38" s="42">
         <v>1</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="F38" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f>LEFT(E38,2)</f>
         <v>04</v>
       </c>
       <c r="G38" s="74" t="str">
-        <f t="shared" si="6"/>
+        <f>MID(E38,3,2)</f>
         <v>33</v>
       </c>
       <c r="H38" s="74" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE("A",MID(E38,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I38" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f>MID(E38,7,1)</f>
         <v>1</v>
       </c>
       <c r="J38" s="74" t="str">
-        <f t="shared" si="9"/>
+        <f>MID(E38,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -10938,35 +10599,35 @@
         <v>817</v>
       </c>
       <c r="B39" s="76" t="s">
-        <v>861</v>
+        <v>871</v>
       </c>
       <c r="C39" s="42" t="s">
-        <v>746</v>
+        <v>756</v>
       </c>
       <c r="D39" s="42">
         <v>1</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>675</v>
+        <v>685</v>
       </c>
       <c r="F39" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f>LEFT(E39,2)</f>
         <v>04</v>
       </c>
       <c r="G39" s="74" t="str">
-        <f t="shared" si="6"/>
+        <f>MID(E39,3,2)</f>
         <v>33</v>
       </c>
       <c r="H39" s="74" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE("A",MID(E39,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I39" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f>MID(E39,7,1)</f>
         <v>1</v>
       </c>
       <c r="J39" s="74" t="str">
-        <f t="shared" si="9"/>
+        <f>MID(E39,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -10975,35 +10636,35 @@
         <v>817</v>
       </c>
       <c r="B40" s="76" t="s">
-        <v>862</v>
+        <v>869</v>
       </c>
       <c r="C40" s="42" t="s">
-        <v>747</v>
+        <v>754</v>
       </c>
       <c r="D40" s="42">
         <v>1</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>676</v>
+        <v>683</v>
       </c>
       <c r="F40" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f>LEFT(E40,2)</f>
         <v>04</v>
       </c>
       <c r="G40" s="74" t="str">
-        <f t="shared" si="6"/>
+        <f>MID(E40,3,2)</f>
         <v>33</v>
       </c>
       <c r="H40" s="74" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE("A",MID(E40,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I40" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f>MID(E40,7,1)</f>
         <v>1</v>
       </c>
       <c r="J40" s="74" t="str">
-        <f t="shared" si="9"/>
+        <f>MID(E40,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -11012,35 +10673,35 @@
         <v>817</v>
       </c>
       <c r="B41" s="76" t="s">
-        <v>863</v>
+        <v>872</v>
       </c>
       <c r="C41" s="42" t="s">
-        <v>748</v>
+        <v>757</v>
       </c>
       <c r="D41" s="42">
         <v>1</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>677</v>
+        <v>686</v>
       </c>
       <c r="F41" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f>LEFT(E41,2)</f>
         <v>04</v>
       </c>
       <c r="G41" s="74" t="str">
-        <f t="shared" si="6"/>
+        <f>MID(E41,3,2)</f>
         <v>33</v>
       </c>
       <c r="H41" s="74" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE("A",MID(E41,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I41" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f>MID(E41,7,1)</f>
         <v>1</v>
       </c>
       <c r="J41" s="74" t="str">
-        <f t="shared" si="9"/>
+        <f>MID(E41,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -11049,35 +10710,35 @@
         <v>817</v>
       </c>
       <c r="B42" s="76" t="s">
-        <v>864</v>
+        <v>870</v>
       </c>
       <c r="C42" s="42" t="s">
-        <v>749</v>
+        <v>755</v>
       </c>
       <c r="D42" s="42">
         <v>1</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="F42" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f>LEFT(E42,2)</f>
         <v>04</v>
       </c>
       <c r="G42" s="74" t="str">
-        <f t="shared" si="6"/>
+        <f>MID(E42,3,2)</f>
         <v>33</v>
       </c>
       <c r="H42" s="74" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE("A",MID(E42,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I42" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f>MID(E42,7,1)</f>
         <v>1</v>
       </c>
       <c r="J42" s="74" t="str">
-        <f t="shared" si="9"/>
+        <f>MID(E42,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -11086,35 +10747,35 @@
         <v>817</v>
       </c>
       <c r="B43" s="76" t="s">
-        <v>865</v>
+        <v>881</v>
       </c>
       <c r="C43" s="42" t="s">
-        <v>750</v>
+        <v>766</v>
       </c>
       <c r="D43" s="42">
         <v>1</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>679</v>
+        <v>695</v>
       </c>
       <c r="F43" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f>LEFT(E43,2)</f>
         <v>04</v>
       </c>
       <c r="G43" s="74" t="str">
-        <f t="shared" si="6"/>
+        <f>MID(E43,3,2)</f>
         <v>33</v>
       </c>
       <c r="H43" s="74" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE("A",MID(E43,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I43" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f>MID(E43,7,1)</f>
         <v>1</v>
       </c>
       <c r="J43" s="74" t="str">
-        <f t="shared" si="9"/>
+        <f>MID(E43,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -11123,35 +10784,35 @@
         <v>817</v>
       </c>
       <c r="B44" s="76" t="s">
-        <v>866</v>
+        <v>880</v>
       </c>
       <c r="C44" s="42" t="s">
-        <v>751</v>
+        <v>765</v>
       </c>
       <c r="D44" s="42">
         <v>1</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>680</v>
+        <v>694</v>
       </c>
       <c r="F44" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f>LEFT(E44,2)</f>
         <v>04</v>
       </c>
       <c r="G44" s="74" t="str">
-        <f t="shared" si="6"/>
+        <f>MID(E44,3,2)</f>
         <v>33</v>
       </c>
       <c r="H44" s="74" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE("A",MID(E44,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I44" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f>MID(E44,7,1)</f>
         <v>1</v>
       </c>
       <c r="J44" s="74" t="str">
-        <f t="shared" si="9"/>
+        <f>MID(E44,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -11160,35 +10821,35 @@
         <v>817</v>
       </c>
       <c r="B45" s="76" t="s">
-        <v>867</v>
+        <v>873</v>
       </c>
       <c r="C45" s="42" t="s">
-        <v>752</v>
+        <v>758</v>
       </c>
       <c r="D45" s="42">
         <v>1</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="F45" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f>LEFT(E45,2)</f>
         <v>04</v>
       </c>
       <c r="G45" s="74" t="str">
-        <f t="shared" si="6"/>
+        <f>MID(E45,3,2)</f>
         <v>33</v>
       </c>
       <c r="H45" s="74" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE("A",MID(E45,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I45" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f>MID(E45,7,1)</f>
         <v>1</v>
       </c>
       <c r="J45" s="74" t="str">
-        <f t="shared" si="9"/>
+        <f>MID(E45,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -11197,35 +10858,35 @@
         <v>817</v>
       </c>
       <c r="B46" s="76" t="s">
-        <v>868</v>
+        <v>874</v>
       </c>
       <c r="C46" s="42" t="s">
-        <v>753</v>
+        <v>759</v>
       </c>
       <c r="D46" s="42">
         <v>1</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="F46" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f>LEFT(E46,2)</f>
         <v>04</v>
       </c>
       <c r="G46" s="74" t="str">
-        <f t="shared" si="6"/>
+        <f>MID(E46,3,2)</f>
         <v>33</v>
       </c>
       <c r="H46" s="74" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE("A",MID(E46,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I46" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f>MID(E46,7,1)</f>
         <v>1</v>
       </c>
       <c r="J46" s="74" t="str">
-        <f t="shared" si="9"/>
+        <f>MID(E46,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -11234,35 +10895,35 @@
         <v>817</v>
       </c>
       <c r="B47" s="76" t="s">
-        <v>869</v>
+        <v>875</v>
       </c>
       <c r="C47" s="42" t="s">
-        <v>754</v>
+        <v>760</v>
       </c>
       <c r="D47" s="42">
         <v>1</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="F47" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f>LEFT(E47,2)</f>
         <v>04</v>
       </c>
       <c r="G47" s="74" t="str">
-        <f t="shared" si="6"/>
+        <f>MID(E47,3,2)</f>
         <v>33</v>
       </c>
       <c r="H47" s="74" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE("A",MID(E47,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I47" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f>MID(E47,7,1)</f>
         <v>1</v>
       </c>
       <c r="J47" s="74" t="str">
-        <f t="shared" si="9"/>
+        <f>MID(E47,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -11271,35 +10932,35 @@
         <v>817</v>
       </c>
       <c r="B48" s="76" t="s">
-        <v>870</v>
-      </c>
-      <c r="C48" s="42" t="s">
-        <v>755</v>
+        <v>877</v>
+      </c>
+      <c r="C48" s="43" t="s">
+        <v>762</v>
       </c>
       <c r="D48" s="42">
         <v>1</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="F48" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f>LEFT(E48,2)</f>
         <v>04</v>
       </c>
       <c r="G48" s="74" t="str">
-        <f t="shared" si="6"/>
+        <f>MID(E48,3,2)</f>
         <v>33</v>
       </c>
       <c r="H48" s="74" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE("A",MID(E48,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I48" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f>MID(E48,7,1)</f>
         <v>1</v>
       </c>
       <c r="J48" s="74" t="str">
-        <f t="shared" si="9"/>
+        <f>MID(E48,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -11308,35 +10969,35 @@
         <v>817</v>
       </c>
       <c r="B49" s="76" t="s">
-        <v>871</v>
+        <v>885</v>
       </c>
       <c r="C49" s="42" t="s">
-        <v>756</v>
+        <v>770</v>
       </c>
       <c r="D49" s="42">
         <v>1</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>685</v>
+        <v>699</v>
       </c>
       <c r="F49" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f>LEFT(E49,2)</f>
         <v>04</v>
       </c>
       <c r="G49" s="74" t="str">
-        <f t="shared" si="6"/>
+        <f>MID(E49,3,2)</f>
         <v>33</v>
       </c>
       <c r="H49" s="74" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE("A",MID(E49,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I49" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f>MID(E49,7,1)</f>
         <v>1</v>
       </c>
       <c r="J49" s="74" t="str">
-        <f t="shared" si="9"/>
+        <f>MID(E49,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -11345,35 +11006,35 @@
         <v>817</v>
       </c>
       <c r="B50" s="76" t="s">
-        <v>872</v>
-      </c>
-      <c r="C50" s="42" t="s">
-        <v>757</v>
+        <v>884</v>
+      </c>
+      <c r="C50" s="50" t="s">
+        <v>769</v>
       </c>
       <c r="D50" s="42">
         <v>1</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>686</v>
+        <v>698</v>
       </c>
       <c r="F50" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f>LEFT(E50,2)</f>
         <v>04</v>
       </c>
       <c r="G50" s="74" t="str">
-        <f t="shared" si="6"/>
+        <f>MID(E50,3,2)</f>
         <v>33</v>
       </c>
       <c r="H50" s="74" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE("A",MID(E50,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I50" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f>MID(E50,7,1)</f>
         <v>1</v>
       </c>
       <c r="J50" s="74" t="str">
-        <f t="shared" si="9"/>
+        <f>MID(E50,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -11382,35 +11043,35 @@
         <v>817</v>
       </c>
       <c r="B51" s="76" t="s">
-        <v>873</v>
+        <v>882</v>
       </c>
       <c r="C51" s="42" t="s">
-        <v>758</v>
+        <v>767</v>
       </c>
       <c r="D51" s="42">
         <v>1</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>687</v>
+        <v>696</v>
       </c>
       <c r="F51" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f>LEFT(E51,2)</f>
         <v>04</v>
       </c>
       <c r="G51" s="74" t="str">
-        <f t="shared" si="6"/>
+        <f>MID(E51,3,2)</f>
         <v>33</v>
       </c>
       <c r="H51" s="74" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE("A",MID(E51,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I51" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f>MID(E51,7,1)</f>
         <v>1</v>
       </c>
       <c r="J51" s="74" t="str">
-        <f t="shared" si="9"/>
+        <f>MID(E51,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -11419,35 +11080,35 @@
         <v>817</v>
       </c>
       <c r="B52" s="76" t="s">
-        <v>874</v>
+        <v>892</v>
       </c>
       <c r="C52" s="42" t="s">
-        <v>759</v>
+        <v>777</v>
       </c>
       <c r="D52" s="42">
         <v>1</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>688</v>
+        <v>706</v>
       </c>
       <c r="F52" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f>LEFT(E52,2)</f>
         <v>04</v>
       </c>
       <c r="G52" s="74" t="str">
-        <f t="shared" si="6"/>
+        <f>MID(E52,3,2)</f>
         <v>33</v>
       </c>
       <c r="H52" s="74" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE("A",MID(E52,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I52" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f>MID(E52,7,1)</f>
         <v>1</v>
       </c>
       <c r="J52" s="74" t="str">
-        <f t="shared" si="9"/>
+        <f>MID(E52,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -11456,35 +11117,35 @@
         <v>817</v>
       </c>
       <c r="B53" s="76" t="s">
-        <v>875</v>
-      </c>
-      <c r="C53" s="42" t="s">
-        <v>760</v>
+        <v>891</v>
+      </c>
+      <c r="C53" s="47" t="s">
+        <v>776</v>
       </c>
       <c r="D53" s="42">
         <v>1</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>689</v>
+        <v>705</v>
       </c>
       <c r="F53" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f>LEFT(E53,2)</f>
         <v>04</v>
       </c>
       <c r="G53" s="74" t="str">
-        <f t="shared" si="6"/>
+        <f>MID(E53,3,2)</f>
         <v>33</v>
       </c>
       <c r="H53" s="74" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE("A",MID(E53,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I53" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f>MID(E53,7,1)</f>
         <v>1</v>
       </c>
       <c r="J53" s="74" t="str">
-        <f t="shared" si="9"/>
+        <f>MID(E53,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -11493,35 +11154,35 @@
         <v>817</v>
       </c>
       <c r="B54" s="76" t="s">
-        <v>876</v>
+        <v>893</v>
       </c>
       <c r="C54" s="42" t="s">
-        <v>761</v>
+        <v>778</v>
       </c>
       <c r="D54" s="42">
         <v>1</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>690</v>
+        <v>707</v>
       </c>
       <c r="F54" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f>LEFT(E54,2)</f>
         <v>04</v>
       </c>
       <c r="G54" s="74" t="str">
-        <f t="shared" si="6"/>
+        <f>MID(E54,3,2)</f>
         <v>33</v>
       </c>
       <c r="H54" s="74" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE("A",MID(E54,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I54" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f>MID(E54,7,1)</f>
         <v>1</v>
       </c>
       <c r="J54" s="74" t="str">
-        <f t="shared" si="9"/>
+        <f>MID(E54,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -11530,35 +11191,35 @@
         <v>817</v>
       </c>
       <c r="B55" s="76" t="s">
-        <v>877</v>
-      </c>
-      <c r="C55" s="43" t="s">
-        <v>762</v>
+        <v>894</v>
+      </c>
+      <c r="C55" s="50" t="s">
+        <v>779</v>
       </c>
       <c r="D55" s="42">
         <v>1</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>691</v>
+        <v>708</v>
       </c>
       <c r="F55" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f>LEFT(E55,2)</f>
         <v>04</v>
       </c>
       <c r="G55" s="74" t="str">
-        <f t="shared" si="6"/>
+        <f>MID(E55,3,2)</f>
         <v>33</v>
       </c>
       <c r="H55" s="74" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE("A",MID(E55,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I55" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f>MID(E55,7,1)</f>
         <v>1</v>
       </c>
       <c r="J55" s="74" t="str">
-        <f t="shared" si="9"/>
+        <f>MID(E55,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -11567,35 +11228,35 @@
         <v>817</v>
       </c>
       <c r="B56" s="76" t="s">
-        <v>878</v>
+        <v>895</v>
       </c>
       <c r="C56" s="42" t="s">
-        <v>763</v>
+        <v>780</v>
       </c>
       <c r="D56" s="42">
         <v>1</v>
       </c>
-      <c r="E56" s="3" t="s">
-        <v>692</v>
+      <c r="E56" s="4" t="s">
+        <v>372</v>
       </c>
       <c r="F56" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f>LEFT(E56,2)</f>
         <v>04</v>
       </c>
       <c r="G56" s="74" t="str">
-        <f t="shared" si="6"/>
+        <f>MID(E56,3,2)</f>
         <v>33</v>
       </c>
       <c r="H56" s="74" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE("A",MID(E56,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I56" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f>MID(E56,7,1)</f>
         <v>1</v>
       </c>
       <c r="J56" s="74" t="str">
-        <f t="shared" si="9"/>
+        <f>MID(E56,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -11604,35 +11265,35 @@
         <v>817</v>
       </c>
       <c r="B57" s="76" t="s">
-        <v>879</v>
-      </c>
-      <c r="C57" s="42" t="s">
-        <v>764</v>
+        <v>836</v>
+      </c>
+      <c r="C57" s="68" t="s">
+        <v>721</v>
       </c>
       <c r="D57" s="42">
         <v>1</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>693</v>
+      <c r="E57" s="69" t="s">
+        <v>651</v>
       </c>
       <c r="F57" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f>LEFT(E57,2)</f>
         <v>04</v>
       </c>
       <c r="G57" s="74" t="str">
-        <f t="shared" si="6"/>
+        <f>MID(E57,3,2)</f>
         <v>33</v>
       </c>
       <c r="H57" s="74" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE("A",MID(E57,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I57" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f>MID(E57,7,1)</f>
         <v>1</v>
       </c>
       <c r="J57" s="74" t="str">
-        <f t="shared" si="9"/>
+        <f>MID(E57,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -11641,35 +11302,35 @@
         <v>817</v>
       </c>
       <c r="B58" s="76" t="s">
-        <v>880</v>
+        <v>837</v>
       </c>
       <c r="C58" s="42" t="s">
-        <v>765</v>
+        <v>722</v>
       </c>
       <c r="D58" s="42">
         <v>1</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>694</v>
+        <v>652</v>
       </c>
       <c r="F58" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f>LEFT(E58,2)</f>
         <v>04</v>
       </c>
       <c r="G58" s="74" t="str">
-        <f t="shared" si="6"/>
+        <f>MID(E58,3,2)</f>
         <v>33</v>
       </c>
       <c r="H58" s="74" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE("A",MID(E58,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I58" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f>MID(E58,7,1)</f>
         <v>1</v>
       </c>
       <c r="J58" s="74" t="str">
-        <f t="shared" si="9"/>
+        <f>MID(E58,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -11678,35 +11339,35 @@
         <v>817</v>
       </c>
       <c r="B59" s="76" t="s">
-        <v>881</v>
+        <v>896</v>
       </c>
       <c r="C59" s="42" t="s">
-        <v>766</v>
+        <v>781</v>
       </c>
       <c r="D59" s="42">
         <v>1</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>695</v>
+      <c r="E59" s="4" t="s">
+        <v>373</v>
       </c>
       <c r="F59" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f>LEFT(E59,2)</f>
         <v>04</v>
       </c>
       <c r="G59" s="74" t="str">
-        <f t="shared" si="6"/>
+        <f>MID(E59,3,2)</f>
         <v>33</v>
       </c>
       <c r="H59" s="74" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE("A",MID(E59,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I59" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f>MID(E59,7,1)</f>
         <v>1</v>
       </c>
       <c r="J59" s="74" t="str">
-        <f t="shared" si="9"/>
+        <f>MID(E59,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -11715,35 +11376,35 @@
         <v>817</v>
       </c>
       <c r="B60" s="76" t="s">
-        <v>882</v>
+        <v>897</v>
       </c>
       <c r="C60" s="42" t="s">
-        <v>767</v>
+        <v>782</v>
       </c>
       <c r="D60" s="42">
         <v>1</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>696</v>
+      <c r="E60" s="4" t="s">
+        <v>374</v>
       </c>
       <c r="F60" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f>LEFT(E60,2)</f>
         <v>04</v>
       </c>
       <c r="G60" s="74" t="str">
-        <f t="shared" si="6"/>
+        <f>MID(E60,3,2)</f>
         <v>33</v>
       </c>
       <c r="H60" s="74" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE("A",MID(E60,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I60" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f>MID(E60,7,1)</f>
         <v>1</v>
       </c>
       <c r="J60" s="74" t="str">
-        <f t="shared" si="9"/>
+        <f>MID(E60,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -11752,35 +11413,35 @@
         <v>817</v>
       </c>
       <c r="B61" s="76" t="s">
-        <v>883</v>
+        <v>898</v>
       </c>
       <c r="C61" s="42" t="s">
-        <v>768</v>
+        <v>783</v>
       </c>
       <c r="D61" s="42">
         <v>1</v>
       </c>
-      <c r="E61" s="3" t="s">
-        <v>697</v>
+      <c r="E61" s="4" t="s">
+        <v>375</v>
       </c>
       <c r="F61" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f>LEFT(E61,2)</f>
         <v>04</v>
       </c>
       <c r="G61" s="74" t="str">
-        <f t="shared" si="6"/>
+        <f>MID(E61,3,2)</f>
         <v>33</v>
       </c>
       <c r="H61" s="74" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE("A",MID(E61,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I61" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f>MID(E61,7,1)</f>
         <v>1</v>
       </c>
       <c r="J61" s="74" t="str">
-        <f t="shared" si="9"/>
+        <f>MID(E61,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -11789,35 +11450,35 @@
         <v>817</v>
       </c>
       <c r="B62" s="76" t="s">
-        <v>884</v>
-      </c>
-      <c r="C62" s="50" t="s">
-        <v>769</v>
+        <v>901</v>
+      </c>
+      <c r="C62" s="42" t="s">
+        <v>786</v>
       </c>
       <c r="D62" s="42">
         <v>1</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>698</v>
+      <c r="E62" s="4" t="s">
+        <v>378</v>
       </c>
       <c r="F62" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f>LEFT(E62,2)</f>
         <v>04</v>
       </c>
       <c r="G62" s="74" t="str">
-        <f t="shared" si="6"/>
+        <f>MID(E62,3,2)</f>
         <v>33</v>
       </c>
       <c r="H62" s="74" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE("A",MID(E62,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I62" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f>MID(E62,7,1)</f>
         <v>1</v>
       </c>
       <c r="J62" s="74" t="str">
-        <f t="shared" si="9"/>
+        <f>MID(E62,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -11826,35 +11487,35 @@
         <v>817</v>
       </c>
       <c r="B63" s="76" t="s">
-        <v>885</v>
+        <v>838</v>
       </c>
       <c r="C63" s="42" t="s">
-        <v>770</v>
+        <v>723</v>
       </c>
       <c r="D63" s="42">
         <v>1</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>699</v>
+        <v>653</v>
       </c>
       <c r="F63" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f>LEFT(E63,2)</f>
         <v>04</v>
       </c>
       <c r="G63" s="74" t="str">
-        <f t="shared" si="6"/>
+        <f>MID(E63,3,2)</f>
         <v>33</v>
       </c>
       <c r="H63" s="74" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE("A",MID(E63,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I63" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f>MID(E63,7,1)</f>
         <v>1</v>
       </c>
       <c r="J63" s="74" t="str">
-        <f t="shared" si="9"/>
+        <f>MID(E63,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -11863,35 +11524,35 @@
         <v>817</v>
       </c>
       <c r="B64" s="76" t="s">
-        <v>886</v>
+        <v>839</v>
       </c>
       <c r="C64" s="42" t="s">
-        <v>771</v>
+        <v>724</v>
       </c>
       <c r="D64" s="42">
         <v>1</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>700</v>
+        <v>654</v>
       </c>
       <c r="F64" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f>LEFT(E64,2)</f>
         <v>04</v>
       </c>
       <c r="G64" s="74" t="str">
-        <f t="shared" si="6"/>
+        <f>MID(E64,3,2)</f>
         <v>33</v>
       </c>
       <c r="H64" s="74" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE("A",MID(E64,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I64" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f>MID(E64,7,1)</f>
         <v>1</v>
       </c>
       <c r="J64" s="74" t="str">
-        <f t="shared" si="9"/>
+        <f>MID(E64,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -11900,35 +11561,35 @@
         <v>817</v>
       </c>
       <c r="B65" s="76" t="s">
-        <v>887</v>
-      </c>
-      <c r="C65" s="47" t="s">
-        <v>772</v>
+        <v>832</v>
+      </c>
+      <c r="C65" s="42" t="s">
+        <v>717</v>
       </c>
       <c r="D65" s="42">
         <v>1</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>701</v>
+        <v>647</v>
       </c>
       <c r="F65" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f>LEFT(E65,2)</f>
         <v>04</v>
       </c>
       <c r="G65" s="74" t="str">
-        <f t="shared" si="6"/>
+        <f>MID(E65,3,2)</f>
         <v>33</v>
       </c>
       <c r="H65" s="74" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE("A",MID(E65,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I65" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f>MID(E65,7,1)</f>
         <v>1</v>
       </c>
       <c r="J65" s="74" t="str">
-        <f t="shared" si="9"/>
+        <f>MID(E65,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -11937,35 +11598,35 @@
         <v>817</v>
       </c>
       <c r="B66" s="76" t="s">
-        <v>888</v>
+        <v>833</v>
       </c>
       <c r="C66" s="42" t="s">
-        <v>773</v>
+        <v>718</v>
       </c>
       <c r="D66" s="42">
         <v>1</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>702</v>
+        <v>648</v>
       </c>
       <c r="F66" s="74" t="str">
-        <f t="shared" si="5"/>
+        <f>LEFT(E66,2)</f>
         <v>04</v>
       </c>
       <c r="G66" s="74" t="str">
-        <f t="shared" si="6"/>
+        <f>MID(E66,3,2)</f>
         <v>33</v>
       </c>
       <c r="H66" s="74" t="str">
-        <f t="shared" si="7"/>
+        <f>CONCATENATE("A",MID(E66,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I66" s="74" t="str">
-        <f t="shared" si="8"/>
+        <f>MID(E66,7,1)</f>
         <v>1</v>
       </c>
       <c r="J66" s="74" t="str">
-        <f t="shared" si="9"/>
+        <f>MID(E66,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -11974,35 +11635,35 @@
         <v>817</v>
       </c>
       <c r="B67" s="76" t="s">
-        <v>889</v>
+        <v>834</v>
       </c>
       <c r="C67" s="42" t="s">
-        <v>774</v>
+        <v>719</v>
       </c>
       <c r="D67" s="42">
         <v>1</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>703</v>
+        <v>649</v>
       </c>
       <c r="F67" s="74" t="str">
-        <f t="shared" ref="F67:F130" si="10">LEFT(E67,2)</f>
+        <f>LEFT(E67,2)</f>
         <v>04</v>
       </c>
       <c r="G67" s="74" t="str">
-        <f t="shared" ref="G67:G130" si="11">MID(E67,3,2)</f>
+        <f>MID(E67,3,2)</f>
         <v>33</v>
       </c>
       <c r="H67" s="74" t="str">
-        <f t="shared" ref="H67:H130" si="12">CONCATENATE("A",MID(E67,5,2))</f>
+        <f>CONCATENATE("A",MID(E67,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I67" s="74" t="str">
-        <f t="shared" ref="I67:I130" si="13">MID(E67,7,1)</f>
+        <f>MID(E67,7,1)</f>
         <v>1</v>
       </c>
       <c r="J67" s="74" t="str">
-        <f t="shared" ref="J67:J130" si="14">MID(E67,8,1)</f>
+        <f>MID(E67,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -12011,35 +11672,35 @@
         <v>817</v>
       </c>
       <c r="B68" s="76" t="s">
-        <v>890</v>
+        <v>835</v>
       </c>
       <c r="C68" s="42" t="s">
-        <v>775</v>
+        <v>720</v>
       </c>
       <c r="D68" s="42">
         <v>1</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>704</v>
+        <v>650</v>
       </c>
       <c r="F68" s="74" t="str">
-        <f t="shared" si="10"/>
+        <f>LEFT(E68,2)</f>
         <v>04</v>
       </c>
       <c r="G68" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>MID(E68,3,2)</f>
         <v>33</v>
       </c>
       <c r="H68" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>CONCATENATE("A",MID(E68,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I68" s="74" t="str">
-        <f t="shared" si="13"/>
+        <f>MID(E68,7,1)</f>
         <v>1</v>
       </c>
       <c r="J68" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f>MID(E68,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -12048,35 +11709,35 @@
         <v>817</v>
       </c>
       <c r="B69" s="76" t="s">
-        <v>891</v>
-      </c>
-      <c r="C69" s="47" t="s">
-        <v>776</v>
+        <v>913</v>
+      </c>
+      <c r="C69" s="42" t="s">
+        <v>798</v>
       </c>
       <c r="D69" s="42">
         <v>1</v>
       </c>
-      <c r="E69" s="3" t="s">
-        <v>705</v>
+      <c r="E69" s="4" t="s">
+        <v>390</v>
       </c>
       <c r="F69" s="74" t="str">
-        <f t="shared" si="10"/>
+        <f>LEFT(E69,2)</f>
         <v>04</v>
       </c>
       <c r="G69" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>MID(E69,3,2)</f>
         <v>33</v>
       </c>
       <c r="H69" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>CONCATENATE("A",MID(E69,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I69" s="74" t="str">
-        <f t="shared" si="13"/>
+        <f>MID(E69,7,1)</f>
         <v>1</v>
       </c>
       <c r="J69" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f>MID(E69,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -12085,35 +11746,35 @@
         <v>817</v>
       </c>
       <c r="B70" s="76" t="s">
-        <v>892</v>
+        <v>914</v>
       </c>
       <c r="C70" s="42" t="s">
-        <v>777</v>
+        <v>799</v>
       </c>
       <c r="D70" s="42">
         <v>1</v>
       </c>
-      <c r="E70" s="3" t="s">
-        <v>706</v>
+      <c r="E70" s="4" t="s">
+        <v>391</v>
       </c>
       <c r="F70" s="74" t="str">
-        <f t="shared" si="10"/>
+        <f>LEFT(E70,2)</f>
         <v>04</v>
       </c>
       <c r="G70" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>MID(E70,3,2)</f>
         <v>33</v>
       </c>
       <c r="H70" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>CONCATENATE("A",MID(E70,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I70" s="74" t="str">
-        <f t="shared" si="13"/>
+        <f>MID(E70,7,1)</f>
         <v>1</v>
       </c>
       <c r="J70" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f>MID(E70,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -12121,36 +11782,36 @@
       <c r="A71" s="39" t="s">
         <v>817</v>
       </c>
-      <c r="B71" s="76" t="s">
-        <v>893</v>
-      </c>
-      <c r="C71" s="42" t="s">
-        <v>778</v>
+      <c r="B71" s="75" t="s">
+        <v>915</v>
+      </c>
+      <c r="C71" s="50" t="s">
+        <v>800</v>
       </c>
       <c r="D71" s="42">
         <v>1</v>
       </c>
-      <c r="E71" s="3" t="s">
-        <v>707</v>
+      <c r="E71" s="70" t="s">
+        <v>392</v>
       </c>
       <c r="F71" s="74" t="str">
-        <f t="shared" si="10"/>
+        <f>LEFT(E71,2)</f>
         <v>04</v>
       </c>
       <c r="G71" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>MID(E71,3,2)</f>
         <v>33</v>
       </c>
       <c r="H71" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>CONCATENATE("A",MID(E71,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I71" s="74" t="str">
-        <f t="shared" si="13"/>
+        <f>MID(E71,7,1)</f>
         <v>1</v>
       </c>
       <c r="J71" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f>MID(E71,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -12159,35 +11820,35 @@
         <v>817</v>
       </c>
       <c r="B72" s="76" t="s">
-        <v>894</v>
-      </c>
-      <c r="C72" s="50" t="s">
-        <v>779</v>
+        <v>916</v>
+      </c>
+      <c r="C72" s="42" t="s">
+        <v>801</v>
       </c>
       <c r="D72" s="42">
         <v>1</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>708</v>
+      <c r="E72" s="4" t="s">
+        <v>393</v>
       </c>
       <c r="F72" s="74" t="str">
-        <f t="shared" si="10"/>
+        <f>LEFT(E72,2)</f>
         <v>04</v>
       </c>
       <c r="G72" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>MID(E72,3,2)</f>
         <v>33</v>
       </c>
       <c r="H72" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>CONCATENATE("A",MID(E72,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I72" s="74" t="str">
-        <f t="shared" si="13"/>
+        <f>MID(E72,7,1)</f>
         <v>1</v>
       </c>
       <c r="J72" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f>MID(E72,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -12196,35 +11857,35 @@
         <v>817</v>
       </c>
       <c r="B73" s="76" t="s">
-        <v>895</v>
-      </c>
-      <c r="C73" s="42" t="s">
-        <v>780</v>
+        <v>900</v>
+      </c>
+      <c r="C73" s="50" t="s">
+        <v>785</v>
       </c>
       <c r="D73" s="42">
         <v>1</v>
       </c>
-      <c r="E73" s="4" t="s">
-        <v>372</v>
+      <c r="E73" s="70" t="s">
+        <v>377</v>
       </c>
       <c r="F73" s="74" t="str">
-        <f t="shared" si="10"/>
+        <f>LEFT(E73,2)</f>
         <v>04</v>
       </c>
       <c r="G73" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>MID(E73,3,2)</f>
         <v>33</v>
       </c>
       <c r="H73" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>CONCATENATE("A",MID(E73,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I73" s="74" t="str">
-        <f t="shared" si="13"/>
+        <f>MID(E73,7,1)</f>
         <v>1</v>
       </c>
       <c r="J73" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f>MID(E73,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -12233,35 +11894,35 @@
         <v>817</v>
       </c>
       <c r="B74" s="76" t="s">
-        <v>896</v>
+        <v>902</v>
       </c>
       <c r="C74" s="42" t="s">
-        <v>781</v>
+        <v>787</v>
       </c>
       <c r="D74" s="42">
         <v>1</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="F74" s="74" t="str">
-        <f t="shared" si="10"/>
+        <f>LEFT(E74,2)</f>
         <v>04</v>
       </c>
       <c r="G74" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>MID(E74,3,2)</f>
         <v>33</v>
       </c>
       <c r="H74" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>CONCATENATE("A",MID(E74,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I74" s="74" t="str">
-        <f t="shared" si="13"/>
+        <f>MID(E74,7,1)</f>
         <v>1</v>
       </c>
       <c r="J74" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f>MID(E74,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -12270,35 +11931,35 @@
         <v>817</v>
       </c>
       <c r="B75" s="76" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="C75" s="42" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="D75" s="42">
         <v>1</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F75" s="74" t="str">
-        <f t="shared" si="10"/>
+        <f>LEFT(E75,2)</f>
         <v>04</v>
       </c>
       <c r="G75" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>MID(E75,3,2)</f>
         <v>33</v>
       </c>
       <c r="H75" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>CONCATENATE("A",MID(E75,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I75" s="74" t="str">
-        <f t="shared" si="13"/>
+        <f>MID(E75,7,1)</f>
         <v>1</v>
       </c>
       <c r="J75" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f>MID(E75,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -12307,35 +11968,35 @@
         <v>817</v>
       </c>
       <c r="B76" s="76" t="s">
-        <v>898</v>
-      </c>
-      <c r="C76" s="42" t="s">
-        <v>783</v>
+        <v>922</v>
+      </c>
+      <c r="C76" s="50" t="s">
+        <v>807</v>
       </c>
       <c r="D76" s="42">
         <v>1</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>375</v>
+        <v>399</v>
       </c>
       <c r="F76" s="74" t="str">
-        <f t="shared" si="10"/>
+        <f>LEFT(E76,2)</f>
         <v>04</v>
       </c>
       <c r="G76" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>MID(E76,3,2)</f>
         <v>33</v>
       </c>
       <c r="H76" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>CONCATENATE("A",MID(E76,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I76" s="74" t="str">
-        <f t="shared" si="13"/>
+        <f>MID(E76,7,1)</f>
         <v>1</v>
       </c>
       <c r="J76" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f>MID(E76,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -12344,35 +12005,35 @@
         <v>817</v>
       </c>
       <c r="B77" s="76" t="s">
-        <v>899</v>
-      </c>
-      <c r="C77" s="42" t="s">
-        <v>784</v>
+        <v>923</v>
+      </c>
+      <c r="C77" s="50" t="s">
+        <v>808</v>
       </c>
       <c r="D77" s="42">
         <v>1</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>376</v>
+        <v>400</v>
       </c>
       <c r="F77" s="74" t="str">
-        <f t="shared" si="10"/>
+        <f>LEFT(E77,2)</f>
         <v>04</v>
       </c>
       <c r="G77" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>MID(E77,3,2)</f>
         <v>33</v>
       </c>
       <c r="H77" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>CONCATENATE("A",MID(E77,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I77" s="74" t="str">
-        <f t="shared" si="13"/>
+        <f>MID(E77,7,1)</f>
         <v>1</v>
       </c>
       <c r="J77" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f>MID(E77,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -12381,35 +12042,35 @@
         <v>817</v>
       </c>
       <c r="B78" s="76" t="s">
-        <v>900</v>
-      </c>
-      <c r="C78" s="50" t="s">
-        <v>785</v>
+        <v>924</v>
+      </c>
+      <c r="C78" s="55" t="s">
+        <v>809</v>
       </c>
       <c r="D78" s="42">
         <v>1</v>
       </c>
-      <c r="E78" s="70" t="s">
-        <v>377</v>
+      <c r="E78" s="4" t="s">
+        <v>401</v>
       </c>
       <c r="F78" s="74" t="str">
-        <f t="shared" si="10"/>
+        <f>LEFT(E78,2)</f>
         <v>04</v>
       </c>
       <c r="G78" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>MID(E78,3,2)</f>
         <v>33</v>
       </c>
       <c r="H78" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>CONCATENATE("A",MID(E78,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I78" s="74" t="str">
-        <f t="shared" si="13"/>
+        <f>MID(E78,7,1)</f>
         <v>1</v>
       </c>
       <c r="J78" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f>MID(E78,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -12418,36 +12079,36 @@
         <v>817</v>
       </c>
       <c r="B79" s="76" t="s">
-        <v>901</v>
-      </c>
-      <c r="C79" s="42" t="s">
-        <v>786</v>
+        <v>925</v>
+      </c>
+      <c r="C79" s="50" t="s">
+        <v>810</v>
       </c>
       <c r="D79" s="42">
         <v>1</v>
       </c>
-      <c r="E79" s="4" t="s">
-        <v>378</v>
+      <c r="E79" s="4">
+        <v>4331111077</v>
       </c>
       <c r="F79" s="74" t="str">
-        <f t="shared" si="10"/>
-        <v>04</v>
+        <f>LEFT(E79,2)</f>
+        <v>43</v>
       </c>
       <c r="G79" s="74" t="str">
-        <f t="shared" si="11"/>
-        <v>33</v>
+        <f>MID(E79,3,2)</f>
+        <v>31</v>
       </c>
       <c r="H79" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>CONCATENATE("A",MID(E79,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I79" s="74" t="str">
-        <f t="shared" si="13"/>
+        <f>MID(E79,7,1)</f>
         <v>1</v>
       </c>
       <c r="J79" s="74" t="str">
-        <f t="shared" si="14"/>
-        <v>1</v>
+        <f>MID(E79,8,1)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="15.75">
@@ -12455,35 +12116,35 @@
         <v>817</v>
       </c>
       <c r="B80" s="76" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="C80" s="42" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="D80" s="42">
         <v>1</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F80" s="74" t="str">
-        <f t="shared" si="10"/>
+        <f>LEFT(E80,2)</f>
         <v>04</v>
       </c>
       <c r="G80" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>MID(E80,3,2)</f>
         <v>33</v>
       </c>
       <c r="H80" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>CONCATENATE("A",MID(E80,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I80" s="74" t="str">
-        <f t="shared" si="13"/>
+        <f>MID(E80,7,1)</f>
         <v>1</v>
       </c>
       <c r="J80" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f>MID(E80,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -12492,35 +12153,35 @@
         <v>817</v>
       </c>
       <c r="B81" s="76" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="C81" s="42" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="D81" s="42">
         <v>1</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F81" s="74" t="str">
-        <f t="shared" si="10"/>
+        <f>LEFT(E81,2)</f>
         <v>04</v>
       </c>
       <c r="G81" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>MID(E81,3,2)</f>
         <v>33</v>
       </c>
       <c r="H81" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>CONCATENATE("A",MID(E81,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I81" s="74" t="str">
-        <f t="shared" si="13"/>
+        <f>MID(E81,7,1)</f>
         <v>1</v>
       </c>
       <c r="J81" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f>MID(E81,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -12529,35 +12190,35 @@
         <v>817</v>
       </c>
       <c r="B82" s="76" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="C82" s="42" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="D82" s="42">
         <v>1</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F82" s="74" t="str">
-        <f t="shared" si="10"/>
+        <f>LEFT(E82,2)</f>
         <v>04</v>
       </c>
       <c r="G82" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>MID(E82,3,2)</f>
         <v>33</v>
       </c>
       <c r="H82" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>CONCATENATE("A",MID(E82,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I82" s="74" t="str">
-        <f t="shared" si="13"/>
+        <f>MID(E82,7,1)</f>
         <v>1</v>
       </c>
       <c r="J82" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f>MID(E82,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -12566,35 +12227,35 @@
         <v>817</v>
       </c>
       <c r="B83" s="76" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="C83" s="42" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="D83" s="42">
         <v>1</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F83" s="74" t="str">
-        <f t="shared" si="10"/>
+        <f>LEFT(E83,2)</f>
         <v>04</v>
       </c>
       <c r="G83" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>MID(E83,3,2)</f>
         <v>33</v>
       </c>
       <c r="H83" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>CONCATENATE("A",MID(E83,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I83" s="74" t="str">
-        <f t="shared" si="13"/>
+        <f>MID(E83,7,1)</f>
         <v>1</v>
       </c>
       <c r="J83" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f>MID(E83,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -12603,35 +12264,35 @@
         <v>817</v>
       </c>
       <c r="B84" s="76" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="C84" s="42" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="D84" s="42">
         <v>1</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F84" s="74" t="str">
-        <f t="shared" si="10"/>
+        <f>LEFT(E84,2)</f>
         <v>04</v>
       </c>
       <c r="G84" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>MID(E84,3,2)</f>
         <v>33</v>
       </c>
       <c r="H84" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>CONCATENATE("A",MID(E84,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I84" s="74" t="str">
-        <f t="shared" si="13"/>
+        <f>MID(E84,7,1)</f>
         <v>1</v>
       </c>
       <c r="J84" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f>MID(E84,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -12640,35 +12301,35 @@
         <v>817</v>
       </c>
       <c r="B85" s="76" t="s">
-        <v>907</v>
+        <v>917</v>
       </c>
       <c r="C85" s="42" t="s">
-        <v>792</v>
+        <v>802</v>
       </c>
       <c r="D85" s="42">
         <v>1</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="F85" s="74" t="str">
-        <f t="shared" si="10"/>
+        <f>LEFT(E85,2)</f>
         <v>04</v>
       </c>
       <c r="G85" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>MID(E85,3,2)</f>
         <v>33</v>
       </c>
       <c r="H85" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>CONCATENATE("A",MID(E85,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I85" s="74" t="str">
-        <f t="shared" si="13"/>
+        <f>MID(E85,7,1)</f>
         <v>1</v>
       </c>
       <c r="J85" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f>MID(E85,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -12677,35 +12338,35 @@
         <v>817</v>
       </c>
       <c r="B86" s="76" t="s">
-        <v>908</v>
+        <v>980</v>
       </c>
       <c r="C86" s="42" t="s">
-        <v>793</v>
+        <v>430</v>
       </c>
       <c r="D86" s="42">
         <v>1</v>
       </c>
-      <c r="E86" s="4" t="s">
-        <v>385</v>
+      <c r="E86" s="3" t="s">
+        <v>627</v>
       </c>
       <c r="F86" s="74" t="str">
-        <f t="shared" si="10"/>
+        <f>LEFT(E86,2)</f>
         <v>04</v>
       </c>
       <c r="G86" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>MID(E86,3,2)</f>
         <v>33</v>
       </c>
       <c r="H86" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>CONCATENATE("A",MID(E86,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I86" s="74" t="str">
-        <f t="shared" si="13"/>
+        <f>MID(E86,7,1)</f>
         <v>1</v>
       </c>
       <c r="J86" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f>MID(E86,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -12714,35 +12375,35 @@
         <v>817</v>
       </c>
       <c r="B87" s="76" t="s">
-        <v>909</v>
+        <v>918</v>
       </c>
       <c r="C87" s="42" t="s">
-        <v>794</v>
+        <v>803</v>
       </c>
       <c r="D87" s="42">
         <v>1</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="F87" s="74" t="str">
-        <f t="shared" si="10"/>
+        <f>LEFT(E87,2)</f>
         <v>04</v>
       </c>
       <c r="G87" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>MID(E87,3,2)</f>
         <v>33</v>
       </c>
       <c r="H87" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>CONCATENATE("A",MID(E87,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I87" s="74" t="str">
-        <f t="shared" si="13"/>
+        <f>MID(E87,7,1)</f>
         <v>1</v>
       </c>
       <c r="J87" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f>MID(E87,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -12751,35 +12412,35 @@
         <v>817</v>
       </c>
       <c r="B88" s="76" t="s">
-        <v>910</v>
+        <v>919</v>
       </c>
       <c r="C88" s="42" t="s">
-        <v>795</v>
+        <v>804</v>
       </c>
       <c r="D88" s="42">
         <v>1</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="F88" s="74" t="str">
-        <f t="shared" si="10"/>
+        <f>LEFT(E88,2)</f>
         <v>04</v>
       </c>
       <c r="G88" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>MID(E88,3,2)</f>
         <v>33</v>
       </c>
       <c r="H88" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>CONCATENATE("A",MID(E88,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I88" s="74" t="str">
-        <f t="shared" si="13"/>
+        <f>MID(E88,7,1)</f>
         <v>1</v>
       </c>
       <c r="J88" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f>MID(E88,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -12788,35 +12449,35 @@
         <v>817</v>
       </c>
       <c r="B89" s="76" t="s">
-        <v>911</v>
+        <v>920</v>
       </c>
       <c r="C89" s="42" t="s">
-        <v>796</v>
+        <v>805</v>
       </c>
       <c r="D89" s="42">
         <v>1</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="F89" s="74" t="str">
-        <f t="shared" si="10"/>
+        <f>LEFT(E89,2)</f>
         <v>04</v>
       </c>
       <c r="G89" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>MID(E89,3,2)</f>
         <v>33</v>
       </c>
       <c r="H89" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>CONCATENATE("A",MID(E89,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I89" s="74" t="str">
-        <f t="shared" si="13"/>
+        <f>MID(E89,7,1)</f>
         <v>1</v>
       </c>
       <c r="J89" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f>MID(E89,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -12825,35 +12486,35 @@
         <v>817</v>
       </c>
       <c r="B90" s="76" t="s">
-        <v>912</v>
-      </c>
-      <c r="C90" s="42" t="s">
-        <v>797</v>
+        <v>926</v>
+      </c>
+      <c r="C90" s="55" t="s">
+        <v>811</v>
       </c>
       <c r="D90" s="42">
         <v>1</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="F90" s="74" t="str">
-        <f t="shared" si="10"/>
+        <f>LEFT(E90,2)</f>
         <v>04</v>
       </c>
       <c r="G90" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>MID(E90,3,2)</f>
         <v>33</v>
       </c>
       <c r="H90" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>CONCATENATE("A",MID(E90,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I90" s="74" t="str">
-        <f t="shared" si="13"/>
+        <f>MID(E90,7,1)</f>
         <v>1</v>
       </c>
       <c r="J90" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f>MID(E90,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -12862,35 +12523,35 @@
         <v>817</v>
       </c>
       <c r="B91" s="76" t="s">
-        <v>913</v>
+        <v>921</v>
       </c>
       <c r="C91" s="42" t="s">
-        <v>798</v>
+        <v>806</v>
       </c>
       <c r="D91" s="42">
         <v>1</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>390</v>
+        <v>398</v>
       </c>
       <c r="F91" s="74" t="str">
-        <f t="shared" si="10"/>
+        <f>LEFT(E91,2)</f>
         <v>04</v>
       </c>
       <c r="G91" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>MID(E91,3,2)</f>
         <v>33</v>
       </c>
       <c r="H91" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>CONCATENATE("A",MID(E91,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I91" s="74" t="str">
-        <f t="shared" si="13"/>
+        <f>MID(E91,7,1)</f>
         <v>1</v>
       </c>
       <c r="J91" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f>MID(E91,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -12899,35 +12560,35 @@
         <v>817</v>
       </c>
       <c r="B92" s="76" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="C92" s="42" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="D92" s="42">
         <v>1</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F92" s="74" t="str">
-        <f t="shared" si="10"/>
+        <f>LEFT(E92,2)</f>
         <v>04</v>
       </c>
       <c r="G92" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>MID(E92,3,2)</f>
         <v>33</v>
       </c>
       <c r="H92" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>CONCATENATE("A",MID(E92,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I92" s="74" t="str">
-        <f t="shared" si="13"/>
+        <f>MID(E92,7,1)</f>
         <v>1</v>
       </c>
       <c r="J92" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f>MID(E92,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -12935,36 +12596,36 @@
       <c r="A93" s="39" t="s">
         <v>817</v>
       </c>
-      <c r="B93" s="75" t="s">
-        <v>915</v>
-      </c>
-      <c r="C93" s="50" t="s">
-        <v>800</v>
+      <c r="B93" s="76" t="s">
+        <v>908</v>
+      </c>
+      <c r="C93" s="42" t="s">
+        <v>793</v>
       </c>
       <c r="D93" s="42">
         <v>1</v>
       </c>
-      <c r="E93" s="70" t="s">
-        <v>392</v>
+      <c r="E93" s="4" t="s">
+        <v>385</v>
       </c>
       <c r="F93" s="74" t="str">
-        <f t="shared" si="10"/>
+        <f>LEFT(E93,2)</f>
         <v>04</v>
       </c>
       <c r="G93" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>MID(E93,3,2)</f>
         <v>33</v>
       </c>
       <c r="H93" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>CONCATENATE("A",MID(E93,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I93" s="74" t="str">
-        <f t="shared" si="13"/>
+        <f>MID(E93,7,1)</f>
         <v>1</v>
       </c>
       <c r="J93" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f>MID(E93,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -12973,35 +12634,35 @@
         <v>817</v>
       </c>
       <c r="B94" s="76" t="s">
-        <v>916</v>
+        <v>909</v>
       </c>
       <c r="C94" s="42" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="D94" s="42">
         <v>1</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="F94" s="74" t="str">
-        <f t="shared" si="10"/>
+        <f>LEFT(E94,2)</f>
         <v>04</v>
       </c>
       <c r="G94" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>MID(E94,3,2)</f>
         <v>33</v>
       </c>
       <c r="H94" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>CONCATENATE("A",MID(E94,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I94" s="74" t="str">
-        <f t="shared" si="13"/>
+        <f>MID(E94,7,1)</f>
         <v>1</v>
       </c>
       <c r="J94" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f>MID(E94,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -13010,35 +12671,35 @@
         <v>817</v>
       </c>
       <c r="B95" s="76" t="s">
-        <v>917</v>
+        <v>982</v>
       </c>
       <c r="C95" s="42" t="s">
-        <v>802</v>
+        <v>432</v>
       </c>
       <c r="D95" s="42">
         <v>1</v>
       </c>
-      <c r="E95" s="4" t="s">
-        <v>394</v>
+      <c r="E95" s="3" t="s">
+        <v>629</v>
       </c>
       <c r="F95" s="74" t="str">
-        <f t="shared" si="10"/>
+        <f>LEFT(E95,2)</f>
         <v>04</v>
       </c>
       <c r="G95" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>MID(E95,3,2)</f>
         <v>33</v>
       </c>
       <c r="H95" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>CONCATENATE("A",MID(E95,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I95" s="74" t="str">
-        <f t="shared" si="13"/>
+        <f>MID(E95,7,1)</f>
         <v>1</v>
       </c>
       <c r="J95" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f>MID(E95,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -13047,35 +12708,35 @@
         <v>817</v>
       </c>
       <c r="B96" s="76" t="s">
-        <v>918</v>
+        <v>985</v>
       </c>
       <c r="C96" s="42" t="s">
-        <v>803</v>
+        <v>435</v>
       </c>
       <c r="D96" s="42">
         <v>1</v>
       </c>
-      <c r="E96" s="4" t="s">
-        <v>395</v>
+      <c r="E96" s="3" t="s">
+        <v>632</v>
       </c>
       <c r="F96" s="74" t="str">
-        <f t="shared" si="10"/>
+        <f>LEFT(E96,2)</f>
         <v>04</v>
       </c>
       <c r="G96" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>MID(E96,3,2)</f>
         <v>33</v>
       </c>
       <c r="H96" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>CONCATENATE("A",MID(E96,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I96" s="74" t="str">
-        <f t="shared" si="13"/>
+        <f>MID(E96,7,1)</f>
         <v>1</v>
       </c>
       <c r="J96" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f>MID(E96,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -13084,35 +12745,35 @@
         <v>817</v>
       </c>
       <c r="B97" s="76" t="s">
-        <v>919</v>
+        <v>983</v>
       </c>
       <c r="C97" s="42" t="s">
-        <v>804</v>
+        <v>433</v>
       </c>
       <c r="D97" s="42">
         <v>1</v>
       </c>
-      <c r="E97" s="4" t="s">
-        <v>396</v>
+      <c r="E97" s="3" t="s">
+        <v>630</v>
       </c>
       <c r="F97" s="74" t="str">
-        <f t="shared" si="10"/>
+        <f>LEFT(E97,2)</f>
         <v>04</v>
       </c>
       <c r="G97" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>MID(E97,3,2)</f>
         <v>33</v>
       </c>
       <c r="H97" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>CONCATENATE("A",MID(E97,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I97" s="74" t="str">
-        <f t="shared" si="13"/>
+        <f>MID(E97,7,1)</f>
         <v>1</v>
       </c>
       <c r="J97" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f>MID(E97,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -13121,35 +12782,35 @@
         <v>817</v>
       </c>
       <c r="B98" s="76" t="s">
-        <v>920</v>
+        <v>981</v>
       </c>
       <c r="C98" s="42" t="s">
-        <v>805</v>
+        <v>431</v>
       </c>
       <c r="D98" s="42">
         <v>1</v>
       </c>
-      <c r="E98" s="4" t="s">
-        <v>397</v>
+      <c r="E98" s="3" t="s">
+        <v>628</v>
       </c>
       <c r="F98" s="74" t="str">
-        <f t="shared" si="10"/>
+        <f>LEFT(E98,2)</f>
         <v>04</v>
       </c>
       <c r="G98" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>MID(E98,3,2)</f>
         <v>33</v>
       </c>
       <c r="H98" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>CONCATENATE("A",MID(E98,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I98" s="74" t="str">
-        <f t="shared" si="13"/>
+        <f>MID(E98,7,1)</f>
         <v>1</v>
       </c>
       <c r="J98" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f>MID(E98,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -13158,35 +12819,35 @@
         <v>817</v>
       </c>
       <c r="B99" s="76" t="s">
-        <v>921</v>
+        <v>961</v>
       </c>
       <c r="C99" s="42" t="s">
-        <v>806</v>
+        <v>404</v>
       </c>
       <c r="D99" s="42">
         <v>1</v>
       </c>
-      <c r="E99" s="4" t="s">
-        <v>398</v>
+      <c r="E99" s="3" t="s">
+        <v>447</v>
       </c>
       <c r="F99" s="74" t="str">
-        <f t="shared" si="10"/>
+        <f>LEFT(E99,2)</f>
         <v>04</v>
       </c>
       <c r="G99" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>MID(E99,3,2)</f>
         <v>33</v>
       </c>
       <c r="H99" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>CONCATENATE("A",MID(E99,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I99" s="74" t="str">
-        <f t="shared" si="13"/>
+        <f>MID(E99,7,1)</f>
         <v>1</v>
       </c>
       <c r="J99" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f>MID(E99,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -13195,35 +12856,35 @@
         <v>817</v>
       </c>
       <c r="B100" s="76" t="s">
-        <v>922</v>
-      </c>
-      <c r="C100" s="50" t="s">
-        <v>807</v>
+        <v>962</v>
+      </c>
+      <c r="C100" s="42" t="s">
+        <v>405</v>
       </c>
       <c r="D100" s="42">
         <v>1</v>
       </c>
-      <c r="E100" s="4" t="s">
-        <v>399</v>
+      <c r="E100" s="3" t="s">
+        <v>610</v>
       </c>
       <c r="F100" s="74" t="str">
-        <f t="shared" si="10"/>
+        <f>LEFT(E100,2)</f>
         <v>04</v>
       </c>
       <c r="G100" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>MID(E100,3,2)</f>
         <v>33</v>
       </c>
       <c r="H100" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>CONCATENATE("A",MID(E100,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I100" s="74" t="str">
-        <f t="shared" si="13"/>
+        <f>MID(E100,7,1)</f>
         <v>1</v>
       </c>
       <c r="J100" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f>MID(E100,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -13232,35 +12893,35 @@
         <v>817</v>
       </c>
       <c r="B101" s="76" t="s">
-        <v>923</v>
-      </c>
-      <c r="C101" s="50" t="s">
-        <v>808</v>
+        <v>984</v>
+      </c>
+      <c r="C101" s="42" t="s">
+        <v>434</v>
       </c>
       <c r="D101" s="42">
         <v>1</v>
       </c>
-      <c r="E101" s="4" t="s">
-        <v>400</v>
+      <c r="E101" s="3" t="s">
+        <v>631</v>
       </c>
       <c r="F101" s="74" t="str">
-        <f t="shared" si="10"/>
+        <f>LEFT(E101,2)</f>
         <v>04</v>
       </c>
       <c r="G101" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>MID(E101,3,2)</f>
         <v>33</v>
       </c>
       <c r="H101" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>CONCATENATE("A",MID(E101,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I101" s="74" t="str">
-        <f t="shared" si="13"/>
+        <f>MID(E101,7,1)</f>
         <v>1</v>
       </c>
       <c r="J101" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f>MID(E101,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -13269,35 +12930,35 @@
         <v>817</v>
       </c>
       <c r="B102" s="76" t="s">
-        <v>924</v>
-      </c>
-      <c r="C102" s="55" t="s">
-        <v>809</v>
+        <v>963</v>
+      </c>
+      <c r="C102" s="42" t="s">
+        <v>407</v>
       </c>
       <c r="D102" s="42">
         <v>1</v>
       </c>
-      <c r="E102" s="4" t="s">
-        <v>401</v>
+      <c r="E102" s="12" t="s">
+        <v>609</v>
       </c>
       <c r="F102" s="74" t="str">
-        <f t="shared" si="10"/>
+        <f>LEFT(E102,2)</f>
         <v>04</v>
       </c>
       <c r="G102" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>MID(E102,3,2)</f>
         <v>33</v>
       </c>
       <c r="H102" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>CONCATENATE("A",MID(E102,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I102" s="74" t="str">
-        <f t="shared" si="13"/>
+        <f>MID(E102,7,1)</f>
         <v>1</v>
       </c>
       <c r="J102" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f>MID(E102,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -13306,35 +12967,35 @@
         <v>817</v>
       </c>
       <c r="B103" s="76" t="s">
-        <v>925</v>
-      </c>
-      <c r="C103" s="50" t="s">
-        <v>810</v>
+        <v>975</v>
+      </c>
+      <c r="C103" s="42" t="s">
+        <v>423</v>
       </c>
       <c r="D103" s="42">
         <v>1</v>
       </c>
-      <c r="E103" s="4" t="s">
-        <v>402</v>
+      <c r="E103" s="3" t="s">
+        <v>622</v>
       </c>
       <c r="F103" s="74" t="str">
-        <f t="shared" si="10"/>
+        <f>LEFT(E103,2)</f>
         <v>04</v>
       </c>
       <c r="G103" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>MID(E103,3,2)</f>
         <v>33</v>
       </c>
       <c r="H103" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>CONCATENATE("A",MID(E103,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I103" s="74" t="str">
-        <f t="shared" si="13"/>
+        <f>MID(E103,7,1)</f>
         <v>1</v>
       </c>
       <c r="J103" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f>MID(E103,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -13343,35 +13004,35 @@
         <v>817</v>
       </c>
       <c r="B104" s="76" t="s">
-        <v>926</v>
-      </c>
-      <c r="C104" s="55" t="s">
-        <v>811</v>
+        <v>966</v>
+      </c>
+      <c r="C104" s="42" t="s">
+        <v>410</v>
       </c>
       <c r="D104" s="42">
         <v>1</v>
       </c>
-      <c r="E104" s="4" t="s">
-        <v>403</v>
+      <c r="E104" s="3" t="s">
+        <v>613</v>
       </c>
       <c r="F104" s="74" t="str">
-        <f t="shared" si="10"/>
+        <f>LEFT(E104,2)</f>
         <v>04</v>
       </c>
       <c r="G104" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>MID(E104,3,2)</f>
         <v>33</v>
       </c>
       <c r="H104" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>CONCATENATE("A",MID(E104,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I104" s="74" t="str">
-        <f t="shared" si="13"/>
+        <f>MID(E104,7,1)</f>
         <v>1</v>
       </c>
       <c r="J104" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f>MID(E104,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -13380,35 +13041,35 @@
         <v>817</v>
       </c>
       <c r="B105" s="76" t="s">
-        <v>927</v>
-      </c>
-      <c r="C105" s="71" t="s">
-        <v>297</v>
+        <v>964</v>
+      </c>
+      <c r="C105" s="42" t="s">
+        <v>408</v>
       </c>
       <c r="D105" s="42">
         <v>1</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>338</v>
+        <v>611</v>
       </c>
       <c r="F105" s="74" t="str">
-        <f t="shared" si="10"/>
+        <f>LEFT(E105,2)</f>
         <v>04</v>
       </c>
       <c r="G105" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>MID(E105,3,2)</f>
         <v>33</v>
       </c>
       <c r="H105" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>CONCATENATE("A",MID(E105,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I105" s="74" t="str">
-        <f t="shared" si="13"/>
+        <f>MID(E105,7,1)</f>
         <v>1</v>
       </c>
       <c r="J105" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f>MID(E105,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -13417,35 +13078,35 @@
         <v>817</v>
       </c>
       <c r="B106" s="76" t="s">
-        <v>928</v>
-      </c>
-      <c r="C106" s="71" t="s">
-        <v>298</v>
+        <v>965</v>
+      </c>
+      <c r="C106" s="42" t="s">
+        <v>409</v>
       </c>
       <c r="D106" s="42">
         <v>1</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>339</v>
+        <v>612</v>
       </c>
       <c r="F106" s="74" t="str">
-        <f t="shared" si="10"/>
+        <f>LEFT(E106,2)</f>
         <v>04</v>
       </c>
       <c r="G106" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>MID(E106,3,2)</f>
         <v>33</v>
       </c>
       <c r="H106" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>CONCATENATE("A",MID(E106,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I106" s="74" t="str">
-        <f t="shared" si="13"/>
+        <f>MID(E106,7,1)</f>
         <v>1</v>
       </c>
       <c r="J106" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f>MID(E106,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -13454,35 +13115,35 @@
         <v>817</v>
       </c>
       <c r="B107" s="76" t="s">
-        <v>929</v>
-      </c>
-      <c r="C107" s="71" t="s">
-        <v>299</v>
+        <v>986</v>
+      </c>
+      <c r="C107" s="42" t="s">
+        <v>436</v>
       </c>
       <c r="D107" s="42">
         <v>1</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>340</v>
+        <v>633</v>
       </c>
       <c r="F107" s="74" t="str">
-        <f t="shared" si="10"/>
+        <f>LEFT(E107,2)</f>
         <v>04</v>
       </c>
       <c r="G107" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>MID(E107,3,2)</f>
         <v>33</v>
       </c>
       <c r="H107" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>CONCATENATE("A",MID(E107,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I107" s="74" t="str">
-        <f t="shared" si="13"/>
+        <f>MID(E107,7,1)</f>
         <v>1</v>
       </c>
       <c r="J107" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f>MID(E107,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -13491,35 +13152,35 @@
         <v>817</v>
       </c>
       <c r="B108" s="76" t="s">
-        <v>930</v>
-      </c>
-      <c r="C108" s="72" t="s">
-        <v>301</v>
+        <v>987</v>
+      </c>
+      <c r="C108" s="42" t="s">
+        <v>439</v>
       </c>
       <c r="D108" s="42">
         <v>1</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>341</v>
+        <v>634</v>
       </c>
       <c r="F108" s="74" t="str">
-        <f t="shared" si="10"/>
+        <f>LEFT(E108,2)</f>
         <v>04</v>
       </c>
       <c r="G108" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>MID(E108,3,2)</f>
         <v>33</v>
       </c>
       <c r="H108" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>CONCATENATE("A",MID(E108,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I108" s="74" t="str">
-        <f t="shared" si="13"/>
+        <f>MID(E108,7,1)</f>
         <v>1</v>
       </c>
       <c r="J108" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f>MID(E108,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -13528,35 +13189,35 @@
         <v>817</v>
       </c>
       <c r="B109" s="76" t="s">
-        <v>931</v>
-      </c>
-      <c r="C109" s="71" t="s">
-        <v>302</v>
+        <v>910</v>
+      </c>
+      <c r="C109" s="42" t="s">
+        <v>795</v>
       </c>
       <c r="D109" s="42">
         <v>1</v>
       </c>
-      <c r="E109" s="3" t="s">
-        <v>342</v>
+      <c r="E109" s="4" t="s">
+        <v>387</v>
       </c>
       <c r="F109" s="74" t="str">
-        <f t="shared" si="10"/>
+        <f>LEFT(E109,2)</f>
         <v>04</v>
       </c>
       <c r="G109" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>MID(E109,3,2)</f>
         <v>33</v>
       </c>
       <c r="H109" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>CONCATENATE("A",MID(E109,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I109" s="74" t="str">
-        <f t="shared" si="13"/>
+        <f>MID(E109,7,1)</f>
         <v>1</v>
       </c>
       <c r="J109" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f>MID(E109,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -13565,35 +13226,35 @@
         <v>817</v>
       </c>
       <c r="B110" s="76" t="s">
-        <v>932</v>
-      </c>
-      <c r="C110" s="71" t="s">
-        <v>303</v>
+        <v>971</v>
+      </c>
+      <c r="C110" s="42" t="s">
+        <v>417</v>
       </c>
       <c r="D110" s="42">
         <v>1</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>343</v>
+        <v>618</v>
       </c>
       <c r="F110" s="74" t="str">
-        <f t="shared" si="10"/>
+        <f>LEFT(E110,2)</f>
         <v>04</v>
       </c>
       <c r="G110" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>MID(E110,3,2)</f>
         <v>33</v>
       </c>
       <c r="H110" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>CONCATENATE("A",MID(E110,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I110" s="74" t="str">
-        <f t="shared" si="13"/>
+        <f>MID(E110,7,1)</f>
         <v>1</v>
       </c>
       <c r="J110" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f>MID(E110,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -13602,35 +13263,35 @@
         <v>817</v>
       </c>
       <c r="B111" s="76" t="s">
-        <v>933</v>
-      </c>
-      <c r="C111" s="71" t="s">
-        <v>304</v>
+        <v>972</v>
+      </c>
+      <c r="C111" s="42" t="s">
+        <v>418</v>
       </c>
       <c r="D111" s="42">
         <v>1</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>344</v>
+        <v>619</v>
       </c>
       <c r="F111" s="74" t="str">
-        <f t="shared" si="10"/>
+        <f>LEFT(E111,2)</f>
         <v>04</v>
       </c>
       <c r="G111" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>MID(E111,3,2)</f>
         <v>33</v>
       </c>
       <c r="H111" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>CONCATENATE("A",MID(E111,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I111" s="74" t="str">
-        <f t="shared" si="13"/>
+        <f>MID(E111,7,1)</f>
         <v>1</v>
       </c>
       <c r="J111" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f>MID(E111,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -13639,35 +13300,35 @@
         <v>817</v>
       </c>
       <c r="B112" s="76" t="s">
-        <v>934</v>
-      </c>
-      <c r="C112" s="72" t="s">
-        <v>305</v>
+        <v>967</v>
+      </c>
+      <c r="C112" s="42" t="s">
+        <v>411</v>
       </c>
       <c r="D112" s="42">
         <v>1</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>345</v>
+        <v>614</v>
       </c>
       <c r="F112" s="74" t="str">
-        <f t="shared" si="10"/>
+        <f>LEFT(E112,2)</f>
         <v>04</v>
       </c>
       <c r="G112" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>MID(E112,3,2)</f>
         <v>33</v>
       </c>
       <c r="H112" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>CONCATENATE("A",MID(E112,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I112" s="74" t="str">
-        <f t="shared" si="13"/>
+        <f>MID(E112,7,1)</f>
         <v>1</v>
       </c>
       <c r="J112" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f>MID(E112,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -13676,35 +13337,35 @@
         <v>817</v>
       </c>
       <c r="B113" s="76" t="s">
-        <v>935</v>
+        <v>968</v>
       </c>
       <c r="C113" s="42" t="s">
-        <v>812</v>
+        <v>412</v>
       </c>
       <c r="D113" s="42">
         <v>1</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>346</v>
+        <v>615</v>
       </c>
       <c r="F113" s="74" t="str">
-        <f t="shared" si="10"/>
+        <f>LEFT(E113,2)</f>
         <v>04</v>
       </c>
       <c r="G113" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>MID(E113,3,2)</f>
         <v>33</v>
       </c>
       <c r="H113" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>CONCATENATE("A",MID(E113,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I113" s="74" t="str">
-        <f t="shared" si="13"/>
+        <f>MID(E113,7,1)</f>
         <v>1</v>
       </c>
       <c r="J113" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f>MID(E113,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -13713,35 +13374,35 @@
         <v>817</v>
       </c>
       <c r="B114" s="76" t="s">
-        <v>936</v>
+        <v>988</v>
       </c>
       <c r="C114" s="42" t="s">
-        <v>813</v>
+        <v>440</v>
       </c>
       <c r="D114" s="42">
         <v>1</v>
       </c>
-      <c r="E114" s="73" t="s">
-        <v>347</v>
+      <c r="E114" s="3" t="s">
+        <v>635</v>
       </c>
       <c r="F114" s="74" t="str">
-        <f t="shared" si="10"/>
+        <f>LEFT(E114,2)</f>
         <v>04</v>
       </c>
       <c r="G114" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>MID(E114,3,2)</f>
         <v>33</v>
       </c>
       <c r="H114" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>CONCATENATE("A",MID(E114,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I114" s="74" t="str">
-        <f t="shared" si="13"/>
+        <f>MID(E114,7,1)</f>
         <v>1</v>
       </c>
       <c r="J114" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f>MID(E114,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -13750,35 +13411,35 @@
         <v>817</v>
       </c>
       <c r="B115" s="76" t="s">
-        <v>937</v>
-      </c>
-      <c r="C115" s="71" t="s">
-        <v>309</v>
+        <v>969</v>
+      </c>
+      <c r="C115" s="42" t="s">
+        <v>415</v>
       </c>
       <c r="D115" s="42">
         <v>1</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>348</v>
+        <v>616</v>
       </c>
       <c r="F115" s="74" t="str">
-        <f t="shared" si="10"/>
+        <f>LEFT(E115,2)</f>
         <v>04</v>
       </c>
       <c r="G115" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>MID(E115,3,2)</f>
         <v>33</v>
       </c>
       <c r="H115" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>CONCATENATE("A",MID(E115,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I115" s="74" t="str">
-        <f t="shared" si="13"/>
+        <f>MID(E115,7,1)</f>
         <v>1</v>
       </c>
       <c r="J115" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f>MID(E115,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -13787,35 +13448,35 @@
         <v>817</v>
       </c>
       <c r="B116" s="76" t="s">
-        <v>938</v>
-      </c>
-      <c r="C116" s="71" t="s">
-        <v>310</v>
+        <v>970</v>
+      </c>
+      <c r="C116" s="42" t="s">
+        <v>416</v>
       </c>
       <c r="D116" s="42">
         <v>1</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>349</v>
+        <v>617</v>
       </c>
       <c r="F116" s="74" t="str">
-        <f t="shared" si="10"/>
+        <f>LEFT(E116,2)</f>
         <v>04</v>
       </c>
       <c r="G116" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>MID(E116,3,2)</f>
         <v>33</v>
       </c>
       <c r="H116" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>CONCATENATE("A",MID(E116,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I116" s="74" t="str">
-        <f t="shared" si="13"/>
+        <f>MID(E116,7,1)</f>
         <v>1</v>
       </c>
       <c r="J116" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f>MID(E116,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -13823,36 +13484,36 @@
       <c r="A117" s="39" t="s">
         <v>817</v>
       </c>
-      <c r="B117" s="76" t="s">
-        <v>939</v>
-      </c>
-      <c r="C117" s="71" t="s">
-        <v>814</v>
+      <c r="B117" s="75" t="s">
+        <v>976</v>
+      </c>
+      <c r="C117" s="42" t="s">
+        <v>424</v>
       </c>
       <c r="D117" s="42">
         <v>1</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>350</v>
+        <v>623</v>
       </c>
       <c r="F117" s="74" t="str">
-        <f t="shared" si="10"/>
+        <f>LEFT(E117,2)</f>
         <v>04</v>
       </c>
       <c r="G117" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>MID(E117,3,2)</f>
         <v>33</v>
       </c>
       <c r="H117" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>CONCATENATE("A",MID(E117,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I117" s="74" t="str">
-        <f t="shared" si="13"/>
+        <f>MID(E117,7,1)</f>
         <v>1</v>
       </c>
       <c r="J117" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f>MID(E117,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -13861,35 +13522,35 @@
         <v>817</v>
       </c>
       <c r="B118" s="76" t="s">
-        <v>940</v>
-      </c>
-      <c r="C118" s="71" t="s">
-        <v>313</v>
+        <v>977</v>
+      </c>
+      <c r="C118" s="42" t="s">
+        <v>425</v>
       </c>
       <c r="D118" s="42">
         <v>1</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>351</v>
+        <v>624</v>
       </c>
       <c r="F118" s="74" t="str">
-        <f t="shared" si="10"/>
+        <f>LEFT(E118,2)</f>
         <v>04</v>
       </c>
       <c r="G118" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>MID(E118,3,2)</f>
         <v>33</v>
       </c>
       <c r="H118" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>CONCATENATE("A",MID(E118,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I118" s="74" t="str">
-        <f t="shared" si="13"/>
+        <f>MID(E118,7,1)</f>
         <v>1</v>
       </c>
       <c r="J118" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f>MID(E118,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -13897,36 +13558,36 @@
       <c r="A119" s="39" t="s">
         <v>817</v>
       </c>
-      <c r="B119" s="75" t="s">
-        <v>941</v>
-      </c>
-      <c r="C119" s="71" t="s">
-        <v>314</v>
+      <c r="B119" s="76" t="s">
+        <v>978</v>
+      </c>
+      <c r="C119" s="42" t="s">
+        <v>428</v>
       </c>
       <c r="D119" s="42">
         <v>1</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>352</v>
+        <v>625</v>
       </c>
       <c r="F119" s="74" t="str">
-        <f t="shared" si="10"/>
+        <f>LEFT(E119,2)</f>
         <v>04</v>
       </c>
       <c r="G119" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>MID(E119,3,2)</f>
         <v>33</v>
       </c>
       <c r="H119" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>CONCATENATE("A",MID(E119,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I119" s="74" t="str">
-        <f t="shared" si="13"/>
+        <f>MID(E119,7,1)</f>
         <v>1</v>
       </c>
       <c r="J119" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f>MID(E119,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -13935,35 +13596,35 @@
         <v>817</v>
       </c>
       <c r="B120" s="76" t="s">
-        <v>942</v>
-      </c>
-      <c r="C120" s="72" t="s">
-        <v>315</v>
+        <v>933</v>
+      </c>
+      <c r="C120" s="71" t="s">
+        <v>304</v>
       </c>
       <c r="D120" s="42">
         <v>1</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="F120" s="74" t="str">
-        <f t="shared" si="10"/>
+        <f>LEFT(E120,2)</f>
         <v>04</v>
       </c>
       <c r="G120" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>MID(E120,3,2)</f>
         <v>33</v>
       </c>
       <c r="H120" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>CONCATENATE("A",MID(E120,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I120" s="74" t="str">
-        <f t="shared" si="13"/>
+        <f>MID(E120,7,1)</f>
         <v>1</v>
       </c>
       <c r="J120" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f>MID(E120,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -13972,35 +13633,35 @@
         <v>817</v>
       </c>
       <c r="B121" s="76" t="s">
-        <v>943</v>
+        <v>934</v>
       </c>
       <c r="C121" s="72" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="D121" s="42">
         <v>1</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="F121" s="74" t="str">
-        <f t="shared" si="10"/>
+        <f>LEFT(E121,2)</f>
         <v>04</v>
       </c>
       <c r="G121" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>MID(E121,3,2)</f>
         <v>33</v>
       </c>
       <c r="H121" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>CONCATENATE("A",MID(E121,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I121" s="74" t="str">
-        <f t="shared" si="13"/>
+        <f>MID(E121,7,1)</f>
         <v>1</v>
       </c>
       <c r="J121" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f>MID(E121,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -14009,35 +13670,35 @@
         <v>817</v>
       </c>
       <c r="B122" s="76" t="s">
-        <v>944</v>
-      </c>
-      <c r="C122" s="71" t="s">
-        <v>318</v>
+        <v>936</v>
+      </c>
+      <c r="C122" s="42" t="s">
+        <v>813</v>
       </c>
       <c r="D122" s="42">
         <v>1</v>
       </c>
-      <c r="E122" s="3" t="s">
-        <v>355</v>
+      <c r="E122" s="73" t="s">
+        <v>347</v>
       </c>
       <c r="F122" s="74" t="str">
-        <f t="shared" si="10"/>
+        <f>LEFT(E122,2)</f>
         <v>04</v>
       </c>
       <c r="G122" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>MID(E122,3,2)</f>
         <v>33</v>
       </c>
       <c r="H122" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>CONCATENATE("A",MID(E122,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I122" s="74" t="str">
-        <f t="shared" si="13"/>
+        <f>MID(E122,7,1)</f>
         <v>1</v>
       </c>
       <c r="J122" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f>MID(E122,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -14046,35 +13707,35 @@
         <v>817</v>
       </c>
       <c r="B123" s="76" t="s">
-        <v>945</v>
+        <v>932</v>
       </c>
       <c r="C123" s="71" t="s">
-        <v>319</v>
+        <v>303</v>
       </c>
       <c r="D123" s="42">
         <v>1</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="F123" s="74" t="str">
-        <f t="shared" si="10"/>
+        <f>LEFT(E123,2)</f>
         <v>04</v>
       </c>
       <c r="G123" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>MID(E123,3,2)</f>
         <v>33</v>
       </c>
       <c r="H123" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>CONCATENATE("A",MID(E123,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I123" s="74" t="str">
-        <f t="shared" si="13"/>
+        <f>MID(E123,7,1)</f>
         <v>1</v>
       </c>
       <c r="J123" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f>MID(E123,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -14083,35 +13744,35 @@
         <v>817</v>
       </c>
       <c r="B124" s="76" t="s">
-        <v>946</v>
-      </c>
-      <c r="C124" s="72" t="s">
-        <v>320</v>
+        <v>949</v>
+      </c>
+      <c r="C124" s="71" t="s">
+        <v>324</v>
       </c>
       <c r="D124" s="42">
         <v>1</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F124" s="74" t="str">
-        <f t="shared" si="10"/>
+        <f>LEFT(E124,2)</f>
         <v>04</v>
       </c>
       <c r="G124" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>MID(E124,3,2)</f>
         <v>33</v>
       </c>
       <c r="H124" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>CONCATENATE("A",MID(E124,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I124" s="74" t="str">
-        <f t="shared" si="13"/>
+        <f>MID(E124,7,1)</f>
         <v>1</v>
       </c>
       <c r="J124" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f>MID(E124,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -14120,35 +13781,35 @@
         <v>817</v>
       </c>
       <c r="B125" s="76" t="s">
-        <v>947</v>
-      </c>
-      <c r="C125" s="71" t="s">
-        <v>321</v>
+        <v>979</v>
+      </c>
+      <c r="C125" s="42" t="s">
+        <v>429</v>
       </c>
       <c r="D125" s="42">
         <v>1</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>358</v>
+        <v>626</v>
       </c>
       <c r="F125" s="74" t="str">
-        <f t="shared" si="10"/>
+        <f>LEFT(E125,2)</f>
         <v>04</v>
       </c>
       <c r="G125" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>MID(E125,3,2)</f>
         <v>33</v>
       </c>
       <c r="H125" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>CONCATENATE("A",MID(E125,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I125" s="74" t="str">
-        <f t="shared" si="13"/>
+        <f>MID(E125,7,1)</f>
         <v>1</v>
       </c>
       <c r="J125" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f>MID(E125,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -14157,35 +13818,35 @@
         <v>817</v>
       </c>
       <c r="B126" s="76" t="s">
-        <v>948</v>
-      </c>
-      <c r="C126" s="71" t="s">
-        <v>322</v>
+        <v>946</v>
+      </c>
+      <c r="C126" s="72" t="s">
+        <v>320</v>
       </c>
       <c r="D126" s="42">
         <v>1</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F126" s="74" t="str">
-        <f t="shared" si="10"/>
+        <f>LEFT(E126,2)</f>
         <v>04</v>
       </c>
       <c r="G126" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>MID(E126,3,2)</f>
         <v>33</v>
       </c>
       <c r="H126" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>CONCATENATE("A",MID(E126,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I126" s="74" t="str">
-        <f t="shared" si="13"/>
+        <f>MID(E126,7,1)</f>
         <v>1</v>
       </c>
       <c r="J126" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f>MID(E126,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -14194,35 +13855,35 @@
         <v>817</v>
       </c>
       <c r="B127" s="76" t="s">
-        <v>949</v>
-      </c>
-      <c r="C127" s="71" t="s">
-        <v>324</v>
+        <v>989</v>
+      </c>
+      <c r="C127" s="42" t="s">
+        <v>441</v>
       </c>
       <c r="D127" s="42">
         <v>1</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>360</v>
+        <v>636</v>
       </c>
       <c r="F127" s="74" t="str">
-        <f t="shared" si="10"/>
+        <f>LEFT(E127,2)</f>
         <v>04</v>
       </c>
       <c r="G127" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>MID(E127,3,2)</f>
         <v>33</v>
       </c>
       <c r="H127" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>CONCATENATE("A",MID(E127,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I127" s="74" t="str">
-        <f t="shared" si="13"/>
+        <f>MID(E127,7,1)</f>
         <v>1</v>
       </c>
       <c r="J127" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f>MID(E127,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -14231,35 +13892,35 @@
         <v>817</v>
       </c>
       <c r="B128" s="76" t="s">
-        <v>950</v>
-      </c>
-      <c r="C128" s="71" t="s">
-        <v>325</v>
+        <v>973</v>
+      </c>
+      <c r="C128" s="42" t="s">
+        <v>421</v>
       </c>
       <c r="D128" s="42">
         <v>1</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>361</v>
+        <v>620</v>
       </c>
       <c r="F128" s="74" t="str">
-        <f t="shared" si="10"/>
+        <f>LEFT(E128,2)</f>
         <v>04</v>
       </c>
       <c r="G128" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>MID(E128,3,2)</f>
         <v>33</v>
       </c>
       <c r="H128" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>CONCATENATE("A",MID(E128,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I128" s="74" t="str">
-        <f t="shared" si="13"/>
+        <f>MID(E128,7,1)</f>
         <v>1</v>
       </c>
       <c r="J128" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f>MID(E128,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -14268,35 +13929,35 @@
         <v>817</v>
       </c>
       <c r="B129" s="76" t="s">
-        <v>951</v>
-      </c>
-      <c r="C129" s="72" t="s">
-        <v>326</v>
+        <v>974</v>
+      </c>
+      <c r="C129" s="42" t="s">
+        <v>422</v>
       </c>
       <c r="D129" s="42">
         <v>1</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>362</v>
+        <v>621</v>
       </c>
       <c r="F129" s="74" t="str">
-        <f t="shared" si="10"/>
+        <f>LEFT(E129,2)</f>
         <v>04</v>
       </c>
       <c r="G129" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>MID(E129,3,2)</f>
         <v>33</v>
       </c>
       <c r="H129" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>CONCATENATE("A",MID(E129,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I129" s="74" t="str">
-        <f t="shared" si="13"/>
+        <f>MID(E129,7,1)</f>
         <v>1</v>
       </c>
       <c r="J129" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f>MID(E129,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -14305,35 +13966,35 @@
         <v>817</v>
       </c>
       <c r="B130" s="76" t="s">
-        <v>952</v>
-      </c>
-      <c r="C130" s="71" t="s">
-        <v>327</v>
+        <v>990</v>
+      </c>
+      <c r="C130" s="42" t="s">
+        <v>442</v>
       </c>
       <c r="D130" s="42">
         <v>1</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>363</v>
+        <v>637</v>
       </c>
       <c r="F130" s="74" t="str">
-        <f t="shared" si="10"/>
+        <f>LEFT(E130,2)</f>
         <v>04</v>
       </c>
       <c r="G130" s="74" t="str">
-        <f t="shared" si="11"/>
+        <f>MID(E130,3,2)</f>
         <v>33</v>
       </c>
       <c r="H130" s="74" t="str">
-        <f t="shared" si="12"/>
+        <f>CONCATENATE("A",MID(E130,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I130" s="74" t="str">
-        <f t="shared" si="13"/>
+        <f>MID(E130,7,1)</f>
         <v>1</v>
       </c>
       <c r="J130" s="74" t="str">
-        <f t="shared" si="14"/>
+        <f>MID(E130,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -14342,35 +14003,35 @@
         <v>817</v>
       </c>
       <c r="B131" s="76" t="s">
-        <v>953</v>
-      </c>
-      <c r="C131" s="71" t="s">
-        <v>328</v>
+        <v>991</v>
+      </c>
+      <c r="C131" s="42" t="s">
+        <v>445</v>
       </c>
       <c r="D131" s="42">
         <v>1</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>364</v>
+        <v>638</v>
       </c>
       <c r="F131" s="74" t="str">
-        <f t="shared" ref="F131:F170" si="15">LEFT(E131,2)</f>
+        <f>LEFT(E131,2)</f>
         <v>04</v>
       </c>
       <c r="G131" s="74" t="str">
-        <f t="shared" ref="G131:G170" si="16">MID(E131,3,2)</f>
+        <f>MID(E131,3,2)</f>
         <v>33</v>
       </c>
       <c r="H131" s="74" t="str">
-        <f t="shared" ref="H131:H170" si="17">CONCATENATE("A",MID(E131,5,2))</f>
+        <f>CONCATENATE("A",MID(E131,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I131" s="74" t="str">
-        <f t="shared" ref="I131:I170" si="18">MID(E131,7,1)</f>
+        <f>MID(E131,7,1)</f>
         <v>1</v>
       </c>
       <c r="J131" s="74" t="str">
-        <f t="shared" ref="J131:J170" si="19">MID(E131,8,1)</f>
+        <f>MID(E131,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -14379,35 +14040,35 @@
         <v>817</v>
       </c>
       <c r="B132" s="76" t="s">
-        <v>954</v>
-      </c>
-      <c r="C132" s="71" t="s">
-        <v>330</v>
+        <v>992</v>
+      </c>
+      <c r="C132" s="42" t="s">
+        <v>446</v>
       </c>
       <c r="D132" s="42">
         <v>1</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>365</v>
+        <v>478</v>
       </c>
       <c r="F132" s="74" t="str">
-        <f t="shared" si="15"/>
+        <f>LEFT(E132,2)</f>
         <v>04</v>
       </c>
       <c r="G132" s="74" t="str">
-        <f t="shared" si="16"/>
+        <f>MID(E132,3,2)</f>
         <v>33</v>
       </c>
       <c r="H132" s="74" t="str">
-        <f t="shared" si="17"/>
+        <f>CONCATENATE("A",MID(E132,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I132" s="74" t="str">
-        <f t="shared" si="18"/>
+        <f>MID(E132,7,1)</f>
         <v>1</v>
       </c>
       <c r="J132" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>MID(E132,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -14416,35 +14077,35 @@
         <v>817</v>
       </c>
       <c r="B133" s="76" t="s">
-        <v>955</v>
+        <v>927</v>
       </c>
       <c r="C133" s="71" t="s">
-        <v>331</v>
+        <v>297</v>
       </c>
       <c r="D133" s="42">
         <v>1</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>366</v>
+        <v>338</v>
       </c>
       <c r="F133" s="74" t="str">
-        <f t="shared" si="15"/>
+        <f>LEFT(E133,2)</f>
         <v>04</v>
       </c>
       <c r="G133" s="74" t="str">
-        <f t="shared" si="16"/>
+        <f>MID(E133,3,2)</f>
         <v>33</v>
       </c>
       <c r="H133" s="74" t="str">
-        <f t="shared" si="17"/>
+        <f>CONCATENATE("A",MID(E133,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I133" s="74" t="str">
-        <f t="shared" si="18"/>
+        <f>MID(E133,7,1)</f>
         <v>1</v>
       </c>
       <c r="J133" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>MID(E133,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -14453,35 +14114,35 @@
         <v>817</v>
       </c>
       <c r="B134" s="76" t="s">
-        <v>956</v>
+        <v>947</v>
       </c>
       <c r="C134" s="71" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="D134" s="42">
         <v>1</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="F134" s="74" t="str">
-        <f t="shared" si="15"/>
+        <f>LEFT(E134,2)</f>
         <v>04</v>
       </c>
       <c r="G134" s="74" t="str">
-        <f t="shared" si="16"/>
+        <f>MID(E134,3,2)</f>
         <v>33</v>
       </c>
       <c r="H134" s="74" t="str">
-        <f t="shared" si="17"/>
+        <f>CONCATENATE("A",MID(E134,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I134" s="74" t="str">
-        <f t="shared" si="18"/>
+        <f>MID(E134,7,1)</f>
         <v>1</v>
       </c>
       <c r="J134" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>MID(E134,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -14490,35 +14151,35 @@
         <v>817</v>
       </c>
       <c r="B135" s="76" t="s">
-        <v>957</v>
+        <v>948</v>
       </c>
       <c r="C135" s="71" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="D135" s="42">
         <v>1</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="F135" s="74" t="str">
-        <f t="shared" si="15"/>
+        <f>LEFT(E135,2)</f>
         <v>04</v>
       </c>
       <c r="G135" s="74" t="str">
-        <f t="shared" si="16"/>
+        <f>MID(E135,3,2)</f>
         <v>33</v>
       </c>
       <c r="H135" s="74" t="str">
-        <f t="shared" si="17"/>
+        <f>CONCATENATE("A",MID(E135,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I135" s="74" t="str">
-        <f t="shared" si="18"/>
+        <f>MID(E135,7,1)</f>
         <v>1</v>
       </c>
       <c r="J135" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>MID(E135,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -14527,35 +14188,35 @@
         <v>817</v>
       </c>
       <c r="B136" s="76" t="s">
-        <v>958</v>
+        <v>955</v>
       </c>
       <c r="C136" s="71" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D136" s="42">
         <v>1</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F136" s="74" t="str">
-        <f t="shared" si="15"/>
+        <f>LEFT(E136,2)</f>
         <v>04</v>
       </c>
       <c r="G136" s="74" t="str">
-        <f t="shared" si="16"/>
+        <f>MID(E136,3,2)</f>
         <v>33</v>
       </c>
       <c r="H136" s="74" t="str">
-        <f t="shared" si="17"/>
+        <f>CONCATENATE("A",MID(E136,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I136" s="74" t="str">
-        <f t="shared" si="18"/>
+        <f>MID(E136,7,1)</f>
         <v>1</v>
       </c>
       <c r="J136" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>MID(E136,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -14564,35 +14225,35 @@
         <v>817</v>
       </c>
       <c r="B137" s="76" t="s">
-        <v>959</v>
+        <v>951</v>
       </c>
       <c r="C137" s="72" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="D137" s="42">
         <v>1</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="F137" s="74" t="str">
-        <f t="shared" si="15"/>
+        <f>LEFT(E137,2)</f>
         <v>04</v>
       </c>
       <c r="G137" s="74" t="str">
-        <f t="shared" si="16"/>
+        <f>MID(E137,3,2)</f>
         <v>33</v>
       </c>
       <c r="H137" s="74" t="str">
-        <f t="shared" si="17"/>
+        <f>CONCATENATE("A",MID(E137,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I137" s="74" t="str">
-        <f t="shared" si="18"/>
+        <f>MID(E137,7,1)</f>
         <v>1</v>
       </c>
       <c r="J137" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>MID(E137,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -14601,35 +14262,35 @@
         <v>817</v>
       </c>
       <c r="B138" s="76" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="C138" s="71" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="D138" s="42">
         <v>1</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="F138" s="74" t="str">
-        <f t="shared" si="15"/>
+        <f>LEFT(E138,2)</f>
         <v>04</v>
       </c>
       <c r="G138" s="74" t="str">
-        <f t="shared" si="16"/>
+        <f>MID(E138,3,2)</f>
         <v>33</v>
       </c>
       <c r="H138" s="74" t="str">
-        <f t="shared" si="17"/>
+        <f>CONCATENATE("A",MID(E138,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I138" s="74" t="str">
-        <f t="shared" si="18"/>
+        <f>MID(E138,7,1)</f>
         <v>1</v>
       </c>
       <c r="J138" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>MID(E138,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -14638,35 +14299,35 @@
         <v>817</v>
       </c>
       <c r="B139" s="76" t="s">
-        <v>961</v>
-      </c>
-      <c r="C139" s="42" t="s">
-        <v>404</v>
+        <v>950</v>
+      </c>
+      <c r="C139" s="71" t="s">
+        <v>325</v>
       </c>
       <c r="D139" s="42">
         <v>1</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>447</v>
+        <v>361</v>
       </c>
       <c r="F139" s="74" t="str">
-        <f t="shared" si="15"/>
+        <f>LEFT(E139,2)</f>
         <v>04</v>
       </c>
       <c r="G139" s="74" t="str">
-        <f t="shared" si="16"/>
+        <f>MID(E139,3,2)</f>
         <v>33</v>
       </c>
       <c r="H139" s="74" t="str">
-        <f t="shared" si="17"/>
+        <f>CONCATENATE("A",MID(E139,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I139" s="74" t="str">
-        <f t="shared" si="18"/>
+        <f>MID(E139,7,1)</f>
         <v>1</v>
       </c>
       <c r="J139" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>MID(E139,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -14675,35 +14336,35 @@
         <v>817</v>
       </c>
       <c r="B140" s="76" t="s">
-        <v>962</v>
-      </c>
-      <c r="C140" s="42" t="s">
-        <v>405</v>
+        <v>952</v>
+      </c>
+      <c r="C140" s="71" t="s">
+        <v>327</v>
       </c>
       <c r="D140" s="42">
         <v>1</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>610</v>
+        <v>363</v>
       </c>
       <c r="F140" s="74" t="str">
-        <f t="shared" si="15"/>
+        <f>LEFT(E140,2)</f>
         <v>04</v>
       </c>
       <c r="G140" s="74" t="str">
-        <f t="shared" si="16"/>
+        <f>MID(E140,3,2)</f>
         <v>33</v>
       </c>
       <c r="H140" s="74" t="str">
-        <f t="shared" si="17"/>
+        <f>CONCATENATE("A",MID(E140,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I140" s="74" t="str">
-        <f t="shared" si="18"/>
+        <f>MID(E140,7,1)</f>
         <v>1</v>
       </c>
       <c r="J140" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>MID(E140,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -14712,35 +14373,35 @@
         <v>817</v>
       </c>
       <c r="B141" s="76" t="s">
-        <v>963</v>
+        <v>935</v>
       </c>
       <c r="C141" s="42" t="s">
-        <v>407</v>
+        <v>812</v>
       </c>
       <c r="D141" s="42">
         <v>1</v>
       </c>
-      <c r="E141" s="12" t="s">
-        <v>609</v>
+      <c r="E141" s="3" t="s">
+        <v>346</v>
       </c>
       <c r="F141" s="74" t="str">
-        <f t="shared" si="15"/>
+        <f>LEFT(E141,2)</f>
         <v>04</v>
       </c>
       <c r="G141" s="74" t="str">
-        <f t="shared" si="16"/>
+        <f>MID(E141,3,2)</f>
         <v>33</v>
       </c>
       <c r="H141" s="74" t="str">
-        <f t="shared" si="17"/>
+        <f>CONCATENATE("A",MID(E141,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I141" s="74" t="str">
-        <f t="shared" si="18"/>
+        <f>MID(E141,7,1)</f>
         <v>1</v>
       </c>
       <c r="J141" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>MID(E141,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -14749,35 +14410,35 @@
         <v>817</v>
       </c>
       <c r="B142" s="76" t="s">
-        <v>964</v>
-      </c>
-      <c r="C142" s="42" t="s">
-        <v>408</v>
+        <v>928</v>
+      </c>
+      <c r="C142" s="71" t="s">
+        <v>298</v>
       </c>
       <c r="D142" s="42">
         <v>1</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>611</v>
+        <v>339</v>
       </c>
       <c r="F142" s="74" t="str">
-        <f t="shared" si="15"/>
+        <f>LEFT(E142,2)</f>
         <v>04</v>
       </c>
       <c r="G142" s="74" t="str">
-        <f t="shared" si="16"/>
+        <f>MID(E142,3,2)</f>
         <v>33</v>
       </c>
       <c r="H142" s="74" t="str">
-        <f t="shared" si="17"/>
+        <f>CONCATENATE("A",MID(E142,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I142" s="74" t="str">
-        <f t="shared" si="18"/>
+        <f>MID(E142,7,1)</f>
         <v>1</v>
       </c>
       <c r="J142" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>MID(E142,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -14786,35 +14447,35 @@
         <v>817</v>
       </c>
       <c r="B143" s="76" t="s">
-        <v>965</v>
-      </c>
-      <c r="C143" s="42" t="s">
-        <v>409</v>
+        <v>929</v>
+      </c>
+      <c r="C143" s="71" t="s">
+        <v>299</v>
       </c>
       <c r="D143" s="42">
         <v>1</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>612</v>
+        <v>340</v>
       </c>
       <c r="F143" s="74" t="str">
-        <f t="shared" si="15"/>
+        <f>LEFT(E143,2)</f>
         <v>04</v>
       </c>
       <c r="G143" s="74" t="str">
-        <f t="shared" si="16"/>
+        <f>MID(E143,3,2)</f>
         <v>33</v>
       </c>
       <c r="H143" s="74" t="str">
-        <f t="shared" si="17"/>
+        <f>CONCATENATE("A",MID(E143,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I143" s="74" t="str">
-        <f t="shared" si="18"/>
+        <f>MID(E143,7,1)</f>
         <v>1</v>
       </c>
       <c r="J143" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>MID(E143,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -14823,35 +14484,35 @@
         <v>817</v>
       </c>
       <c r="B144" s="76" t="s">
-        <v>966</v>
-      </c>
-      <c r="C144" s="42" t="s">
-        <v>410</v>
+        <v>930</v>
+      </c>
+      <c r="C144" s="72" t="s">
+        <v>301</v>
       </c>
       <c r="D144" s="42">
         <v>1</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>613</v>
+        <v>341</v>
       </c>
       <c r="F144" s="74" t="str">
-        <f t="shared" si="15"/>
+        <f>LEFT(E144,2)</f>
         <v>04</v>
       </c>
       <c r="G144" s="74" t="str">
-        <f t="shared" si="16"/>
+        <f>MID(E144,3,2)</f>
         <v>33</v>
       </c>
       <c r="H144" s="74" t="str">
-        <f t="shared" si="17"/>
+        <f>CONCATENATE("A",MID(E144,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I144" s="74" t="str">
-        <f t="shared" si="18"/>
+        <f>MID(E144,7,1)</f>
         <v>1</v>
       </c>
       <c r="J144" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>MID(E144,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -14859,36 +14520,36 @@
       <c r="A145" s="39" t="s">
         <v>817</v>
       </c>
-      <c r="B145" s="76" t="s">
-        <v>967</v>
-      </c>
-      <c r="C145" s="42" t="s">
-        <v>411</v>
+      <c r="B145" s="75" t="s">
+        <v>941</v>
+      </c>
+      <c r="C145" s="71" t="s">
+        <v>314</v>
       </c>
       <c r="D145" s="42">
         <v>1</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>614</v>
+        <v>352</v>
       </c>
       <c r="F145" s="74" t="str">
-        <f t="shared" si="15"/>
+        <f>LEFT(E145,2)</f>
         <v>04</v>
       </c>
       <c r="G145" s="74" t="str">
-        <f t="shared" si="16"/>
+        <f>MID(E145,3,2)</f>
         <v>33</v>
       </c>
       <c r="H145" s="74" t="str">
-        <f t="shared" si="17"/>
+        <f>CONCATENATE("A",MID(E145,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I145" s="74" t="str">
-        <f t="shared" si="18"/>
+        <f>MID(E145,7,1)</f>
         <v>1</v>
       </c>
       <c r="J145" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>MID(E145,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -14897,35 +14558,35 @@
         <v>817</v>
       </c>
       <c r="B146" s="76" t="s">
-        <v>968</v>
-      </c>
-      <c r="C146" s="42" t="s">
-        <v>412</v>
+        <v>942</v>
+      </c>
+      <c r="C146" s="72" t="s">
+        <v>315</v>
       </c>
       <c r="D146" s="42">
         <v>1</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>615</v>
+        <v>353</v>
       </c>
       <c r="F146" s="74" t="str">
-        <f t="shared" si="15"/>
+        <f>LEFT(E146,2)</f>
         <v>04</v>
       </c>
       <c r="G146" s="74" t="str">
-        <f t="shared" si="16"/>
+        <f>MID(E146,3,2)</f>
         <v>33</v>
       </c>
       <c r="H146" s="74" t="str">
-        <f t="shared" si="17"/>
+        <f>CONCATENATE("A",MID(E146,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I146" s="74" t="str">
-        <f t="shared" si="18"/>
+        <f>MID(E146,7,1)</f>
         <v>1</v>
       </c>
       <c r="J146" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>MID(E146,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -14934,35 +14595,35 @@
         <v>817</v>
       </c>
       <c r="B147" s="76" t="s">
-        <v>969</v>
-      </c>
-      <c r="C147" s="42" t="s">
-        <v>415</v>
+        <v>943</v>
+      </c>
+      <c r="C147" s="72" t="s">
+        <v>316</v>
       </c>
       <c r="D147" s="42">
         <v>1</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>616</v>
+        <v>354</v>
       </c>
       <c r="F147" s="74" t="str">
-        <f t="shared" si="15"/>
+        <f>LEFT(E147,2)</f>
         <v>04</v>
       </c>
       <c r="G147" s="74" t="str">
-        <f t="shared" si="16"/>
+        <f>MID(E147,3,2)</f>
         <v>33</v>
       </c>
       <c r="H147" s="74" t="str">
-        <f t="shared" si="17"/>
+        <f>CONCATENATE("A",MID(E147,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I147" s="74" t="str">
-        <f t="shared" si="18"/>
+        <f>MID(E147,7,1)</f>
         <v>1</v>
       </c>
       <c r="J147" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>MID(E147,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -14971,35 +14632,35 @@
         <v>817</v>
       </c>
       <c r="B148" s="76" t="s">
-        <v>970</v>
-      </c>
-      <c r="C148" s="42" t="s">
-        <v>416</v>
+        <v>954</v>
+      </c>
+      <c r="C148" s="71" t="s">
+        <v>330</v>
       </c>
       <c r="D148" s="42">
         <v>1</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>617</v>
+        <v>365</v>
       </c>
       <c r="F148" s="74" t="str">
-        <f t="shared" si="15"/>
+        <f>LEFT(E148,2)</f>
         <v>04</v>
       </c>
       <c r="G148" s="74" t="str">
-        <f t="shared" si="16"/>
+        <f>MID(E148,3,2)</f>
         <v>33</v>
       </c>
       <c r="H148" s="74" t="str">
-        <f t="shared" si="17"/>
+        <f>CONCATENATE("A",MID(E148,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I148" s="74" t="str">
-        <f t="shared" si="18"/>
+        <f>MID(E148,7,1)</f>
         <v>1</v>
       </c>
       <c r="J148" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>MID(E148,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -15008,35 +14669,35 @@
         <v>817</v>
       </c>
       <c r="B149" s="76" t="s">
-        <v>971</v>
-      </c>
-      <c r="C149" s="42" t="s">
-        <v>417</v>
+        <v>944</v>
+      </c>
+      <c r="C149" s="71" t="s">
+        <v>318</v>
       </c>
       <c r="D149" s="42">
         <v>1</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>618</v>
+        <v>355</v>
       </c>
       <c r="F149" s="74" t="str">
-        <f t="shared" si="15"/>
+        <f>LEFT(E149,2)</f>
         <v>04</v>
       </c>
       <c r="G149" s="74" t="str">
-        <f t="shared" si="16"/>
+        <f>MID(E149,3,2)</f>
         <v>33</v>
       </c>
       <c r="H149" s="74" t="str">
-        <f t="shared" si="17"/>
+        <f>CONCATENATE("A",MID(E149,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I149" s="74" t="str">
-        <f t="shared" si="18"/>
+        <f>MID(E149,7,1)</f>
         <v>1</v>
       </c>
       <c r="J149" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>MID(E149,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -15045,35 +14706,35 @@
         <v>817</v>
       </c>
       <c r="B150" s="76" t="s">
-        <v>972</v>
-      </c>
-      <c r="C150" s="42" t="s">
-        <v>418</v>
+        <v>937</v>
+      </c>
+      <c r="C150" s="71" t="s">
+        <v>309</v>
       </c>
       <c r="D150" s="42">
         <v>1</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>619</v>
+        <v>348</v>
       </c>
       <c r="F150" s="74" t="str">
-        <f t="shared" si="15"/>
+        <f>LEFT(E150,2)</f>
         <v>04</v>
       </c>
       <c r="G150" s="74" t="str">
-        <f t="shared" si="16"/>
+        <f>MID(E150,3,2)</f>
         <v>33</v>
       </c>
       <c r="H150" s="74" t="str">
-        <f t="shared" si="17"/>
+        <f>CONCATENATE("A",MID(E150,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I150" s="74" t="str">
-        <f t="shared" si="18"/>
+        <f>MID(E150,7,1)</f>
         <v>1</v>
       </c>
       <c r="J150" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>MID(E150,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -15082,35 +14743,35 @@
         <v>817</v>
       </c>
       <c r="B151" s="76" t="s">
-        <v>973</v>
-      </c>
-      <c r="C151" s="42" t="s">
-        <v>421</v>
+        <v>940</v>
+      </c>
+      <c r="C151" s="71" t="s">
+        <v>313</v>
       </c>
       <c r="D151" s="42">
         <v>1</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>620</v>
+        <v>351</v>
       </c>
       <c r="F151" s="74" t="str">
-        <f t="shared" si="15"/>
+        <f>LEFT(E151,2)</f>
         <v>04</v>
       </c>
       <c r="G151" s="74" t="str">
-        <f t="shared" si="16"/>
+        <f>MID(E151,3,2)</f>
         <v>33</v>
       </c>
       <c r="H151" s="74" t="str">
-        <f t="shared" si="17"/>
+        <f>CONCATENATE("A",MID(E151,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I151" s="74" t="str">
-        <f t="shared" si="18"/>
+        <f>MID(E151,7,1)</f>
         <v>1</v>
       </c>
       <c r="J151" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>MID(E151,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -15119,35 +14780,35 @@
         <v>817</v>
       </c>
       <c r="B152" s="76" t="s">
-        <v>974</v>
-      </c>
-      <c r="C152" s="42" t="s">
-        <v>422</v>
+        <v>938</v>
+      </c>
+      <c r="C152" s="71" t="s">
+        <v>310</v>
       </c>
       <c r="D152" s="42">
         <v>1</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>621</v>
+        <v>349</v>
       </c>
       <c r="F152" s="74" t="str">
-        <f t="shared" si="15"/>
+        <f>LEFT(E152,2)</f>
         <v>04</v>
       </c>
       <c r="G152" s="74" t="str">
-        <f t="shared" si="16"/>
+        <f>MID(E152,3,2)</f>
         <v>33</v>
       </c>
       <c r="H152" s="74" t="str">
-        <f t="shared" si="17"/>
+        <f>CONCATENATE("A",MID(E152,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I152" s="74" t="str">
-        <f t="shared" si="18"/>
+        <f>MID(E152,7,1)</f>
         <v>1</v>
       </c>
       <c r="J152" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>MID(E152,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -15156,35 +14817,35 @@
         <v>817</v>
       </c>
       <c r="B153" s="76" t="s">
-        <v>975</v>
-      </c>
-      <c r="C153" s="42" t="s">
-        <v>423</v>
+        <v>957</v>
+      </c>
+      <c r="C153" s="71" t="s">
+        <v>333</v>
       </c>
       <c r="D153" s="42">
         <v>1</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>622</v>
+        <v>368</v>
       </c>
       <c r="F153" s="74" t="str">
-        <f t="shared" si="15"/>
+        <f>LEFT(E153,2)</f>
         <v>04</v>
       </c>
       <c r="G153" s="74" t="str">
-        <f t="shared" si="16"/>
+        <f>MID(E153,3,2)</f>
         <v>33</v>
       </c>
       <c r="H153" s="74" t="str">
-        <f t="shared" si="17"/>
+        <f>CONCATENATE("A",MID(E153,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I153" s="74" t="str">
-        <f t="shared" si="18"/>
+        <f>MID(E153,7,1)</f>
         <v>1</v>
       </c>
       <c r="J153" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>MID(E153,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -15192,36 +14853,36 @@
       <c r="A154" s="39" t="s">
         <v>817</v>
       </c>
-      <c r="B154" s="75" t="s">
-        <v>976</v>
-      </c>
-      <c r="C154" s="42" t="s">
-        <v>424</v>
+      <c r="B154" s="76" t="s">
+        <v>958</v>
+      </c>
+      <c r="C154" s="71" t="s">
+        <v>334</v>
       </c>
       <c r="D154" s="42">
         <v>1</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>623</v>
+        <v>369</v>
       </c>
       <c r="F154" s="74" t="str">
-        <f t="shared" si="15"/>
+        <f>LEFT(E154,2)</f>
         <v>04</v>
       </c>
       <c r="G154" s="74" t="str">
-        <f t="shared" si="16"/>
+        <f>MID(E154,3,2)</f>
         <v>33</v>
       </c>
       <c r="H154" s="74" t="str">
-        <f t="shared" si="17"/>
+        <f>CONCATENATE("A",MID(E154,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I154" s="74" t="str">
-        <f t="shared" si="18"/>
+        <f>MID(E154,7,1)</f>
         <v>1</v>
       </c>
       <c r="J154" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>MID(E154,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -15230,35 +14891,35 @@
         <v>817</v>
       </c>
       <c r="B155" s="76" t="s">
-        <v>977</v>
-      </c>
-      <c r="C155" s="42" t="s">
-        <v>425</v>
+        <v>939</v>
+      </c>
+      <c r="C155" s="71" t="s">
+        <v>814</v>
       </c>
       <c r="D155" s="42">
         <v>1</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>624</v>
+        <v>350</v>
       </c>
       <c r="F155" s="74" t="str">
-        <f t="shared" si="15"/>
+        <f>LEFT(E155,2)</f>
         <v>04</v>
       </c>
       <c r="G155" s="74" t="str">
-        <f t="shared" si="16"/>
+        <f>MID(E155,3,2)</f>
         <v>33</v>
       </c>
       <c r="H155" s="74" t="str">
-        <f t="shared" si="17"/>
+        <f>CONCATENATE("A",MID(E155,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I155" s="74" t="str">
-        <f t="shared" si="18"/>
+        <f>MID(E155,7,1)</f>
         <v>1</v>
       </c>
       <c r="J155" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>MID(E155,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -15267,35 +14928,35 @@
         <v>817</v>
       </c>
       <c r="B156" s="76" t="s">
-        <v>978</v>
-      </c>
-      <c r="C156" s="42" t="s">
-        <v>428</v>
+        <v>956</v>
+      </c>
+      <c r="C156" s="71" t="s">
+        <v>332</v>
       </c>
       <c r="D156" s="42">
         <v>1</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>625</v>
+        <v>367</v>
       </c>
       <c r="F156" s="74" t="str">
-        <f t="shared" si="15"/>
+        <f>LEFT(E156,2)</f>
         <v>04</v>
       </c>
       <c r="G156" s="74" t="str">
-        <f t="shared" si="16"/>
+        <f>MID(E156,3,2)</f>
         <v>33</v>
       </c>
       <c r="H156" s="74" t="str">
-        <f t="shared" si="17"/>
+        <f>CONCATENATE("A",MID(E156,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I156" s="74" t="str">
-        <f t="shared" si="18"/>
+        <f>MID(E156,7,1)</f>
         <v>1</v>
       </c>
       <c r="J156" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>MID(E156,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -15304,35 +14965,35 @@
         <v>817</v>
       </c>
       <c r="B157" s="76" t="s">
-        <v>979</v>
-      </c>
-      <c r="C157" s="42" t="s">
-        <v>429</v>
+        <v>931</v>
+      </c>
+      <c r="C157" s="71" t="s">
+        <v>302</v>
       </c>
       <c r="D157" s="42">
         <v>1</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>626</v>
+        <v>342</v>
       </c>
       <c r="F157" s="74" t="str">
-        <f t="shared" si="15"/>
+        <f>LEFT(E157,2)</f>
         <v>04</v>
       </c>
       <c r="G157" s="74" t="str">
-        <f t="shared" si="16"/>
+        <f>MID(E157,3,2)</f>
         <v>33</v>
       </c>
       <c r="H157" s="74" t="str">
-        <f t="shared" si="17"/>
+        <f>CONCATENATE("A",MID(E157,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I157" s="74" t="str">
-        <f t="shared" si="18"/>
+        <f>MID(E157,7,1)</f>
         <v>1</v>
       </c>
       <c r="J157" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>MID(E157,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -15341,35 +15002,35 @@
         <v>817</v>
       </c>
       <c r="B158" s="76" t="s">
-        <v>980</v>
-      </c>
-      <c r="C158" s="42" t="s">
-        <v>430</v>
+        <v>945</v>
+      </c>
+      <c r="C158" s="71" t="s">
+        <v>319</v>
       </c>
       <c r="D158" s="42">
         <v>1</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>627</v>
+        <v>356</v>
       </c>
       <c r="F158" s="74" t="str">
-        <f t="shared" si="15"/>
+        <f>LEFT(E158,2)</f>
         <v>04</v>
       </c>
       <c r="G158" s="74" t="str">
-        <f t="shared" si="16"/>
+        <f>MID(E158,3,2)</f>
         <v>33</v>
       </c>
       <c r="H158" s="74" t="str">
-        <f t="shared" si="17"/>
+        <f>CONCATENATE("A",MID(E158,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I158" s="74" t="str">
-        <f t="shared" si="18"/>
+        <f>MID(E158,7,1)</f>
         <v>1</v>
       </c>
       <c r="J158" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>MID(E158,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -15378,35 +15039,35 @@
         <v>817</v>
       </c>
       <c r="B159" s="76" t="s">
-        <v>981</v>
+        <v>883</v>
       </c>
       <c r="C159" s="42" t="s">
-        <v>431</v>
+        <v>768</v>
       </c>
       <c r="D159" s="42">
         <v>1</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>628</v>
+        <v>697</v>
       </c>
       <c r="F159" s="74" t="str">
-        <f t="shared" si="15"/>
+        <f>LEFT(E159,2)</f>
         <v>04</v>
       </c>
       <c r="G159" s="74" t="str">
-        <f t="shared" si="16"/>
+        <f>MID(E159,3,2)</f>
         <v>33</v>
       </c>
       <c r="H159" s="74" t="str">
-        <f t="shared" si="17"/>
+        <f>CONCATENATE("A",MID(E159,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I159" s="74" t="str">
-        <f t="shared" si="18"/>
+        <f>MID(E159,7,1)</f>
         <v>1</v>
       </c>
       <c r="J159" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>MID(E159,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -15415,35 +15076,35 @@
         <v>817</v>
       </c>
       <c r="B160" s="76" t="s">
-        <v>982</v>
+        <v>878</v>
       </c>
       <c r="C160" s="42" t="s">
-        <v>432</v>
+        <v>763</v>
       </c>
       <c r="D160" s="42">
         <v>1</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>629</v>
+        <v>692</v>
       </c>
       <c r="F160" s="74" t="str">
-        <f t="shared" si="15"/>
+        <f>LEFT(E160,2)</f>
         <v>04</v>
       </c>
       <c r="G160" s="74" t="str">
-        <f t="shared" si="16"/>
+        <f>MID(E160,3,2)</f>
         <v>33</v>
       </c>
       <c r="H160" s="74" t="str">
-        <f t="shared" si="17"/>
+        <f>CONCATENATE("A",MID(E160,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I160" s="74" t="str">
-        <f t="shared" si="18"/>
+        <f>MID(E160,7,1)</f>
         <v>1</v>
       </c>
       <c r="J160" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>MID(E160,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -15452,35 +15113,35 @@
         <v>817</v>
       </c>
       <c r="B161" s="76" t="s">
-        <v>983</v>
+        <v>879</v>
       </c>
       <c r="C161" s="42" t="s">
-        <v>433</v>
+        <v>764</v>
       </c>
       <c r="D161" s="42">
         <v>1</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>630</v>
+        <v>693</v>
       </c>
       <c r="F161" s="74" t="str">
-        <f t="shared" si="15"/>
+        <f>LEFT(E161,2)</f>
         <v>04</v>
       </c>
       <c r="G161" s="74" t="str">
-        <f t="shared" si="16"/>
+        <f>MID(E161,3,2)</f>
         <v>33</v>
       </c>
       <c r="H161" s="74" t="str">
-        <f t="shared" si="17"/>
+        <f>CONCATENATE("A",MID(E161,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I161" s="74" t="str">
-        <f t="shared" si="18"/>
+        <f>MID(E161,7,1)</f>
         <v>1</v>
       </c>
       <c r="J161" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>MID(E161,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -15489,35 +15150,35 @@
         <v>817</v>
       </c>
       <c r="B162" s="76" t="s">
-        <v>984</v>
-      </c>
-      <c r="C162" s="42" t="s">
-        <v>434</v>
+        <v>959</v>
+      </c>
+      <c r="C162" s="72" t="s">
+        <v>336</v>
       </c>
       <c r="D162" s="42">
         <v>1</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>631</v>
+        <v>370</v>
       </c>
       <c r="F162" s="74" t="str">
-        <f t="shared" si="15"/>
+        <f>LEFT(E162,2)</f>
         <v>04</v>
       </c>
       <c r="G162" s="74" t="str">
-        <f t="shared" si="16"/>
+        <f>MID(E162,3,2)</f>
         <v>33</v>
       </c>
       <c r="H162" s="74" t="str">
-        <f t="shared" si="17"/>
+        <f>CONCATENATE("A",MID(E162,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I162" s="74" t="str">
-        <f t="shared" si="18"/>
+        <f>MID(E162,7,1)</f>
         <v>1</v>
       </c>
       <c r="J162" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>MID(E162,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -15526,35 +15187,35 @@
         <v>817</v>
       </c>
       <c r="B163" s="76" t="s">
-        <v>985</v>
-      </c>
-      <c r="C163" s="42" t="s">
-        <v>435</v>
+        <v>960</v>
+      </c>
+      <c r="C163" s="71" t="s">
+        <v>337</v>
       </c>
       <c r="D163" s="42">
         <v>1</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>632</v>
+        <v>371</v>
       </c>
       <c r="F163" s="74" t="str">
-        <f t="shared" si="15"/>
+        <f>LEFT(E163,2)</f>
         <v>04</v>
       </c>
       <c r="G163" s="74" t="str">
-        <f t="shared" si="16"/>
+        <f>MID(E163,3,2)</f>
         <v>33</v>
       </c>
       <c r="H163" s="74" t="str">
-        <f t="shared" si="17"/>
+        <f>CONCATENATE("A",MID(E163,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I163" s="74" t="str">
-        <f t="shared" si="18"/>
+        <f>MID(E163,7,1)</f>
         <v>1</v>
       </c>
       <c r="J163" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>MID(E163,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -15563,35 +15224,35 @@
         <v>817</v>
       </c>
       <c r="B164" s="76" t="s">
-        <v>986</v>
+        <v>867</v>
       </c>
       <c r="C164" s="42" t="s">
-        <v>436</v>
+        <v>752</v>
       </c>
       <c r="D164" s="42">
         <v>1</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>633</v>
+        <v>681</v>
       </c>
       <c r="F164" s="74" t="str">
-        <f t="shared" si="15"/>
+        <f>LEFT(E164,2)</f>
         <v>04</v>
       </c>
       <c r="G164" s="74" t="str">
-        <f t="shared" si="16"/>
+        <f>MID(E164,3,2)</f>
         <v>33</v>
       </c>
       <c r="H164" s="74" t="str">
-        <f t="shared" si="17"/>
+        <f>CONCATENATE("A",MID(E164,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I164" s="74" t="str">
-        <f t="shared" si="18"/>
+        <f>MID(E164,7,1)</f>
         <v>1</v>
       </c>
       <c r="J164" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>MID(E164,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -15600,35 +15261,35 @@
         <v>817</v>
       </c>
       <c r="B165" s="76" t="s">
-        <v>987</v>
+        <v>886</v>
       </c>
       <c r="C165" s="42" t="s">
-        <v>439</v>
+        <v>771</v>
       </c>
       <c r="D165" s="42">
         <v>1</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>634</v>
+        <v>700</v>
       </c>
       <c r="F165" s="74" t="str">
-        <f t="shared" si="15"/>
+        <f>LEFT(E165,2)</f>
         <v>04</v>
       </c>
       <c r="G165" s="74" t="str">
-        <f t="shared" si="16"/>
+        <f>MID(E165,3,2)</f>
         <v>33</v>
       </c>
       <c r="H165" s="74" t="str">
-        <f t="shared" si="17"/>
+        <f>CONCATENATE("A",MID(E165,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I165" s="74" t="str">
-        <f t="shared" si="18"/>
+        <f>MID(E165,7,1)</f>
         <v>1</v>
       </c>
       <c r="J165" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>MID(E165,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -15637,35 +15298,35 @@
         <v>817</v>
       </c>
       <c r="B166" s="76" t="s">
-        <v>988</v>
+        <v>876</v>
       </c>
       <c r="C166" s="42" t="s">
-        <v>440</v>
+        <v>761</v>
       </c>
       <c r="D166" s="42">
         <v>1</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>635</v>
+        <v>690</v>
       </c>
       <c r="F166" s="74" t="str">
-        <f t="shared" si="15"/>
+        <f>LEFT(E166,2)</f>
         <v>04</v>
       </c>
       <c r="G166" s="74" t="str">
-        <f t="shared" si="16"/>
+        <f>MID(E166,3,2)</f>
         <v>33</v>
       </c>
       <c r="H166" s="74" t="str">
-        <f t="shared" si="17"/>
+        <f>CONCATENATE("A",MID(E166,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I166" s="74" t="str">
-        <f t="shared" si="18"/>
+        <f>MID(E166,7,1)</f>
         <v>1</v>
       </c>
       <c r="J166" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>MID(E166,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -15674,35 +15335,35 @@
         <v>817</v>
       </c>
       <c r="B167" s="76" t="s">
-        <v>989</v>
+        <v>890</v>
       </c>
       <c r="C167" s="42" t="s">
-        <v>441</v>
+        <v>775</v>
       </c>
       <c r="D167" s="42">
         <v>1</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>636</v>
+        <v>704</v>
       </c>
       <c r="F167" s="74" t="str">
-        <f t="shared" si="15"/>
+        <f>LEFT(E167,2)</f>
         <v>04</v>
       </c>
       <c r="G167" s="74" t="str">
-        <f t="shared" si="16"/>
+        <f>MID(E167,3,2)</f>
         <v>33</v>
       </c>
       <c r="H167" s="74" t="str">
-        <f t="shared" si="17"/>
+        <f>CONCATENATE("A",MID(E167,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I167" s="74" t="str">
-        <f t="shared" si="18"/>
+        <f>MID(E167,7,1)</f>
         <v>1</v>
       </c>
       <c r="J167" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>MID(E167,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -15711,35 +15372,35 @@
         <v>817</v>
       </c>
       <c r="B168" s="76" t="s">
-        <v>990</v>
-      </c>
-      <c r="C168" s="42" t="s">
-        <v>442</v>
+        <v>887</v>
+      </c>
+      <c r="C168" s="47" t="s">
+        <v>772</v>
       </c>
       <c r="D168" s="42">
         <v>1</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>637</v>
+        <v>701</v>
       </c>
       <c r="F168" s="74" t="str">
-        <f t="shared" si="15"/>
+        <f>LEFT(E168,2)</f>
         <v>04</v>
       </c>
       <c r="G168" s="74" t="str">
-        <f t="shared" si="16"/>
+        <f>MID(E168,3,2)</f>
         <v>33</v>
       </c>
       <c r="H168" s="74" t="str">
-        <f t="shared" si="17"/>
+        <f>CONCATENATE("A",MID(E168,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I168" s="74" t="str">
-        <f t="shared" si="18"/>
+        <f>MID(E168,7,1)</f>
         <v>1</v>
       </c>
       <c r="J168" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>MID(E168,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -15748,35 +15409,35 @@
         <v>817</v>
       </c>
       <c r="B169" s="76" t="s">
-        <v>991</v>
+        <v>889</v>
       </c>
       <c r="C169" s="42" t="s">
-        <v>445</v>
+        <v>774</v>
       </c>
       <c r="D169" s="42">
         <v>1</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>638</v>
+        <v>703</v>
       </c>
       <c r="F169" s="74" t="str">
-        <f t="shared" si="15"/>
+        <f>LEFT(E169,2)</f>
         <v>04</v>
       </c>
       <c r="G169" s="74" t="str">
-        <f t="shared" si="16"/>
+        <f>MID(E169,3,2)</f>
         <v>33</v>
       </c>
       <c r="H169" s="74" t="str">
-        <f t="shared" si="17"/>
+        <f>CONCATENATE("A",MID(E169,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I169" s="74" t="str">
-        <f t="shared" si="18"/>
+        <f>MID(E169,7,1)</f>
         <v>1</v>
       </c>
       <c r="J169" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>MID(E169,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -15785,35 +15446,35 @@
         <v>817</v>
       </c>
       <c r="B170" s="76" t="s">
-        <v>992</v>
+        <v>888</v>
       </c>
       <c r="C170" s="42" t="s">
-        <v>446</v>
+        <v>773</v>
       </c>
       <c r="D170" s="42">
         <v>1</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>478</v>
+        <v>702</v>
       </c>
       <c r="F170" s="74" t="str">
-        <f t="shared" si="15"/>
+        <f>LEFT(E170,2)</f>
         <v>04</v>
       </c>
       <c r="G170" s="74" t="str">
-        <f t="shared" si="16"/>
+        <f>MID(E170,3,2)</f>
         <v>33</v>
       </c>
       <c r="H170" s="74" t="str">
-        <f t="shared" si="17"/>
+        <f>CONCATENATE("A",MID(E170,5,2))</f>
         <v>A11</v>
       </c>
       <c r="I170" s="74" t="str">
-        <f t="shared" si="18"/>
+        <f>MID(E170,7,1)</f>
         <v>1</v>
       </c>
       <c r="J170" s="74" t="str">
-        <f t="shared" si="19"/>
+        <f>MID(E170,8,1)</f>
         <v>1</v>
       </c>
     </row>
@@ -16258,8 +15919,8 @@
       <c r="B202" s="76" t="s">
         <v>1024</v>
       </c>
-      <c r="C202" s="53" t="s">
-        <v>1105</v>
+      <c r="C202" s="66" t="s">
+        <v>413</v>
       </c>
       <c r="D202" s="65">
         <v>2</v>
@@ -16314,8 +15975,8 @@
       <c r="B206" s="76" t="s">
         <v>1028</v>
       </c>
-      <c r="C206" s="53" t="s">
-        <v>1106</v>
+      <c r="C206" s="66" t="s">
+        <v>437</v>
       </c>
       <c r="D206" s="65">
         <v>2</v>
@@ -16410,23 +16071,23 @@
         <v>817</v>
       </c>
       <c r="B213" s="76" t="s">
-        <v>1107</v>
-      </c>
-      <c r="C213" s="39" t="s">
-        <v>807</v>
-      </c>
-      <c r="D213" s="39">
-        <v>1</v>
-      </c>
-      <c r="E213" s="39" t="s">
-        <v>399</v>
+        <v>1035</v>
+      </c>
+      <c r="C213" s="74" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D213" s="74">
+        <v>1</v>
+      </c>
+      <c r="E213" s="77" t="s">
+        <v>1037</v>
       </c>
       <c r="F213" s="74" t="str">
-        <f t="shared" ref="F213:F248" si="20">LEFT(E213,2)</f>
+        <f>LEFT(E213,2)</f>
         <v>04</v>
       </c>
       <c r="G213" s="74" t="str">
-        <f t="shared" ref="G213:G248" si="21">MID(E213,3,2)</f>
+        <f>MID(E213,3,2)</f>
         <v>33</v>
       </c>
       <c r="H213" s="74" t="str">
@@ -16434,1470 +16095,20 @@
         <v>A11</v>
       </c>
       <c r="I213" s="74" t="str">
-        <f t="shared" ref="I213:I248" si="22">MID(E213,7,1)</f>
+        <f>MID(E213,7,1)</f>
         <v>1</v>
       </c>
       <c r="J213" s="74" t="str">
-        <f t="shared" ref="J213:J248" si="23">MID(E213,8,1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10" ht="15.75">
-      <c r="A214" s="39" t="s">
-        <v>817</v>
-      </c>
-      <c r="B214" s="76" t="s">
-        <v>1108</v>
-      </c>
-      <c r="C214" s="39" t="s">
-        <v>808</v>
-      </c>
-      <c r="D214" s="39">
-        <v>1</v>
-      </c>
-      <c r="E214" s="39" t="s">
-        <v>400</v>
-      </c>
-      <c r="F214" s="74" t="str">
-        <f t="shared" si="20"/>
-        <v>04</v>
-      </c>
-      <c r="G214" s="74" t="str">
-        <f t="shared" si="21"/>
-        <v>33</v>
-      </c>
-      <c r="H214" s="74" t="str">
-        <f t="shared" ref="H214:H248" si="24">CONCATENATE("A",MID(E214,5,2))</f>
-        <v>A11</v>
-      </c>
-      <c r="I214" s="74" t="str">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="J214" s="74" t="str">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10" ht="15.75">
-      <c r="A215" s="39" t="s">
-        <v>817</v>
-      </c>
-      <c r="B215" s="75" t="s">
-        <v>1109</v>
-      </c>
-      <c r="C215" s="77" t="s">
-        <v>809</v>
-      </c>
-      <c r="D215" s="39">
-        <v>1</v>
-      </c>
-      <c r="E215" s="39" t="s">
-        <v>401</v>
-      </c>
-      <c r="F215" s="74" t="str">
-        <f t="shared" si="20"/>
-        <v>04</v>
-      </c>
-      <c r="G215" s="74" t="str">
-        <f t="shared" si="21"/>
-        <v>33</v>
-      </c>
-      <c r="H215" s="74" t="str">
-        <f t="shared" si="24"/>
-        <v>A11</v>
-      </c>
-      <c r="I215" s="74" t="str">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="J215" s="74" t="str">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216" spans="1:10" ht="15.75">
-      <c r="A216" s="39" t="s">
-        <v>817</v>
-      </c>
-      <c r="B216" s="76" t="s">
-        <v>1110</v>
-      </c>
-      <c r="C216" s="39" t="s">
-        <v>810</v>
-      </c>
-      <c r="D216" s="39">
-        <v>1</v>
-      </c>
-      <c r="E216" s="39" t="s">
-        <v>402</v>
-      </c>
-      <c r="F216" s="74" t="str">
-        <f t="shared" si="20"/>
-        <v>04</v>
-      </c>
-      <c r="G216" s="74" t="str">
-        <f t="shared" si="21"/>
-        <v>33</v>
-      </c>
-      <c r="H216" s="74" t="str">
-        <f t="shared" si="24"/>
-        <v>A11</v>
-      </c>
-      <c r="I216" s="74" t="str">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="J216" s="74" t="str">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217" spans="1:10" ht="15.75">
-      <c r="A217" s="39" t="s">
-        <v>817</v>
-      </c>
-      <c r="B217" s="76" t="s">
-        <v>1111</v>
-      </c>
-      <c r="C217" s="39" t="s">
-        <v>811</v>
-      </c>
-      <c r="D217" s="39">
-        <v>1</v>
-      </c>
-      <c r="E217" s="39" t="s">
-        <v>403</v>
-      </c>
-      <c r="F217" s="74" t="str">
-        <f t="shared" si="20"/>
-        <v>04</v>
-      </c>
-      <c r="G217" s="74" t="str">
-        <f t="shared" si="21"/>
-        <v>33</v>
-      </c>
-      <c r="H217" s="74" t="str">
-        <f t="shared" si="24"/>
-        <v>A11</v>
-      </c>
-      <c r="I217" s="74" t="str">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="J217" s="74" t="str">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218" spans="1:10" ht="15.75">
-      <c r="A218" s="39" t="s">
-        <v>817</v>
-      </c>
-      <c r="B218" s="76" t="s">
-        <v>1112</v>
-      </c>
-      <c r="C218" s="39" t="s">
-        <v>1035</v>
-      </c>
-      <c r="D218" s="39">
-        <v>1</v>
-      </c>
-      <c r="E218" s="39" t="s">
-        <v>1036</v>
-      </c>
-      <c r="F218" s="74" t="str">
-        <f t="shared" si="20"/>
-        <v>04</v>
-      </c>
-      <c r="G218" s="74" t="str">
-        <f t="shared" si="21"/>
-        <v>33</v>
-      </c>
-      <c r="H218" s="74" t="str">
-        <f t="shared" si="24"/>
-        <v>A11</v>
-      </c>
-      <c r="I218" s="74" t="str">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="J218" s="74" t="str">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219" spans="1:10" ht="15.75">
-      <c r="A219" s="39" t="s">
-        <v>817</v>
-      </c>
-      <c r="B219" s="76" t="s">
-        <v>1113</v>
-      </c>
-      <c r="C219" s="39" t="s">
-        <v>1037</v>
-      </c>
-      <c r="D219" s="39">
-        <v>1</v>
-      </c>
-      <c r="E219" s="39" t="s">
-        <v>1038</v>
-      </c>
-      <c r="F219" s="74" t="str">
-        <f t="shared" si="20"/>
-        <v>04</v>
-      </c>
-      <c r="G219" s="74" t="str">
-        <f t="shared" si="21"/>
-        <v>33</v>
-      </c>
-      <c r="H219" s="74" t="str">
-        <f t="shared" si="24"/>
-        <v>A11</v>
-      </c>
-      <c r="I219" s="74" t="str">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="J219" s="74" t="str">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220" spans="1:10" ht="15.75">
-      <c r="A220" s="39" t="s">
-        <v>817</v>
-      </c>
-      <c r="B220" s="76" t="s">
-        <v>1114</v>
-      </c>
-      <c r="C220" s="39" t="s">
-        <v>1039</v>
-      </c>
-      <c r="D220" s="39">
-        <v>1</v>
-      </c>
-      <c r="E220" s="39" t="s">
-        <v>1040</v>
-      </c>
-      <c r="F220" s="74" t="str">
-        <f t="shared" si="20"/>
-        <v>04</v>
-      </c>
-      <c r="G220" s="74" t="str">
-        <f t="shared" si="21"/>
-        <v>33</v>
-      </c>
-      <c r="H220" s="74" t="str">
-        <f t="shared" si="24"/>
-        <v>A11</v>
-      </c>
-      <c r="I220" s="74" t="str">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="J220" s="74" t="str">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221" spans="1:10" ht="15.75">
-      <c r="A221" s="39" t="s">
-        <v>817</v>
-      </c>
-      <c r="B221" s="76" t="s">
-        <v>1115</v>
-      </c>
-      <c r="C221" s="39" t="s">
-        <v>1041</v>
-      </c>
-      <c r="D221" s="39">
-        <v>1</v>
-      </c>
-      <c r="E221" s="39" t="s">
-        <v>1042</v>
-      </c>
-      <c r="F221" s="74" t="str">
-        <f t="shared" si="20"/>
-        <v>04</v>
-      </c>
-      <c r="G221" s="74" t="str">
-        <f t="shared" si="21"/>
-        <v>33</v>
-      </c>
-      <c r="H221" s="74" t="str">
-        <f t="shared" si="24"/>
-        <v>A11</v>
-      </c>
-      <c r="I221" s="74" t="str">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="J221" s="74" t="str">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10" ht="15.75">
-      <c r="A222" s="39" t="s">
-        <v>817</v>
-      </c>
-      <c r="B222" s="76" t="s">
-        <v>1116</v>
-      </c>
-      <c r="C222" s="39" t="s">
-        <v>1043</v>
-      </c>
-      <c r="D222" s="39">
-        <v>1</v>
-      </c>
-      <c r="E222" s="39" t="s">
-        <v>1044</v>
-      </c>
-      <c r="F222" s="74" t="str">
-        <f t="shared" si="20"/>
-        <v>04</v>
-      </c>
-      <c r="G222" s="74" t="str">
-        <f t="shared" si="21"/>
-        <v>33</v>
-      </c>
-      <c r="H222" s="74" t="str">
-        <f t="shared" si="24"/>
-        <v>A11</v>
-      </c>
-      <c r="I222" s="74" t="str">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="J222" s="74" t="str">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223" spans="1:10" ht="15.75">
-      <c r="A223" s="39" t="s">
-        <v>817</v>
-      </c>
-      <c r="B223" s="76" t="s">
-        <v>1117</v>
-      </c>
-      <c r="C223" s="39" t="s">
-        <v>1045</v>
-      </c>
-      <c r="D223" s="39">
-        <v>1</v>
-      </c>
-      <c r="E223" s="39" t="s">
-        <v>1046</v>
-      </c>
-      <c r="F223" s="74" t="str">
-        <f t="shared" si="20"/>
-        <v>04</v>
-      </c>
-      <c r="G223" s="74" t="str">
-        <f t="shared" si="21"/>
-        <v>33</v>
-      </c>
-      <c r="H223" s="74" t="str">
-        <f t="shared" si="24"/>
-        <v>A11</v>
-      </c>
-      <c r="I223" s="74" t="str">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="J223" s="74" t="str">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224" spans="1:10" ht="15.75">
-      <c r="A224" s="39" t="s">
-        <v>817</v>
-      </c>
-      <c r="B224" s="76" t="s">
-        <v>1118</v>
-      </c>
-      <c r="C224" s="39" t="s">
-        <v>1047</v>
-      </c>
-      <c r="D224" s="39">
-        <v>1</v>
-      </c>
-      <c r="E224" s="39" t="s">
-        <v>1048</v>
-      </c>
-      <c r="F224" s="74" t="str">
-        <f t="shared" si="20"/>
-        <v>04</v>
-      </c>
-      <c r="G224" s="74" t="str">
-        <f t="shared" si="21"/>
-        <v>33</v>
-      </c>
-      <c r="H224" s="74" t="str">
-        <f t="shared" si="24"/>
-        <v>A11</v>
-      </c>
-      <c r="I224" s="74" t="str">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="J224" s="74" t="str">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225" spans="1:10" ht="15.75">
-      <c r="A225" s="39" t="s">
-        <v>817</v>
-      </c>
-      <c r="B225" s="75" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C225" s="39" t="s">
-        <v>1049</v>
-      </c>
-      <c r="D225" s="39">
-        <v>1</v>
-      </c>
-      <c r="E225" s="39" t="s">
-        <v>1050</v>
-      </c>
-      <c r="F225" s="74" t="str">
-        <f t="shared" si="20"/>
-        <v>04</v>
-      </c>
-      <c r="G225" s="74" t="str">
-        <f t="shared" si="21"/>
-        <v>33</v>
-      </c>
-      <c r="H225" s="74" t="str">
-        <f t="shared" si="24"/>
-        <v>A11</v>
-      </c>
-      <c r="I225" s="74" t="str">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="J225" s="74" t="str">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226" spans="1:10" ht="15.75">
-      <c r="A226" s="39" t="s">
-        <v>817</v>
-      </c>
-      <c r="B226" s="76" t="s">
-        <v>1120</v>
-      </c>
-      <c r="C226" s="39" t="s">
-        <v>1051</v>
-      </c>
-      <c r="D226" s="39">
-        <v>1</v>
-      </c>
-      <c r="E226" s="39" t="s">
-        <v>1052</v>
-      </c>
-      <c r="F226" s="74" t="str">
-        <f t="shared" si="20"/>
-        <v>04</v>
-      </c>
-      <c r="G226" s="74" t="str">
-        <f t="shared" si="21"/>
-        <v>33</v>
-      </c>
-      <c r="H226" s="74" t="str">
-        <f t="shared" si="24"/>
-        <v>A11</v>
-      </c>
-      <c r="I226" s="74" t="str">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="J226" s="74" t="str">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227" spans="1:10" ht="15.75">
-      <c r="A227" s="39" t="s">
-        <v>817</v>
-      </c>
-      <c r="B227" s="76" t="s">
-        <v>1121</v>
-      </c>
-      <c r="C227" s="39" t="s">
-        <v>1053</v>
-      </c>
-      <c r="D227" s="39">
-        <v>1</v>
-      </c>
-      <c r="E227" s="39" t="s">
-        <v>1054</v>
-      </c>
-      <c r="F227" s="74" t="str">
-        <f t="shared" si="20"/>
-        <v>04</v>
-      </c>
-      <c r="G227" s="74" t="str">
-        <f t="shared" si="21"/>
-        <v>33</v>
-      </c>
-      <c r="H227" s="74" t="str">
-        <f t="shared" si="24"/>
-        <v>A11</v>
-      </c>
-      <c r="I227" s="74" t="str">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="J227" s="74" t="str">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228" spans="1:10" ht="15.75">
-      <c r="A228" s="39" t="s">
-        <v>817</v>
-      </c>
-      <c r="B228" s="76" t="s">
-        <v>1122</v>
-      </c>
-      <c r="C228" s="39" t="s">
-        <v>1055</v>
-      </c>
-      <c r="D228" s="39">
-        <v>1</v>
-      </c>
-      <c r="E228" s="39" t="s">
-        <v>1056</v>
-      </c>
-      <c r="F228" s="74" t="str">
-        <f t="shared" si="20"/>
-        <v>04</v>
-      </c>
-      <c r="G228" s="74" t="str">
-        <f t="shared" si="21"/>
-        <v>33</v>
-      </c>
-      <c r="H228" s="74" t="str">
-        <f t="shared" si="24"/>
-        <v>A11</v>
-      </c>
-      <c r="I228" s="74" t="str">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="J228" s="74" t="str">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="229" spans="1:10" ht="15.75">
-      <c r="A229" s="39" t="s">
-        <v>817</v>
-      </c>
-      <c r="B229" s="76" t="s">
-        <v>1123</v>
-      </c>
-      <c r="C229" s="39" t="s">
-        <v>1057</v>
-      </c>
-      <c r="D229" s="39">
-        <v>1</v>
-      </c>
-      <c r="E229" s="39" t="s">
-        <v>1058</v>
-      </c>
-      <c r="F229" s="74" t="str">
-        <f t="shared" si="20"/>
-        <v>04</v>
-      </c>
-      <c r="G229" s="74" t="str">
-        <f t="shared" si="21"/>
-        <v>33</v>
-      </c>
-      <c r="H229" s="74" t="str">
-        <f t="shared" si="24"/>
-        <v>A11</v>
-      </c>
-      <c r="I229" s="74" t="str">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="J229" s="74" t="str">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="230" spans="1:10" ht="15.75">
-      <c r="A230" s="39" t="s">
-        <v>817</v>
-      </c>
-      <c r="B230" s="76" t="s">
-        <v>1124</v>
-      </c>
-      <c r="C230" s="39" t="s">
-        <v>1059</v>
-      </c>
-      <c r="D230" s="39">
-        <v>1</v>
-      </c>
-      <c r="E230" s="39" t="s">
-        <v>1060</v>
-      </c>
-      <c r="F230" s="74" t="str">
-        <f t="shared" si="20"/>
-        <v>04</v>
-      </c>
-      <c r="G230" s="74" t="str">
-        <f t="shared" si="21"/>
-        <v>33</v>
-      </c>
-      <c r="H230" s="74" t="str">
-        <f t="shared" si="24"/>
-        <v>A11</v>
-      </c>
-      <c r="I230" s="74" t="str">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="J230" s="74" t="str">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="231" spans="1:10" ht="15.75">
-      <c r="A231" s="39" t="s">
-        <v>817</v>
-      </c>
-      <c r="B231" s="76" t="s">
-        <v>1125</v>
-      </c>
-      <c r="C231" s="39" t="s">
-        <v>1061</v>
-      </c>
-      <c r="D231" s="39">
-        <v>1</v>
-      </c>
-      <c r="E231" s="39" t="s">
-        <v>1062</v>
-      </c>
-      <c r="F231" s="74" t="str">
-        <f t="shared" si="20"/>
-        <v>04</v>
-      </c>
-      <c r="G231" s="74" t="str">
-        <f t="shared" si="21"/>
-        <v>33</v>
-      </c>
-      <c r="H231" s="74" t="str">
-        <f t="shared" si="24"/>
-        <v>A11</v>
-      </c>
-      <c r="I231" s="74" t="str">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="J231" s="74" t="str">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="232" spans="1:10" ht="15.75">
-      <c r="A232" s="39" t="s">
-        <v>817</v>
-      </c>
-      <c r="B232" s="76" t="s">
-        <v>1126</v>
-      </c>
-      <c r="C232" s="39" t="s">
-        <v>1063</v>
-      </c>
-      <c r="D232" s="39">
-        <v>1</v>
-      </c>
-      <c r="E232" s="39" t="s">
-        <v>1064</v>
-      </c>
-      <c r="F232" s="74" t="str">
-        <f t="shared" si="20"/>
-        <v>04</v>
-      </c>
-      <c r="G232" s="74" t="str">
-        <f t="shared" si="21"/>
-        <v>33</v>
-      </c>
-      <c r="H232" s="74" t="str">
-        <f t="shared" si="24"/>
-        <v>A11</v>
-      </c>
-      <c r="I232" s="74" t="str">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="J232" s="74" t="str">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="233" spans="1:10" ht="15.75">
-      <c r="A233" s="39" t="s">
-        <v>817</v>
-      </c>
-      <c r="B233" s="75" t="s">
-        <v>1127</v>
-      </c>
-      <c r="C233" s="39" t="s">
-        <v>1065</v>
-      </c>
-      <c r="D233" s="39">
-        <v>1</v>
-      </c>
-      <c r="E233" s="39" t="s">
-        <v>1066</v>
-      </c>
-      <c r="F233" s="74" t="str">
-        <f t="shared" si="20"/>
-        <v>04</v>
-      </c>
-      <c r="G233" s="74" t="str">
-        <f t="shared" si="21"/>
-        <v>33</v>
-      </c>
-      <c r="H233" s="74" t="str">
-        <f t="shared" si="24"/>
-        <v>A11</v>
-      </c>
-      <c r="I233" s="74" t="str">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="J233" s="74" t="str">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="234" spans="1:10" ht="15.75">
-      <c r="A234" s="39" t="s">
-        <v>817</v>
-      </c>
-      <c r="B234" s="76" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C234" s="39" t="s">
-        <v>1067</v>
-      </c>
-      <c r="D234" s="39">
-        <v>1</v>
-      </c>
-      <c r="E234" s="39" t="s">
-        <v>1068</v>
-      </c>
-      <c r="F234" s="74" t="str">
-        <f t="shared" si="20"/>
-        <v>04</v>
-      </c>
-      <c r="G234" s="74" t="str">
-        <f t="shared" si="21"/>
-        <v>33</v>
-      </c>
-      <c r="H234" s="74" t="str">
-        <f t="shared" si="24"/>
-        <v>A11</v>
-      </c>
-      <c r="I234" s="74" t="str">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="J234" s="74" t="str">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="235" spans="1:10" ht="15.75">
-      <c r="A235" s="39" t="s">
-        <v>817</v>
-      </c>
-      <c r="B235" s="75" t="s">
-        <v>1129</v>
-      </c>
-      <c r="C235" s="39" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D235" s="39">
-        <v>1</v>
-      </c>
-      <c r="E235" s="39" t="s">
-        <v>1070</v>
-      </c>
-      <c r="F235" s="74" t="str">
-        <f t="shared" si="20"/>
-        <v>04</v>
-      </c>
-      <c r="G235" s="74" t="str">
-        <f t="shared" si="21"/>
-        <v>33</v>
-      </c>
-      <c r="H235" s="74" t="str">
-        <f t="shared" si="24"/>
-        <v>A11</v>
-      </c>
-      <c r="I235" s="74" t="str">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="J235" s="74" t="str">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="236" spans="1:10" ht="15.75">
-      <c r="A236" s="39" t="s">
-        <v>817</v>
-      </c>
-      <c r="B236" s="76" t="s">
-        <v>1130</v>
-      </c>
-      <c r="C236" s="39" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D236" s="39">
-        <v>1</v>
-      </c>
-      <c r="E236" s="39" t="s">
-        <v>1072</v>
-      </c>
-      <c r="F236" s="74" t="str">
-        <f t="shared" si="20"/>
-        <v>04</v>
-      </c>
-      <c r="G236" s="74" t="str">
-        <f t="shared" si="21"/>
-        <v>33</v>
-      </c>
-      <c r="H236" s="74" t="str">
-        <f t="shared" si="24"/>
-        <v>A11</v>
-      </c>
-      <c r="I236" s="74" t="str">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="J236" s="74" t="str">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237" spans="1:10" ht="15.75">
-      <c r="A237" s="39" t="s">
-        <v>817</v>
-      </c>
-      <c r="B237" s="76" t="s">
-        <v>1131</v>
-      </c>
-      <c r="C237" s="39" t="s">
-        <v>1073</v>
-      </c>
-      <c r="D237" s="39">
-        <v>1</v>
-      </c>
-      <c r="E237" s="39" t="s">
-        <v>1074</v>
-      </c>
-      <c r="F237" s="74" t="str">
-        <f t="shared" si="20"/>
-        <v>04</v>
-      </c>
-      <c r="G237" s="74" t="str">
-        <f t="shared" si="21"/>
-        <v>33</v>
-      </c>
-      <c r="H237" s="74" t="str">
-        <f t="shared" si="24"/>
-        <v>A11</v>
-      </c>
-      <c r="I237" s="74" t="str">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="J237" s="74" t="str">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="238" spans="1:10" ht="15.75">
-      <c r="A238" s="39" t="s">
-        <v>817</v>
-      </c>
-      <c r="B238" s="76" t="s">
-        <v>1132</v>
-      </c>
-      <c r="C238" s="39" t="s">
-        <v>1075</v>
-      </c>
-      <c r="D238" s="39">
-        <v>1</v>
-      </c>
-      <c r="E238" s="39" t="s">
-        <v>1076</v>
-      </c>
-      <c r="F238" s="74" t="str">
-        <f t="shared" si="20"/>
-        <v>04</v>
-      </c>
-      <c r="G238" s="74" t="str">
-        <f t="shared" si="21"/>
-        <v>33</v>
-      </c>
-      <c r="H238" s="74" t="str">
-        <f t="shared" si="24"/>
-        <v>A11</v>
-      </c>
-      <c r="I238" s="74" t="str">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="J238" s="74" t="str">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="239" spans="1:10" ht="15.75">
-      <c r="A239" s="39" t="s">
-        <v>817</v>
-      </c>
-      <c r="B239" s="76" t="s">
-        <v>1133</v>
-      </c>
-      <c r="C239" s="39" t="s">
-        <v>1077</v>
-      </c>
-      <c r="D239" s="39">
-        <v>1</v>
-      </c>
-      <c r="E239" s="39" t="s">
-        <v>1078</v>
-      </c>
-      <c r="F239" s="74" t="str">
-        <f t="shared" si="20"/>
-        <v>04</v>
-      </c>
-      <c r="G239" s="74" t="str">
-        <f t="shared" si="21"/>
-        <v>33</v>
-      </c>
-      <c r="H239" s="74" t="str">
-        <f t="shared" si="24"/>
-        <v>A11</v>
-      </c>
-      <c r="I239" s="74" t="str">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="J239" s="74" t="str">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240" spans="1:10" ht="15.75">
-      <c r="A240" s="39" t="s">
-        <v>817</v>
-      </c>
-      <c r="B240" s="76" t="s">
-        <v>1134</v>
-      </c>
-      <c r="C240" s="39" t="s">
-        <v>1079</v>
-      </c>
-      <c r="D240" s="39">
-        <v>1</v>
-      </c>
-      <c r="E240" s="39" t="s">
-        <v>1080</v>
-      </c>
-      <c r="F240" s="74" t="str">
-        <f t="shared" si="20"/>
-        <v>04</v>
-      </c>
-      <c r="G240" s="74" t="str">
-        <f t="shared" si="21"/>
-        <v>33</v>
-      </c>
-      <c r="H240" s="74" t="str">
-        <f t="shared" si="24"/>
-        <v>A11</v>
-      </c>
-      <c r="I240" s="74" t="str">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="J240" s="74" t="str">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="241" spans="1:10" ht="15.75">
-      <c r="A241" s="39" t="s">
-        <v>817</v>
-      </c>
-      <c r="B241" s="76" t="s">
-        <v>1135</v>
-      </c>
-      <c r="C241" s="39" t="s">
-        <v>1081</v>
-      </c>
-      <c r="D241" s="39">
-        <v>1</v>
-      </c>
-      <c r="E241" s="39" t="s">
-        <v>1082</v>
-      </c>
-      <c r="F241" s="74" t="str">
-        <f t="shared" si="20"/>
-        <v>04</v>
-      </c>
-      <c r="G241" s="74" t="str">
-        <f t="shared" si="21"/>
-        <v>33</v>
-      </c>
-      <c r="H241" s="74" t="str">
-        <f t="shared" si="24"/>
-        <v>A11</v>
-      </c>
-      <c r="I241" s="74" t="str">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="J241" s="74" t="str">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="242" spans="1:10" ht="15.75">
-      <c r="A242" s="39" t="s">
-        <v>817</v>
-      </c>
-      <c r="B242" s="76" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C242" s="39" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D242" s="39">
-        <v>1</v>
-      </c>
-      <c r="E242" s="39" t="s">
-        <v>1084</v>
-      </c>
-      <c r="F242" s="74" t="str">
-        <f t="shared" si="20"/>
-        <v>04</v>
-      </c>
-      <c r="G242" s="74" t="str">
-        <f t="shared" si="21"/>
-        <v>33</v>
-      </c>
-      <c r="H242" s="74" t="str">
-        <f t="shared" si="24"/>
-        <v>A11</v>
-      </c>
-      <c r="I242" s="74" t="str">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="J242" s="74" t="str">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="243" spans="1:10" ht="15.75">
-      <c r="A243" s="39" t="s">
-        <v>817</v>
-      </c>
-      <c r="B243" s="76" t="s">
-        <v>1137</v>
-      </c>
-      <c r="C243" s="39" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D243" s="39">
-        <v>1</v>
-      </c>
-      <c r="E243" s="39" t="s">
-        <v>1086</v>
-      </c>
-      <c r="F243" s="74" t="str">
-        <f t="shared" si="20"/>
-        <v>04</v>
-      </c>
-      <c r="G243" s="74" t="str">
-        <f t="shared" si="21"/>
-        <v>33</v>
-      </c>
-      <c r="H243" s="74" t="str">
-        <f t="shared" si="24"/>
-        <v>A11</v>
-      </c>
-      <c r="I243" s="74" t="str">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="J243" s="74" t="str">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="244" spans="1:10" ht="15.75">
-      <c r="A244" s="39" t="s">
-        <v>817</v>
-      </c>
-      <c r="B244" s="76" t="s">
-        <v>1138</v>
-      </c>
-      <c r="C244" s="39" t="s">
-        <v>1087</v>
-      </c>
-      <c r="D244" s="39">
-        <v>1</v>
-      </c>
-      <c r="E244" s="39" t="s">
-        <v>1088</v>
-      </c>
-      <c r="F244" s="74" t="str">
-        <f t="shared" si="20"/>
-        <v>04</v>
-      </c>
-      <c r="G244" s="74" t="str">
-        <f t="shared" si="21"/>
-        <v>33</v>
-      </c>
-      <c r="H244" s="74" t="str">
-        <f t="shared" si="24"/>
-        <v>A11</v>
-      </c>
-      <c r="I244" s="74" t="str">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="J244" s="74" t="str">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="245" spans="1:10" ht="15.75">
-      <c r="A245" s="39" t="s">
-        <v>817</v>
-      </c>
-      <c r="B245" s="76" t="s">
-        <v>1139</v>
-      </c>
-      <c r="C245" s="77" t="s">
-        <v>1089</v>
-      </c>
-      <c r="D245" s="39">
-        <v>1</v>
-      </c>
-      <c r="E245" s="39" t="s">
-        <v>1090</v>
-      </c>
-      <c r="F245" s="74" t="str">
-        <f t="shared" si="20"/>
-        <v>04</v>
-      </c>
-      <c r="G245" s="74" t="str">
-        <f t="shared" si="21"/>
-        <v>33</v>
-      </c>
-      <c r="H245" s="74" t="str">
-        <f t="shared" si="24"/>
-        <v>A11</v>
-      </c>
-      <c r="I245" s="74" t="str">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="J245" s="74" t="str">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="246" spans="1:10" ht="15.75">
-      <c r="A246" s="39" t="s">
-        <v>817</v>
-      </c>
-      <c r="B246" s="76" t="s">
-        <v>1140</v>
-      </c>
-      <c r="C246" s="39" t="s">
-        <v>1091</v>
-      </c>
-      <c r="D246" s="39">
-        <v>1</v>
-      </c>
-      <c r="E246" s="39" t="s">
-        <v>1092</v>
-      </c>
-      <c r="F246" s="74" t="str">
-        <f t="shared" si="20"/>
-        <v>04</v>
-      </c>
-      <c r="G246" s="74" t="str">
-        <f t="shared" si="21"/>
-        <v>33</v>
-      </c>
-      <c r="H246" s="74" t="str">
-        <f t="shared" si="24"/>
-        <v>A11</v>
-      </c>
-      <c r="I246" s="74" t="str">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="J246" s="74" t="str">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="247" spans="1:10" ht="15.75">
-      <c r="A247" s="39" t="s">
-        <v>817</v>
-      </c>
-      <c r="B247" s="76" t="s">
-        <v>1141</v>
-      </c>
-      <c r="C247" s="39" t="s">
-        <v>1093</v>
-      </c>
-      <c r="D247" s="39">
-        <v>1</v>
-      </c>
-      <c r="E247" s="39" t="s">
-        <v>1094</v>
-      </c>
-      <c r="F247" s="74" t="str">
-        <f t="shared" si="20"/>
-        <v>04</v>
-      </c>
-      <c r="G247" s="74" t="str">
-        <f t="shared" si="21"/>
-        <v>33</v>
-      </c>
-      <c r="H247" s="74" t="str">
-        <f t="shared" si="24"/>
-        <v>A11</v>
-      </c>
-      <c r="I247" s="74" t="str">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="J247" s="74" t="str">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="248" spans="1:10" ht="15.75">
-      <c r="A248" s="39" t="s">
-        <v>817</v>
-      </c>
-      <c r="B248" s="76" t="s">
-        <v>1142</v>
-      </c>
-      <c r="C248" s="39" t="s">
-        <v>1095</v>
-      </c>
-      <c r="D248" s="39">
-        <v>1</v>
-      </c>
-      <c r="E248" s="39" t="s">
-        <v>1096</v>
-      </c>
-      <c r="F248" s="74" t="str">
-        <f t="shared" si="20"/>
-        <v>04</v>
-      </c>
-      <c r="G248" s="74" t="str">
-        <f t="shared" si="21"/>
-        <v>33</v>
-      </c>
-      <c r="H248" s="74" t="str">
-        <f t="shared" si="24"/>
-        <v>A11</v>
-      </c>
-      <c r="I248" s="74" t="str">
-        <f t="shared" si="22"/>
-        <v>1</v>
-      </c>
-      <c r="J248" s="74" t="str">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="249" spans="1:10">
-      <c r="A249" s="39" t="s">
-        <v>817</v>
-      </c>
-      <c r="B249" s="76" t="s">
-        <v>1143</v>
-      </c>
-      <c r="C249" s="39" t="s">
-        <v>1097</v>
-      </c>
-      <c r="D249" s="39">
-        <v>2</v>
-      </c>
-      <c r="E249" s="39"/>
-      <c r="F249" s="39"/>
-      <c r="G249" s="39"/>
-      <c r="H249" s="39"/>
-      <c r="I249" s="39"/>
-      <c r="J249" s="39"/>
-    </row>
-    <row r="250" spans="1:10">
-      <c r="A250" s="39" t="s">
-        <v>817</v>
-      </c>
-      <c r="B250" s="76" t="s">
-        <v>1144</v>
-      </c>
-      <c r="C250" s="39" t="s">
-        <v>1098</v>
-      </c>
-      <c r="D250" s="39">
-        <v>2</v>
-      </c>
-      <c r="E250" s="39"/>
-      <c r="F250" s="39"/>
-      <c r="G250" s="39"/>
-      <c r="H250" s="39"/>
-      <c r="I250" s="39"/>
-      <c r="J250" s="39"/>
-    </row>
-    <row r="251" spans="1:10">
-      <c r="A251" s="39" t="s">
-        <v>817</v>
-      </c>
-      <c r="B251" s="76" t="s">
-        <v>1145</v>
-      </c>
-      <c r="C251" s="39" t="s">
-        <v>1099</v>
-      </c>
-      <c r="D251" s="39">
-        <v>2</v>
-      </c>
-      <c r="E251" s="39"/>
-      <c r="F251" s="39"/>
-      <c r="G251" s="39"/>
-      <c r="H251" s="39"/>
-      <c r="I251" s="39"/>
-      <c r="J251" s="39"/>
-    </row>
-    <row r="252" spans="1:10">
-      <c r="A252" s="39" t="s">
-        <v>817</v>
-      </c>
-      <c r="B252" s="76" t="s">
-        <v>1146</v>
-      </c>
-      <c r="C252" s="39" t="s">
-        <v>1100</v>
-      </c>
-      <c r="D252" s="39">
-        <v>2</v>
-      </c>
-      <c r="E252" s="39"/>
-      <c r="F252" s="39"/>
-      <c r="G252" s="39"/>
-      <c r="H252" s="39"/>
-      <c r="I252" s="39"/>
-      <c r="J252" s="39"/>
-    </row>
-    <row r="253" spans="1:10">
-      <c r="A253" s="39" t="s">
-        <v>817</v>
-      </c>
-      <c r="B253" s="76" t="s">
-        <v>1147</v>
-      </c>
-      <c r="C253" s="39" t="s">
-        <v>1101</v>
-      </c>
-      <c r="D253" s="39">
-        <v>2</v>
-      </c>
-      <c r="E253" s="39"/>
-      <c r="F253" s="39"/>
-      <c r="G253" s="39"/>
-      <c r="H253" s="39"/>
-      <c r="I253" s="39"/>
-      <c r="J253" s="39"/>
-    </row>
-    <row r="254" spans="1:10">
-      <c r="A254" s="39" t="s">
-        <v>817</v>
-      </c>
-      <c r="B254" s="76" t="s">
-        <v>1148</v>
-      </c>
-      <c r="C254" s="39" t="s">
-        <v>1102</v>
-      </c>
-      <c r="D254" s="39">
-        <v>2</v>
-      </c>
-      <c r="E254" s="39"/>
-      <c r="F254" s="39"/>
-      <c r="G254" s="39"/>
-      <c r="H254" s="39"/>
-      <c r="I254" s="39"/>
-      <c r="J254" s="39"/>
-    </row>
-    <row r="255" spans="1:10">
-      <c r="A255" s="39" t="s">
-        <v>817</v>
-      </c>
-      <c r="B255" s="75" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C255" s="39" t="s">
-        <v>1103</v>
-      </c>
-      <c r="D255" s="39">
-        <v>2</v>
-      </c>
-      <c r="E255" s="39"/>
-      <c r="F255" s="39"/>
-      <c r="G255" s="39"/>
-      <c r="H255" s="39"/>
-      <c r="I255" s="39"/>
-      <c r="J255" s="39"/>
-    </row>
-    <row r="256" spans="1:10">
-      <c r="A256" s="39" t="s">
-        <v>817</v>
-      </c>
-      <c r="B256" s="76" t="s">
-        <v>1150</v>
-      </c>
-      <c r="C256" s="39" t="s">
-        <v>1104</v>
-      </c>
-      <c r="D256" s="39">
-        <v>2</v>
-      </c>
-      <c r="E256" s="39"/>
-      <c r="F256" s="39"/>
-      <c r="G256" s="39"/>
-      <c r="H256" s="39"/>
-      <c r="I256" s="39"/>
-      <c r="J256" s="39"/>
+        <f>MID(E213,8,1)</f>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:J1">
+    <sortState ref="A2:J212">
+      <sortCondition ref="E1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -18144,7 +16355,7 @@
     <row r="37" spans="4:4">
       <c r="D37" s="3">
         <f>LEN(Sheet5!E79)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="38" spans="4:4">
